--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,22 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Documentaries" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MMA Courses" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Tv Series" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Animations" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Comics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Videos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MMA Courses" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Tv Series" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Animations" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Comics" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Documentaries!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="2491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="2594">
   <si>
     <t>Title</t>
   </si>
@@ -6308,357 +6312,498 @@
     <t>magnet:?xt=urn:btih:3ff96a2bb6267d27dac7bb78eb48960152de98cf</t>
   </si>
   <si>
+    <t xml:space="preserve">Fighting in the Age of Loneliness</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-DoaUyMGPWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumping Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empire Of Dust</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bram Van Paesschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addio zio Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gualtiero Jacopetti e Franco Prosperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo cane n. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La donna nel mondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa Addio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Fuentes Most Canceled Man in America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellstorm - The Genocide Of Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World War II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Shadow of Hermes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">üri Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lightbringers: The Emissaries of Jahbulon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf H. The Greatest Story Never Told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnet:?xt=urn:btih:ca4a905cf8f29636bb11de92fc9792a793c633d1&amp;dn=Adolf Hitler The Greatest Story Never Told x264 THADOGG&amp;tr=http://the-torrents.org:8888/d63f5e41c476d6b178f581f29ddf4631/announce&amp;tr=http://tracker.opentrackr.org:1337/announce&amp;tr=udp://tracker.coppersurfer.tk:6969/announce&amp;tr=udp://tracker.openbittorrent.com:80/announce&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New World Order: Communism by Backdoor</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret Masonic Victory of World War Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europa: The Last Battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World War II: Day by Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Majdanek Gas Chamber Myth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last Days of the Big Lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahrheit macht frei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gran tabu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradley Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Day Amazon Murdered History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Holocaust on Trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leslie Woodhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cry from the Grave</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Minds of Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron and Melissa Dykes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Order of Skull and Bones Brotherhood of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony Sutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judea Declares War on Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredrick Töben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Creature from Jekyll Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Edward Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trust Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Insiders (JBS Documentary on the Council on Foreign Relations &amp; Trilateral Commission)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri Bezmenov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind the Big News: Propaganda and the CFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Predictive Programming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODD TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Berlin Sin City Of The 1920's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE KALERGI PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTHEW NORTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S21 KHMER ROUGE KILLING MACHINE</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Maimik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Subversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children of Beslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to Bosnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabina Vajraca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Greatest Lie Ever Sold: George Floyd and the Rise of BLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candace Owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt of The Earth (Nikolay Ragozin), part 1</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergei Bogdanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riddles in the Stone | Secrete Mysteries of Americas Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian J. Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The True Christian History of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge to Babylon: Rome, Ecumenism &amp; the Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Clouds Over Elberton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Secrets - Illuminati and the New Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tares Among the Wheat: Sequel to a Lamp in the Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hidden Faith of the Founding Fathers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lamp in the Dark: The Untold History of the Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kinsey Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Illuminati - Riddles in Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 2: Riddles in Stone - The Secret Architecture of Washington D.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 1: The New Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megiddo: The March to Armageddon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megiddo II: The New Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brinth of the Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigged: The Zuckerberg Funded Plot to Defeat Donald Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Killian Meath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 11: The New Pearl Harbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimo Mazzucco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Moon</t>
+  </si>
+  <si>
+    <t>Plandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaxxed: From Cover-Up to Catastrophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Wakefield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infertility: A Diabolical Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986: The Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clash of Gods [History Channel]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Died Suddenly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Miller Skow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politics Unveiled - Anti-Masons, Etidorhpa, Occult Government, and the Puppet Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Pride MMA Events</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:0e3ff6373e91412157a3becf4b2be66819fee568&amp;dn=%5bPRIDE%5d%20Full%20Colletion%20(1997-2007)%20%5bBy%20SsabroS%5d&amp;tr=udp%3a%2f%2ftracker.dler.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker3.itzmx.com%3a6961%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=http%3a%2f%2frt.tace.ru%3a80%2fannounce&amp;tr=http%3a%2f%2fbt2.t-ru.org%2fann%3fmagnet&amp;tr=http%3a%2f%2fopen.acgnxtracker.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentor.org%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.leechers-paradise.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.coppersurfer.tk%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2f47.ip-51-68-199.eu%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexplodie.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2fretracker.lanta-net.ru%3a2710%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.ds.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2fvalakas.rollo.dnsabr.com%3a2710%2fannounce&amp;tr=udp%3a%2f%2fcdn-2.gamecoast.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.cyberia.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.pirateparty.gr%3a6969%2fannounce&amp;tr=udp%3a%2f%2fopen.demonii.si%3a1337%2fannounce&amp;tr=udp%3a%2f%2fdenis.stalker.upeer.me%3a6969%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic Fights Collection. </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:1424fa0c5600d77d5e8baeca088609107f225b30&amp;dn=Epic%20Fights%20Pack%20vol%201&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=udp%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellator </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:3ed8dcef4794e448522deaf7bc55f0e952dd2edb&amp;dn=Bellator.MMA.Championships.Tournaments.Pack&amp;tr=udp://tracker.opentrackr.org:1337/announce&amp;tr=udp://9.rarbg.com:2810/announce&amp;tr=udp://tracker.openbittorrent.com:6969/announce&amp;tr=http://tracker.openbittorrent.com:80/announce&amp;tr=udp://opentracker.i2p.rocks:6969/announce&amp;tr=https://opentracker.i2p.rocks:443/announce&amp;tr=udp://www.torrent.eu.org:451/announce&amp;tr=udp://tracker.torrent.eu.org:451/announce&amp;tr=udp://open.stealth.si:80/announce&amp;tr=udp://tracker.tiny-vps.com:6969/announce&amp;tr=udp://ipv4.tracker.harry.lu:80/announce&amp;tr=udp://exodus.desync.com:6969/announce&amp;tr=udp://tracker.moeking.me:6969/announce&amp;tr=udp://tracker.loadbt.com:6969/announce&amp;tr=udp://tracker.dler.org:6969/announce&amp;tr=udp://tracker.0x.tf:6969/announce&amp;tr=udp://movies.zsw.ca:6969/announce&amp;tr=udp://explodie.org:6969/announce&amp;tr=udp://bt.oiyo.tk:6969/announce&amp;tr=https://tracker.nanoha.org:443/announce&amp;tr=http://tracker.bt4g.com:2095/announce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie and Mario Sperry Instructionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie Family</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:fa897dbcb48d7942ff43d4d3298b352b0675e68a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie Jiu-Jitsu - Bully Proof </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:0fd0331f1a304c2eccabe35e9dbfacc12fb0dfea&amp;dn=POtHS%204%20-%20Survival%20Series%20-%20Part%2027%20-%20Gracie%20Jiu-Jitsu-%20Bully%20Proof&amp;tr=udp%3a%2f%2ftracker.internetwarriors.net%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.ch%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie Combatives</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:73679db3aa2e413e064dda4621b54364b0df750a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie Jiu-Jitsu (General)</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:fd06670abfb591b403cb090f35123b226716f858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracie Women Empowered</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:5041c87e86b660febeda66a793621bd17c94017b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 principles by Gracies! </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:CED0D72E9747A0C51BCA1AF5322E0E1D9B98AB1B&amp;tr=http%3A%2F%2Fbt2.t-ru.org%2Fann%3Fmagnet&amp;dn=%5BGracie%20University%5D%20The%2032%20Principles%20of%20Jiu-Jitsu%20%5BBJJ%2C%20WEBRip%2C%20ENG%5D%20(%D0%92%D0%B8%D0%B4%D0%B5%D0%BE%D1%83%D1%80%D0%BE%D0%BA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khabib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Careers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnet:?xt=urn:btih:2dd2c76f114d75123fe63bf532f10c215ff15d78&amp;dn=Khabib Nurmagomedov _ Ð¥aÐ±Ð¸Ð± HypÐ¼aÐ³oÐ¼eÐ´oÐ² (CÐ±opÐ½Ð¸Ðº Ð±oÑ‘Ð²)&amp;tr=udp://tracker.opentrackr.org:1337/announce&amp;tr=udp://9.rarbg.com:2810/announce&amp;tr=udp://tracker.openbittorrent.com:6969/announce&amp;tr=http://tracker.openbittorrent.com:80/announce&amp;tr=udp://opentracker.i2p.rocks:6969/announce&amp;tr=https://opentracker.i2p.rocks:443/announce&amp;tr=udp://www.torrent.eu.org:451/announce&amp;tr=udp://tracker.torrent.eu.org:451/announce&amp;tr=udp://open.stealth.si:80/announce&amp;tr=udp://tracker.tiny-vps.com:6969/announce&amp;tr=udp://ipv4.tracker.harry.lu:80/announce&amp;tr=udp://exodus.desync.com:6969/announce&amp;tr=udp://tracker.moeking.me:6969/announce&amp;tr=udp://tracker.loadbt.com:6969/announce&amp;tr=udp://tracker.dler.org:6969/announce&amp;tr=udp://tracker.0x.tf:6969/announce&amp;tr=udp://movies.zsw.ca:6969/announce&amp;tr=udp://explodie.org:6969/announce&amp;tr=udp://bt.oiyo.tk:6969/announce&amp;tr=https://tracker.nanoha.org:443/announce&amp;tr=http://tracker.bt4g.com:2095/announce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Whittaker </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:6bd7013a3e88d7ad8c7e7b0b02f10d29410feb34&amp;dn=Robert%20Whittaker&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.loadbt.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.dler.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.0x.tf%3a6969%2fannounce&amp;tr=udp%3a%2f%2fmovies.zsw.ca%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexplodie.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2fbt.oiyo.tk%3a6969%2fannounce&amp;tr=https%3a%2f%2ftracker.nanoha.org%3a443%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georges St-Pierre </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:526aea67bc11a43873639d523e6302e92c286111&amp;dn=Georges%20St-Pierre&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.publictracker.xyz%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.pomf.se%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conor Mcgregor </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:c4b3eb1d22b8f96fa8f1af30fbf0b2cbc2d59bbd&amp;dn=Conor%20McGregor_%d0%9a%d0%be%d0%bd%d0%be%d1%80%20%d0%9c%d0%b0%d0%ba%d0%b3%d1%80%d0%b5%d0%b3%d0%be%d1%80%20(%d0%a1%d0%b1%d0%be%d1%80%d0%bd%d0%b8%d0%ba%20%d0%b1%d0%be%d1%91%d0%b2)&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.edkj.club%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.srv00.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Aldo </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:6c987b096029dabbce3191c82abf7ab11b8143c7&amp;dn=Jose%20Aldo%20-%20Career&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Tyson </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:efcc17a55bd998c4093952ca818fd4ecda0a09f1&amp;xt=urn:btmh:1220d8067e9f727c50e9559203b430ce4c949364a12351fef081e3ee6cb44e1b2454&amp;dn=Mike%20Tyson%20-%20Complete%20Career%201981-2006&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.srv00.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Diaz </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:644b1641e3a1bb1a0da9997451e3fb0d963849f1&amp;dn=Nick%20Diaz&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Jones </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:4de2eef54e6852d69efcac3b005c971310b9cfb8&amp;dn=Jon%20Jones%20fights&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson Silva </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:77f8d956363aa987b7418f3e50c33f65ff5741f0&amp;dn=Anderson%20Silva&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fedor Emelianenko </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:82cac4c2a2e01450442918820926cf3e03f2234a&amp;dn=Fedor%20Emelianenko%20-%20Career&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cung Le: Career </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:b1480a045d53f49572e34bb189d921fed8717a72&amp;xt=urn:btmh:1220cd94da17fb3d678bea364ef30258c00a906836f6de8edb2dbfe2e72272972e2d&amp;dn=Cung%20Le&amp;tr=http%3a%2f%2ftracker.kicks-ass.net%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.kuroy.me%3a5944%2fannounce&amp;tr=http%3a%2f%2ftracker.mg64.net%3a6881%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tfile.me%2fannounce&amp;tr=http%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tvunderground.org.ru%3a3218%2fannounce&amp;tr=http%3a%2f%2ftracker.yoshi210.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker1.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker2.itzmx.com%3a6961%2fannounce&amp;tr=http%3a%2f%2ftracker2.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%3a80%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen "Wonderboy" Thompson </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:MGJONPBMWOTJ4WSAOCUIPCJWT53HXIPH&amp;dn=Stephen%20(Wonderboy)%20Thompson&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Poirier </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:9480B6E81DD04958D9078927EF241D5869AD71D7&amp;tr=http%3A%2F%2Fbt4.t-ru.org%2Fann%3Fmagnet&amp;dn=%D0%94%D0%B0%D1%81%D1%82%D0%B8%D0%BD%20%D0%9F%D0%BE%D1%80%D1%8C%D0%B5%20%5B%D0%B1%D0%BE%D0%B8%20%D0%B2%20MMA%5D%20%2F%20Dustin%20Poirier%20%5BMMA%20career%5D%20%5B2008-2022%2C%20HD%2FHDTVRip%20720p%5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makhachev </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:7D3AAD3D121B6E86656D29FFD5F37EABA9A97156&amp;tr=http%3A%2F%2Fbt2.t-ru.org%2Fann%3Fmagnet&amp;dn=Islam%20Makhachev%20-%20Career%20%2F%20%D0%98%D1%81%D0%BB%D0%B0%D0%BC%20%D0%9C%D0%B0%D1%85%D0%B0%D1%87%D0%B5%D0%B2%20-%20%D0%9A%D0%B0%D1%80%D1%8C%D0%B5%D1%80%D0%B0%20%5B2011-2022%2C%20MMA%2C%20HDTV%20720%2F1080i%2C%20RUS%2FENG%5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paddy "The Baddy" Pimblett </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:VO3NMB5FPVPEXWIV3EGYK57TTFYJTI5B&amp;dn=Paddy%20(The%20Baddy)%20Pimblett&amp;tr=udp%3A%2F%2Ftracker.lelux.fi%3A6969%2Fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuck "Iceman" Liddell </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:2bdea0c093efd8e9b46bd56ff770943fe8026963&amp;xt=urn:btmh:1220ea16db5b558b5e2c97f8747858bdc3e89f1fea8fa4b85b267ff1d2b8b30f8824&amp;dn=Chuck%20%27%27Iceman%27%27%20Liddell&amp;tr=http%3a%2f%2ftracker.kicks-ass.net%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.kuroy.me%3a5944%2fannounce&amp;tr=http%3a%2f%2ftracker.mg64.net%3a6881%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tfile.me%2fannounce&amp;tr=http%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tvunderground.org.ru%3a3218%2fannounce&amp;tr=http%3a%2f%2ftracker.yoshi210.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker1.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker2.itzmx.com%3a6961%2fannounce&amp;tr=http%3a%2f%2ftracker2.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%3a80%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnold "Almighty" Allen </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:VMZJKRXCXQXMG4D44VBMJZ65UN5FGEJE&amp;dn=Arnold%20(Almighty)%20%20Allen&amp;tr=udp%3A%2F%2Ftracker.lelux.fi%3A6969%2Fannounce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fighting in the Age of Loneliness: Supercut edition</t>
   </si>
   <si>
-    <t>Documentaies</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-DoaUyMGPWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pumping Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empire Of Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addio zio Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gualtiero Jacopetti e Franco Prosperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondo cane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondo cane n. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La donna nel mondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Addio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Fuentes Most Canceled Man in America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellstorm - The Genocide Of Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyle Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the Shadow of Hermes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üri Lina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lightbringers: The Emissaries of Jahbulon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolf H. The Greatest Story Never Told</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis Wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnet:?xt=urn:btih:ca4a905cf8f29636bb11de92fc9792a793c633d1&amp;dn=Adolf Hitler The Greatest Story Never Told x264 THADOGG&amp;tr=http://the-torrents.org:8888/d63f5e41c476d6b178f581f29ddf4631/announce&amp;tr=http://tracker.opentrackr.org:1337/announce&amp;tr=udp://tracker.coppersurfer.tk:6969/announce&amp;tr=udp://tracker.openbittorrent.com:80/announce&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New World Order: Communism by Backdoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Secret Masonic Victory of World War Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europa: The Last Battle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobias B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World War 2: Day by Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Majdanek Gas Chamber Myth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Last Days of the Big Lie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahrheit macht frei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El gran tabu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradley Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Day Amazon Murdered History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Holocaust on Trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie Woodhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cry from the Grave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Minds of Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaron and Melissa Dykes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Order of Skull and Bones Brotherhood of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antony Sutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judea Declares War on Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fredrick Töben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children of Beslan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to Bosnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabina Vajraca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Creature from Jekyll Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Edward Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Trust Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Insiders (JBS Documentary on the Council on Foreign Relations &amp; Trilateral Commission)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuri Bezmenov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behind the Big News: Propaganda and the CFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Predictive Programming?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODD TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Berlin Sin City Of The 1920's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultural Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE KALERGI PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTHEW NORTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S21 KHMER ROUGE KILLING MACHINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Maimik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Subversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Pride MMA Events</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:0e3ff6373e91412157a3becf4b2be66819fee568&amp;dn=%5bPRIDE%5d%20Full%20Colletion%20(1997-2007)%20%5bBy%20SsabroS%5d&amp;tr=udp%3a%2f%2ftracker.dler.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker3.itzmx.com%3a6961%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=http%3a%2f%2frt.tace.ru%3a80%2fannounce&amp;tr=http%3a%2f%2fbt2.t-ru.org%2fann%3fmagnet&amp;tr=http%3a%2f%2fopen.acgnxtracker.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentor.org%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.leechers-paradise.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.coppersurfer.tk%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2f47.ip-51-68-199.eu%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexplodie.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2fretracker.lanta-net.ru%3a2710%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.ds.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2fvalakas.rollo.dnsabr.com%3a2710%2fannounce&amp;tr=udp%3a%2f%2fcdn-2.gamecoast.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.cyberia.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.pirateparty.gr%3a6969%2fannounce&amp;tr=udp%3a%2f%2fopen.demonii.si%3a1337%2fannounce&amp;tr=udp%3a%2f%2fdenis.stalker.upeer.me%3a6969%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epic Fights Collection. </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:1424fa0c5600d77d5e8baeca088609107f225b30&amp;dn=Epic%20Fights%20Pack%20vol%201&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=udp%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellator </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:3ed8dcef4794e448522deaf7bc55f0e952dd2edb&amp;dn=Bellator.MMA.Championships.Tournaments.Pack&amp;tr=udp://tracker.opentrackr.org:1337/announce&amp;tr=udp://9.rarbg.com:2810/announce&amp;tr=udp://tracker.openbittorrent.com:6969/announce&amp;tr=http://tracker.openbittorrent.com:80/announce&amp;tr=udp://opentracker.i2p.rocks:6969/announce&amp;tr=https://opentracker.i2p.rocks:443/announce&amp;tr=udp://www.torrent.eu.org:451/announce&amp;tr=udp://tracker.torrent.eu.org:451/announce&amp;tr=udp://open.stealth.si:80/announce&amp;tr=udp://tracker.tiny-vps.com:6969/announce&amp;tr=udp://ipv4.tracker.harry.lu:80/announce&amp;tr=udp://exodus.desync.com:6969/announce&amp;tr=udp://tracker.moeking.me:6969/announce&amp;tr=udp://tracker.loadbt.com:6969/announce&amp;tr=udp://tracker.dler.org:6969/announce&amp;tr=udp://tracker.0x.tf:6969/announce&amp;tr=udp://movies.zsw.ca:6969/announce&amp;tr=udp://explodie.org:6969/announce&amp;tr=udp://bt.oiyo.tk:6969/announce&amp;tr=https://tracker.nanoha.org:443/announce&amp;tr=http://tracker.bt4g.com:2095/announce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie and Mario Sperry Instructionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie Family</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:fa897dbcb48d7942ff43d4d3298b352b0675e68a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie Jiu-Jitsu - Bully Proof </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:0fd0331f1a304c2eccabe35e9dbfacc12fb0dfea&amp;dn=POtHS%204%20-%20Survival%20Series%20-%20Part%2027%20-%20Gracie%20Jiu-Jitsu-%20Bully%20Proof&amp;tr=udp%3a%2f%2ftracker.internetwarriors.net%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.ch%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie Combatives</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:73679db3aa2e413e064dda4621b54364b0df750a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie Jiu-Jitsu (General)</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:fd06670abfb591b403cb090f35123b226716f858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracie Women Empowered</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:5041c87e86b660febeda66a793621bd17c94017b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 principles by Gracies! </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:CED0D72E9747A0C51BCA1AF5322E0E1D9B98AB1B&amp;tr=http%3A%2F%2Fbt2.t-ru.org%2Fann%3Fmagnet&amp;dn=%5BGracie%20University%5D%20The%2032%20Principles%20of%20Jiu-Jitsu%20%5BBJJ%2C%20WEBRip%2C%20ENG%5D%20(%D0%92%D0%B8%D0%B4%D0%B5%D0%BE%D1%83%D1%80%D0%BE%D0%BA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khabib </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete Careers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnet:?xt=urn:btih:2dd2c76f114d75123fe63bf532f10c215ff15d78&amp;dn=Khabib Nurmagomedov _ Ð¥aÐ±Ð¸Ð± HypÐ¼aÐ³oÐ¼eÐ´oÐ² (CÐ±opÐ½Ð¸Ðº Ð±oÑ‘Ð²)&amp;tr=udp://tracker.opentrackr.org:1337/announce&amp;tr=udp://9.rarbg.com:2810/announce&amp;tr=udp://tracker.openbittorrent.com:6969/announce&amp;tr=http://tracker.openbittorrent.com:80/announce&amp;tr=udp://opentracker.i2p.rocks:6969/announce&amp;tr=https://opentracker.i2p.rocks:443/announce&amp;tr=udp://www.torrent.eu.org:451/announce&amp;tr=udp://tracker.torrent.eu.org:451/announce&amp;tr=udp://open.stealth.si:80/announce&amp;tr=udp://tracker.tiny-vps.com:6969/announce&amp;tr=udp://ipv4.tracker.harry.lu:80/announce&amp;tr=udp://exodus.desync.com:6969/announce&amp;tr=udp://tracker.moeking.me:6969/announce&amp;tr=udp://tracker.loadbt.com:6969/announce&amp;tr=udp://tracker.dler.org:6969/announce&amp;tr=udp://tracker.0x.tf:6969/announce&amp;tr=udp://movies.zsw.ca:6969/announce&amp;tr=udp://explodie.org:6969/announce&amp;tr=udp://bt.oiyo.tk:6969/announce&amp;tr=https://tracker.nanoha.org:443/announce&amp;tr=http://tracker.bt4g.com:2095/announce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Whittaker </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:6bd7013a3e88d7ad8c7e7b0b02f10d29410feb34&amp;dn=Robert%20Whittaker&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.loadbt.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.dler.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.0x.tf%3a6969%2fannounce&amp;tr=udp%3a%2f%2fmovies.zsw.ca%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexplodie.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2fbt.oiyo.tk%3a6969%2fannounce&amp;tr=https%3a%2f%2ftracker.nanoha.org%3a443%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georges St-Pierre </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:526aea67bc11a43873639d523e6302e92c286111&amp;dn=Georges%20St-Pierre&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.publictracker.xyz%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.pomf.se%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conor Mcgregor </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:c4b3eb1d22b8f96fa8f1af30fbf0b2cbc2d59bbd&amp;dn=Conor%20McGregor_%d0%9a%d0%be%d0%bd%d0%be%d1%80%20%d0%9c%d0%b0%d0%ba%d0%b3%d1%80%d0%b5%d0%b3%d0%be%d1%80%20(%d0%a1%d0%b1%d0%be%d1%80%d0%bd%d0%b8%d0%ba%20%d0%b1%d0%be%d1%91%d0%b2)&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.edkj.club%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.srv00.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.bt4g.com%3a2095%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Aldo </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:6c987b096029dabbce3191c82abf7ab11b8143c7&amp;dn=Jose%20Aldo%20-%20Career&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Tyson </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:efcc17a55bd998c4093952ca818fd4ecda0a09f1&amp;xt=urn:btmh:1220d8067e9f727c50e9559203b430ce4c949364a12351fef081e3ee6cb44e1b2454&amp;dn=Mike%20Tyson%20-%20Complete%20Career%201981-2006&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.theoks.net%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.srv00.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.skyts.net%3a6969%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Diaz </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:644b1641e3a1bb1a0da9997451e3fb0d963849f1&amp;dn=Nick%20Diaz&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.zerobytes.xyz%3a1337%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jon Jones </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:4de2eef54e6852d69efcac3b005c971310b9cfb8&amp;dn=Jon%20Jones%20fights&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson Silva </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:77f8d956363aa987b7418f3e50c33f65ff5741f0&amp;dn=Anderson%20Silva&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker2.dler.org%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker1.myporn.club%3a9337%2fannounce&amp;tr=udp%3a%2f%2ftracker1.bt.moack.co.kr%3a80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fedor Emelianenko </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:82cac4c2a2e01450442918820926cf3e03f2234a&amp;dn=Fedor%20Emelianenko%20-%20Career&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.tracker.cl%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.com%3a2810%2fannounce&amp;tr=udp%3a%2f%2fopentracker.i2p.rocks%3a6969%2fannounce&amp;tr=https%3a%2f%2fopentracker.i2p.rocks%3a443%2fannounce&amp;tr=udp%3a%2f%2ftracker.openbittorrent.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.openbittorrent.com%3a80%2fannounce&amp;tr=udp%3a%2f%2fwww.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fipv4.tracker.harry.lu%3a80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cung Le: Career </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:b1480a045d53f49572e34bb189d921fed8717a72&amp;xt=urn:btmh:1220cd94da17fb3d678bea364ef30258c00a906836f6de8edb2dbfe2e72272972e2d&amp;dn=Cung%20Le&amp;tr=http%3a%2f%2ftracker.kicks-ass.net%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.kuroy.me%3a5944%2fannounce&amp;tr=http%3a%2f%2ftracker.mg64.net%3a6881%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tfile.me%2fannounce&amp;tr=http%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tvunderground.org.ru%3a3218%2fannounce&amp;tr=http%3a%2f%2ftracker.yoshi210.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker1.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker2.itzmx.com%3a6961%2fannounce&amp;tr=http%3a%2f%2ftracker2.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%3a80%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen "Wonderboy" Thompson </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:MGJONPBMWOTJ4WSAOCUIPCJWT53HXIPH&amp;dn=Stephen%20(Wonderboy)%20Thompson&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dustin Poirier </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:9480B6E81DD04958D9078927EF241D5869AD71D7&amp;tr=http%3A%2F%2Fbt4.t-ru.org%2Fann%3Fmagnet&amp;dn=%D0%94%D0%B0%D1%81%D1%82%D0%B8%D0%BD%20%D0%9F%D0%BE%D1%80%D1%8C%D0%B5%20%5B%D0%B1%D0%BE%D0%B8%20%D0%B2%20MMA%5D%20%2F%20Dustin%20Poirier%20%5BMMA%20career%5D%20%5B2008-2022%2C%20HD%2FHDTVRip%20720p%5D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makhachev </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:7D3AAD3D121B6E86656D29FFD5F37EABA9A97156&amp;tr=http%3A%2F%2Fbt2.t-ru.org%2Fann%3Fmagnet&amp;dn=Islam%20Makhachev%20-%20Career%20%2F%20%D0%98%D1%81%D0%BB%D0%B0%D0%BC%20%D0%9C%D0%B0%D1%85%D0%B0%D1%87%D0%B5%D0%B2%20-%20%D0%9A%D0%B0%D1%80%D1%8C%D0%B5%D1%80%D0%B0%20%5B2011-2022%2C%20MMA%2C%20HDTV%20720%2F1080i%2C%20RUS%2FENG%5D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paddy "The Baddy" Pimblett </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:VO3NMB5FPVPEXWIV3EGYK57TTFYJTI5B&amp;dn=Paddy%20(The%20Baddy)%20Pimblett&amp;tr=udp%3A%2F%2Ftracker.lelux.fi%3A6969%2Fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuck "Iceman" Liddell </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:2bdea0c093efd8e9b46bd56ff770943fe8026963&amp;xt=urn:btmh:1220ea16db5b558b5e2c97f8747858bdc3e89f1fea8fa4b85b267ff1d2b8b30f8824&amp;dn=Chuck%20%27%27Iceman%27%27%20Liddell&amp;tr=http%3a%2f%2ftracker.kicks-ass.net%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.kuroy.me%3a5944%2fannounce&amp;tr=http%3a%2f%2ftracker.mg64.net%3a6881%2fannounce&amp;tr=http%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=http%3a%2f%2ftracker.skyts.net%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tfile.me%2fannounce&amp;tr=http%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker.tvunderground.org.ru%3a3218%2fannounce&amp;tr=http%3a%2f%2ftracker.yoshi210.com%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker1.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2ftracker2.itzmx.com%3a6961%2fannounce&amp;tr=http%3a%2f%2ftracker2.wasabii.com.tw%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%2fannounce&amp;tr=http%3a%2f%2fwww.wareztorrent.com%3a80%2fannounce&amp;tr=http%3a%2f%2fopen.tracker.thepiratebay.org%2fannounce&amp;tr=http%3a%2f%2fwww.torrent-downloads.to%3a2710%2fannounce&amp;tr=http%3a%2f%2fdenis.stalker.h3q.com%3a6969%2fannounce&amp;tr=http%3a%2f%2fwww.sumotracker.com%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnold "Almighty" Allen </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:VMZJKRXCXQXMG4D44VBMJZ65UN5FGEJE&amp;dn=Arnold%20(Almighty)%20%20Allen&amp;tr=udp%3A%2F%2Ftracker.lelux.fi%3A6969%2Fannounce</t>
-  </si>
-  <si>
     <t>Documentarys</t>
   </si>
   <si>
@@ -7190,22 +7335,67 @@
     <t xml:space="preserve">Yellow Submarine Beatles</t>
   </si>
   <si>
+    <t xml:space="preserve"> George Dunning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feature-length Animations</t>
   </si>
   <si>
     <t xml:space="preserve">Belladonna of Sadness</t>
   </si>
   <si>
+    <t xml:space="preserve">Eiichi Yamamoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Battleship Yamato</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Thousand and One Arabian Nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odin: Photon Sailer Starlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sensualist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerald Potterton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire and Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Bakshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz the Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lord of the Rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Traffic</t>
+  </si>
+  <si>
+    <t>Coonskin</t>
+  </si>
+  <si>
     <t>Wizards</t>
   </si>
   <si>
-    <t xml:space="preserve">Heavy Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Masters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire and Ice</t>
+    <t xml:space="preserve">American Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey Good Lookin</t>
   </si>
   <si>
     <t xml:space="preserve">Golgo 13</t>
@@ -7220,57 +7410,99 @@
     <t xml:space="preserve">Clive A. Smith</t>
   </si>
   <si>
+    <t>Gandahar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">René Laloux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Prisonnière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Planète Sauvage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Maîtres du Temps</t>
+  </si>
+  <si>
+    <t>Akira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsuhiro Otomo</t>
+  </si>
+  <si>
+    <t>Steamboy</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Dallos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamoru Oshii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patlabor 2</t>
+  </si>
+  <si>
+    <t>Patlabor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Angels Egg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mamoru Oshii</t>
-  </si>
-  <si>
-    <t>Gandahar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">René Laloux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Prisonnière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Planète Sauvage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les Maîtres du Temps</t>
-  </si>
-  <si>
-    <t>Akira</t>
+    <t xml:space="preserve">Ghost In the Shell 2: Innocence</t>
   </si>
   <si>
     <t xml:space="preserve">Ghost In the Shell</t>
   </si>
   <si>
+    <t xml:space="preserve">The Sky Crawlers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect Blue</t>
   </si>
   <si>
+    <t xml:space="preserve">Satoshi Kon</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jin-Roh - The Wolf Brigade</t>
   </si>
   <si>
+    <t xml:space="preserve">Hiroyuki Okiura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record of the Lodoss War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krvavá pani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Kubal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Angel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Bokanowski</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Iron Giant</t>
   </si>
   <si>
     <t xml:space="preserve">Legend of the Galactic Heros</t>
   </si>
   <si>
-    <t>Paprika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Battleship Yamato</t>
+    <t xml:space="preserve">Armored Troopers Voton</t>
   </si>
   <si>
     <t xml:space="preserve">Serialized Animations</t>
   </si>
   <si>
-    <t xml:space="preserve">Armored Troopers Voton</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Cockpit</t>
   </si>
   <si>
@@ -7307,6 +7539,12 @@
     <t>magnet:?xt=urn:btih:22d219e0d87f0948471784ecdfcf60e54db7ed7a&amp;dn=Murdoch%20Murdoch&amp;tr=http%3A%2F%2Fshare.camoe.cn%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce&amp;tr=http%3A%2F%2Ft.nyaatracker.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.doko.moe%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fasnet.pw%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.co%3A80%2Fannounce&amp;tr=http%3A%2F%2Fpt.lax.mx%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fsantost12.xyz%3A6969%2Fannounce&amp;tr=https%3A%2F%2Ftracker.bt-hash.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fzephir.monocul.us%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fgrifon.info%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.spark-rostov.ru%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftr.kxmp.cf%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.city9x.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fbt.aoeex.com%3A8000%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.telecom.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.electro-torrent.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.halfchub.club%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.nts.su%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fwambo.club%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dutchtracking.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftc.animereactor.ru%3A8082%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.justseed.it%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=https%3A%2F%2Fopen.kickasstracker.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.mgts.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.bashtel.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Finferno.demonoid.pw%3A3418%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cypherpunks.ru%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.calculate.ru%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.krs-ix.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.indowebster.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittorrent.am%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%2Fannounce&amp;tr=http%3A%2F%2Ftracker.baravik.org%3A6970%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker4.piratux.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.skyts.net%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.itzmx.com%3A6961%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fwww.wareztorrent.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.eddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.edoardocolombo.eu%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.mg64.net%3A6881%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker1.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=http%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.gorcomnet.ru%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969&amp;tr=udp%3A%2F%2Fpublic.popcorn-tracker.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ilibr.org%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kuroy.me%3A5944%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.devil-torrents.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.christianbro.pw%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.lanta-net.ru%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fulfbrueggemann.no-ip.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.eu%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Fpeerfect.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.swateam.org.uk%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fns349743.ip-91-121-106.eu%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.me%3A8080%2Fannounce&amp;tr=http%3A%2F%2Fagusiq-torrents.pl%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ffxtt.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fexplodie.org%3A6969</t>
   </si>
   <si>
+    <t xml:space="preserve">Spicy City</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Manga</t>
   </si>
   <si>
@@ -7454,43 +7692,118 @@
     <t>magnet:?xt=urn:btih:4096337DB3CEF17640FDEE62ECD47B11E767016D&amp;dn=IMAGE+COMICS+Mega+pack+T-Z+-+Wetworks%2C+WildC.A.T.s%2C+Youngblood&amp;tr=http%3A%2F%2Fp4p.arenabg.com%3A1337%2Fannounce&amp;tr=udp%3A%2F%2F47.ip-51-68-199.eu%3A6969%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.me%3A2780%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.to%3A2710%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.to%3A2730%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.to%3A2920%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fopentracker.i2p.rocks%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dler.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.openbittorrent.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337&amp;tr=udp%3A%2F%2Ftracker.pirateparty.gr%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce</t>
   </si>
   <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Comics</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:84e078a6ba06560f8129f4f08479dd650e676d92&amp;dn=Savage%20Sword%20of%20Conan%20-%20Complete&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.openbittorrent.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dler.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopentracker.i2p.rocks%3A6969%2Fannounce&amp;tr=udp%3A%2F%2F47.ip-51-68-199.eu%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.to%3A2920%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.pirateparty.gr%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce</t>
+  </si>
+  <si>
+    <t>TinTin</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:f6cd72de640f20855989e86ca94013ec881b8836&amp;dn=TinTin%20--%20Full%20PDF%20Collector%27s%20Edition&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.zer0day.to%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Feddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fcoppersurfer.tk%3A6969%2Fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampirella Archives Complete 1-15</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:140a75330a40cb7f50b31114f628485f0b786a95&amp;dn=Vampirella%20Archives%20(v01-v15)(2012-2016)(digital)&amp;tr=udp%3a%2f%2fopentrackr.org%3a1337&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.internetwarriors.net%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2730%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2740%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2720%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2740%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2770%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451&amp;tr=http%3a%2f%2ftracker.files.fm%3a6969%2fannounce&amp;tr=http%3a%2f%2fretracker.joxnet.ru%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.moxing.party%3a6969%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2770%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2730%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=http%3a%2f%2fshare.camoe.cn%3a8080%2fannounce&amp;tr=udp%3a%2f%2fretracker.lanta-net.ru%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftorrentclub.tech%3a6969%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asterix Collection (1-38)</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:3faaacc8e92c85f4dc1030265cd8836f427ff350&amp;dn=(WebP)%20Asterix%20Comics%20Complete%20Collection%20ENG%20(Doc%20MaKS)&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.coppersurfer.tk%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.iamhansen.xyz%3a2000%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.demonii.si%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.pirateparty.gr%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.leechers-paradise.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.zer0day.to%3a1337%2fannounce&amp;tr=udp%3a%2f%2feddie4.nl%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.cyberia.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2710%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=http%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2fcoppersurfer.tk%3a6969%2fannounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conquering Armies</t>
+  </si>
+  <si>
+    <t>Dionnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Comics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterminator 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Metabarons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Gimenez &amp; Alejandro Jodorowsky</t>
+  </si>
+  <si>
+    <t>Technopriests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoran Janjetov &amp; Alejandro Jodorowsky</t>
+  </si>
+  <si>
+    <t>Incal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moebius &amp; Alejandro Jodorowsky</t>
+  </si>
+  <si>
+    <t>Arzach</t>
+  </si>
+  <si>
+    <t>Moebius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharagonesia and Other Strange Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gardens of Aedena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Long Tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Airtight Garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lone Sloane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe Druillet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gail </t>
+  </si>
+  <si>
+    <t>Salammbô</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Barreiro e Enrique Alcatena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Corben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Hurtlant</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Magazines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heavy Metal (1977-2022)    </t>
   </si>
   <si>
-    <t xml:space="preserve">Other Comics</t>
-  </si>
-  <si>
     <t>magnet:?xt=urn:btih:4eddadf7ed70f2a13024489d5f56badc4b24d944&amp;dn=Heavy+Metal+(1977-2022)&amp;tr=udp://tracker.openbittorrent.com:80&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
   </si>
   <si>
-    <t>Conan</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:84e078a6ba06560f8129f4f08479dd650e676d92&amp;dn=Savage%20Sword%20of%20Conan%20-%20Complete&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.openbittorrent.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dler.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopentracker.i2p.rocks%3A6969%2Fannounce&amp;tr=udp%3A%2F%2F47.ip-51-68-199.eu%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2F9.rarbg.to%3A2920%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.pirateparty.gr%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce</t>
-  </si>
-  <si>
-    <t>TinTin</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:f6cd72de640f20855989e86ca94013ec881b8836&amp;dn=TinTin%20--%20Full%20PDF%20Collector%27s%20Edition&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.zer0day.to%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Feddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fcoppersurfer.tk%3A6969%2Fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vampirella Archives Complete 1-15</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:140a75330a40cb7f50b31114f628485f0b786a95&amp;dn=Vampirella%20Archives%20(v01-v15)(2012-2016)(digital)&amp;tr=udp%3a%2f%2fopentrackr.org%3a1337&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451%2fannounce&amp;tr=udp%3a%2f%2ftracker.internetwarriors.net%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2730%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2740%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2720%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2740%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2770%2fannounce&amp;tr=udp%3a%2f%2ftracker.torrent.eu.org%3a451&amp;tr=http%3a%2f%2ftracker.files.fm%3a6969%2fannounce&amp;tr=http%3a%2f%2fretracker.joxnet.ru%3a80%2fannounce&amp;tr=http%3a%2f%2ftracker.moxing.party%3a6969%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2770%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.me%3a2730%2fannounce&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fopen.stealth.si%3a80%2fannounce&amp;tr=http%3a%2f%2fshare.camoe.cn%3a8080%2fannounce&amp;tr=udp%3a%2f%2fretracker.lanta-net.ru%3a2710%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftorrentclub.tech%3a6969%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judge Dredd Comics</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:fe3ac88d1abcc07bbb8636ea07d1fd89f747185e&amp;dn=2000AD%20(0000-2162%2b)(1977-)&amp;tr=http%3a%2f%2ftracker.electro-torrent.pl%3a80%2fannounce&amp;tr=udp%3a%2f%2ftracker.internetwarriors.net%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.coppersurfer.tk%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.pirateparty.gr%3a6969%2fannounce&amp;tr=udp%3a%2f%2fretracker.lanta-net.ru%3a2710%2fannounce&amp;tr=udp%3a%2f%2fopen.demonii.si%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.tiny-vps.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2fdenis.stalker.upeer.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.moeking.me%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftorrentclub.tech%3a6969%2fannounce&amp;tr=UDP%3a%2f%2fTRACKER.LEECHERS-PARADISE.ORG%3a6969%2fANNOUNCE&amp;tr=UDP%3a%2f%2fTRACKER.COPPERSURFER.TK%3a6969%2fANNOUNCE&amp;tr=UDP%3a%2f%2fTRACKER.OPENTRACKR.ORG%3a1337%2fANNOUNCE&amp;tr=udp%3a%2f%2ftracker.zer0day.to%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.leechers-paradise.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2fcoppersurfer.tk%3a6969%2fannounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asterix Collection (1-38)</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:3faaacc8e92c85f4dc1030265cd8836f427ff350&amp;dn=(WebP)%20Asterix%20Comics%20Complete%20Collection%20ENG%20(Doc%20MaKS)&amp;tr=udp%3a%2f%2fexodus.desync.com%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.coppersurfer.tk%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.iamhansen.xyz%3a2000%2fannounce&amp;tr=udp%3a%2f%2ftracker.opentrackr.org%3a1337%2fannounce&amp;tr=udp%3a%2f%2fopen.demonii.si%3a1337%2fannounce&amp;tr=udp%3a%2f%2ftracker.pirateparty.gr%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.leechers-paradise.org%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.zer0day.to%3a1337%2fannounce&amp;tr=udp%3a%2f%2feddie4.nl%3a6969%2fannounce&amp;tr=udp%3a%2f%2ftracker.cyberia.is%3a6969%2fannounce&amp;tr=udp%3a%2f%2f9.rarbg.to%3a2710%2fannounce&amp;tr=udp%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=http%3a%2f%2fp4p.arenabg.com%3a1337%2fannounce&amp;tr=udp%3a%2f%2fcoppersurfer.tk%3a6969%2fannounce</t>
+    <t>Epic</t>
   </si>
 </sst>
 </file>
@@ -7574,7 +7887,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7585,8 +7898,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7603,17 +7914,28 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24605,15 +24927,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B64" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.421875"/>
+    <col customWidth="1" min="1" max="1" width="56.57421875"/>
     <col customWidth="1" min="2" max="2" width="36.7109375"/>
-    <col customWidth="1" min="3" max="3" width="23.421875"/>
+    <col customWidth="1" min="3" max="3" width="37.7109375"/>
     <col customWidth="1" min="4" max="4" width="80.8515625"/>
   </cols>
   <sheetData>
@@ -24641,7 +24963,6 @@
       <c r="B2" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="5" t="s">
         <v>2098</v>
       </c>
@@ -24653,359 +24974,724 @@
       <c r="B3" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B4" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>2102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2103</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2102</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>2102</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="6" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>2102</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>2105</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>2102</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="6"/>
-      <c r="B9"/>
-      <c r="C9" s="6"/>
+      <c r="A9" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2106</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="B10" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>2112</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2107</v>
+        <v>2113</v>
       </c>
       <c r="B11" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>2114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2115</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="B12" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>2109</v>
+        <v>2102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2110</v>
+        <v>2118</v>
       </c>
       <c r="B13" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>2111</v>
+        <v>2102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2112</v>
+        <v>2119</v>
       </c>
       <c r="B14" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>2111</v>
+        <v>2114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2113</v>
+        <v>2122</v>
       </c>
       <c r="B15" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2115</v>
+        <v>2123</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>2114</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>2114</v>
+      <c r="C16" s="3" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
       <c r="B17" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2114</v>
+        <v>2112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2118</v>
+        <v>2127</v>
       </c>
       <c r="B18" t="s">
-        <v>2119</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2119</v>
+        <v>2114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2120</v>
+        <v>2128</v>
       </c>
       <c r="B19" t="s">
-        <v>2119</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2119</v>
+        <v>2114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2121</v>
+        <v>2130</v>
       </c>
       <c r="B20" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2122</v>
+        <v>2114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2123</v>
+        <v>2131</v>
       </c>
       <c r="B21" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2122</v>
+        <v>2114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2124</v>
+        <v>2133</v>
       </c>
       <c r="B22" t="s">
-        <v>2125</v>
+        <v>2114</v>
       </c>
       <c r="C22" t="s">
-        <v>2125</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2126</v>
+        <v>2135</v>
       </c>
       <c r="B23" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2127</v>
+        <v>2112</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2134</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2128</v>
+        <v>2136</v>
       </c>
       <c r="B24" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2127</v>
+        <v>2114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2129</v>
+        <v>2138</v>
       </c>
       <c r="B25" t="s">
-        <v>2130</v>
+        <v>2139</v>
       </c>
       <c r="C25" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2131</v>
+        <v>2140</v>
       </c>
       <c r="B26" t="s">
-        <v>2130</v>
+        <v>2102</v>
       </c>
       <c r="C26" t="s">
-        <v>2130</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2132</v>
+        <v>2142</v>
       </c>
       <c r="B27" t="s">
-        <v>2133</v>
+        <v>2123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2143</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2134</v>
+        <v>2144</v>
       </c>
       <c r="B28" t="s">
-        <v>2135</v>
+        <v>2114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2145</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2136</v>
+        <v>2146</v>
       </c>
       <c r="B29" t="s">
-        <v>2137</v>
+        <v>2112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2130</v>
+        <v>2148</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="6" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2140</v>
+      <c r="A31" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2150</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2142</v>
+        <v>2151</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" t="s">
-        <v>2143</v>
+      <c r="A33" s="3" t="s">
+        <v>2152</v>
       </c>
       <c r="B33" t="s">
-        <v>2133</v>
+        <v>2123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2153</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2145</v>
+      <c r="A34" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2155</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" t="s">
-        <v>2146</v>
+      <c r="A35" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2157</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="6" t="s">
-        <v>2147</v>
+      <c r="A36" s="3" t="s">
+        <v>2158</v>
       </c>
       <c r="B36" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="6" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2150</v>
+      <c r="A37" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="6" t="s">
-        <v>2151</v>
+      <c r="A38" t="s">
+        <v>2162</v>
       </c>
       <c r="B38" t="s">
-        <v>2152</v>
+        <v>2102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="6" t="s">
-        <v>2153</v>
+      <c r="A39" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="6" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2155</v>
-      </c>
+      <c r="A40" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2157</v>
+      <c r="A44" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
@@ -25017,6 +25703,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.421875"/>
+    <col customWidth="1" min="2" max="2" width="22.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
@@ -25046,296 +25778,296 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2158</v>
+        <v>2204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2159</v>
+        <v>2205</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2160</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2161</v>
+        <v>2207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2159</v>
+        <v>2205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2162</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2163</v>
+        <v>2209</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2159</v>
+        <v>2205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2164</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2165</v>
+        <v>2211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2167</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2168</v>
+        <v>2214</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2169</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2170</v>
+        <v>2216</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2171</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2172</v>
+        <v>2218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2173</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2174</v>
+        <v>2220</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2175</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2176</v>
+        <v>2222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2177</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2178</v>
+        <v>2224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2180</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2181</v>
+        <v>2227</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2182</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2183</v>
+        <v>2229</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2184</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2185</v>
+        <v>2231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2186</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2187</v>
+        <v>2233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2188</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2189</v>
+        <v>2235</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2190</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2191</v>
+        <v>2237</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2192</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2193</v>
+        <v>2239</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2194</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2195</v>
+        <v>2241</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2196</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2197</v>
+        <v>2243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2198</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2199</v>
+        <v>2245</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2200</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2201</v>
+        <v>2247</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2202</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2203</v>
+        <v>2249</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2204</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2205</v>
+        <v>2251</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2206</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2207</v>
+        <v>2253</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2208</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2209</v>
+        <v>2255</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2210</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2211</v>
+        <v>2257</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2179</v>
+        <v>2225</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2212</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2096</v>
+        <v>2259</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2213</v>
+        <v>2260</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2098</v>
@@ -25343,1003 +26075,844 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2214</v>
+        <v>2261</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2216</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2217</v>
+        <v>2264</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2218</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2219</v>
+        <v>2266</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2220</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2221</v>
+        <v>2268</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2222</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2223</v>
+        <v>2270</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2224</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2225</v>
+        <v>2272</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2226</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2227</v>
+        <v>2274</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2228</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2229</v>
+        <v>2276</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2230</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2231</v>
+        <v>2278</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2232</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2233</v>
+        <v>2280</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2235</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2236</v>
+        <v>2283</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2237</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2238</v>
+        <v>2285</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2239</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2240</v>
+        <v>2287</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2241</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2242</v>
+        <v>2289</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2243</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2244</v>
+        <v>2291</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2245</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2246</v>
+        <v>2293</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2247</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2248</v>
+        <v>2295</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2249</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2250</v>
+        <v>2297</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2234</v>
+        <v>2281</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2251</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2252</v>
+        <v>2299</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2253</v>
+        <v>2300</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2254</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2255</v>
+        <v>2302</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2257</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2258</v>
+        <v>2305</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2259</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2260</v>
+        <v>2307</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2261</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2262</v>
+        <v>2309</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2263</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2264</v>
+        <v>2311</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2265</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2266</v>
+        <v>2313</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2256</v>
+        <v>2303</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2267</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2268</v>
+        <v>2315</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2270</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2271</v>
+        <v>2318</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2272</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2273</v>
+        <v>2320</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2274</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2275</v>
+        <v>2322</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2276</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2277</v>
+        <v>2324</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2278</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2279</v>
+        <v>2326</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2280</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2281</v>
+        <v>2328</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2282</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2283</v>
+        <v>2330</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2284</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2285</v>
+        <v>2332</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2286</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2287</v>
+        <v>2334</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2288</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2289</v>
+        <v>2336</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2290</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2291</v>
+        <v>2338</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2292</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2293</v>
+        <v>2340</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2294</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2295</v>
+        <v>2342</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2296</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2297</v>
+        <v>2344</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2298</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2299</v>
+        <v>2346</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2300</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2301</v>
+        <v>2348</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2302</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2303</v>
+        <v>2350</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2304</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2305</v>
+        <v>2352</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2306</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2307</v>
+        <v>2354</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2308</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2309</v>
+        <v>2356</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2310</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2311</v>
+        <v>2358</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2312</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2313</v>
+        <v>2360</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2314</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2315</v>
+        <v>2362</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2316</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2317</v>
+        <v>2364</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2318</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2319</v>
+        <v>2366</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>2320</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2321</v>
+        <v>2368</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2322</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2323</v>
+        <v>2370</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>2324</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2325</v>
+        <v>2372</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2326</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2327</v>
+        <v>2374</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2328</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2329</v>
+        <v>2376</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2330</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2331</v>
+        <v>2378</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2332</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2333</v>
+        <v>2380</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>2334</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2335</v>
+        <v>2382</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2336</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2337</v>
+        <v>2384</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2338</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2339</v>
+        <v>2386</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2340</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2341</v>
+        <v>2388</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>2342</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2343</v>
+        <v>2390</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2344</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2345</v>
+        <v>2392</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2346</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2347</v>
+        <v>2394</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2348</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2349</v>
+        <v>2396</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>2350</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2351</v>
+        <v>2398</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2352</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2353</v>
+        <v>2400</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2354</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2355</v>
+        <v>2402</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2356</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2357</v>
+        <v>2404</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2358</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2359</v>
+        <v>2406</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2360</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2361</v>
+        <v>2408</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2362</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2363</v>
+        <v>2410</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2364</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2365</v>
+        <v>2412</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2269</v>
+        <v>2316</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2366</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2367</v>
+        <v>2414</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2368</v>
+        <v>2415</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2369</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2370</v>
+        <v>2417</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2368</v>
+        <v>2415</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2371</v>
+        <v>2418</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C28"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" style="10" width="46.7109375"/>
-    <col customWidth="1" min="2" max="2" style="11" width="29.7109375"/>
-    <col customWidth="1" min="3" max="3" style="11" width="13.8515625"/>
-    <col min="4" max="4" style="11" width="9.140625"/>
-    <col customWidth="1" min="5" max="5" width="21.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="12" customFormat="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>2373</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1969</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1973</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>2378</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="14" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1995</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>2374</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="14" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -26356,421 +26929,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.421875"/>
-    <col customWidth="1" min="2" max="2" width="21.8515625"/>
-    <col customWidth="1" min="3" max="3" width="24.00390625"/>
-    <col customWidth="1" min="4" max="6" width="21.8515625"/>
+    <col customWidth="1" min="1" max="1" style="8" width="46.7109375"/>
+    <col customWidth="1" min="2" max="2" style="9" width="29.7109375"/>
+    <col customWidth="1" min="3" max="3" style="9" width="13.8515625"/>
+    <col min="4" max="4" style="9" width="9.140625"/>
+    <col customWidth="1" min="5" max="5" width="21.140625"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2419</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2389</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1968</v>
+      <c r="A2" s="8" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1969</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1973</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2422</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1973</v>
+      <c r="A3" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2424</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1977</v>
+      <c r="A4" s="8" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2426</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1981</v>
+      <c r="A5" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1982</v>
+      <c r="A6" s="8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1983</v>
+      <c r="A7" s="8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1983</v>
+      <c r="A8" s="8" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>2398</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2399</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1983</v>
+      <c r="A9" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>2400</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1987</v>
+      <c r="A10" s="8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>2405</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>2406</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>2407</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>2408</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>2409</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>2411</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>2412</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
-        <v>2414</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" t="s">
-        <v>2416</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" t="s">
-        <v>2417</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" t="s">
+      <c r="A12" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>2421</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D28" s="11">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D29" s="11">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="17" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" t="s">
-        <v>2425</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>2427</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D34" s="11">
-        <v>2016</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25"/>
-    <row r="36" ht="14.25"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2421</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -26782,15 +27082,795 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.28125"/>
+    <col customWidth="1" min="2" max="2" width="21.8515625"/>
+    <col customWidth="1" min="3" max="3" width="24.00390625"/>
+    <col customWidth="1" min="4" max="6" width="21.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="17" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2016</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="3" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25"/>
+    <row r="60" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="66.57421875"/>
-    <col customWidth="1" min="2" max="2" width="22.00390625"/>
-    <col customWidth="1" min="3" max="3" width="20.8515625"/>
+    <col customWidth="1" min="2" max="2" width="40.7109375"/>
+    <col customWidth="1" min="3" max="3" width="22.00390625"/>
+    <col customWidth="1" min="4" max="4" width="20.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -26798,370 +27878,590 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>2467</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>2508</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2509</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>2510</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>2511</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>2512</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>2513</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>2514</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2429</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>2497</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2515</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
-        <v>2439</v>
+        <v>2516</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2517</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2518</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
-        <v>2441</v>
+        <v>2516</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2520</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
-        <v>2443</v>
+        <v>2516</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2522</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>2445</v>
+        <v>2516</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2524</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
-        <v>2447</v>
+        <v>2516</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2526</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
-        <v>2449</v>
+        <v>2516</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2438</v>
-      </c>
+        <v>2528</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
-        <v>2451</v>
+        <v>2516</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2530</v>
+      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="2" t="s">
-        <v>2454</v>
+        <v>2531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2532</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2533</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
-        <v>2456</v>
+        <v>2531</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2534</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2535</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
-        <v>2458</v>
+        <v>2531</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2537</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="2" t="s">
-        <v>2460</v>
+        <v>2531</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2539</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="2" t="s">
-        <v>2462</v>
+        <v>2531</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2463</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2541</v>
+      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
-        <v>2464</v>
+        <v>2531</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2542</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2543</v>
+      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
-        <v>2466</v>
+        <v>2531</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2544</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2453</v>
-      </c>
+        <v>2545</v>
+      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
-        <v>2468</v>
+        <v>2531</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2470</v>
-      </c>
+        <v>2547</v>
+      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="2" t="s">
-        <v>2471</v>
+        <v>2548</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2470</v>
-      </c>
+        <v>2550</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
-        <v>2473</v>
+        <v>2548</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2551</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2470</v>
-      </c>
+        <v>2552</v>
+      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
-        <v>2475</v>
+        <v>2548</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2470</v>
-      </c>
+        <v>2554</v>
+      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2479</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2479</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2482</v>
-      </c>
-    </row>
+        <v>2548</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="14.25"/>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2479</v>
-      </c>
+        <v>2556</v>
+      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
-        <v>2484</v>
+        <v>2557</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2558</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2479</v>
-      </c>
+        <v>2559</v>
+      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
-        <v>2486</v>
+        <v>2557</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2560</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2479</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2488</v>
+        <v>2561</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2479</v>
-      </c>
+        <v>2563</v>
+      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
-        <v>2490</v>
-      </c>
+        <v>2557</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="16" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="16" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="16" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="16" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="16" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="16" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="16" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="16" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="15" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="B76"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="Tv Series" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Animations" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Comics" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Games" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Podcasts" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Podcasts" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Movies!$A$1:$F$1010</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="3260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="2819">
   <si>
     <t>Title</t>
   </si>
@@ -8033,9 +8032,6 @@
     <t xml:space="preserve">Fist of the North Star </t>
   </si>
   <si>
-    <t xml:space="preserve">Guyver: Out of Control</t>
-  </si>
-  <si>
     <t xml:space="preserve">Miyazaki (Every Movie)</t>
   </si>
   <si>
@@ -8420,1365 +8416,21 @@
     <t xml:space="preserve">Milo Manara</t>
   </si>
   <si>
-    <t xml:space="preserve">Batocera Folder Name</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Arcade Machine Emulator</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>mame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FinalBurn Neo</t>
-  </si>
-  <si>
-    <t>fbneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAPHNE (Laserdisc)</t>
-  </si>
-  <si>
-    <t>daphne</t>
-  </si>
-  <si>
-    <t>SINGE</t>
-  </si>
-  <si>
-    <t>singe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEO•GEO MVS</t>
-  </si>
-  <si>
-    <t>neogeo</t>
-  </si>
-  <si>
-    <t>SNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Model 1</t>
-  </si>
-  <si>
-    <t>mame/model1</t>
-  </si>
-  <si>
-    <t>Sega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Model 2</t>
-  </si>
-  <si>
-    <t>model2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Model 3</t>
-  </si>
-  <si>
-    <t>model3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega NAOMI</t>
-  </si>
-  <si>
-    <t>naomi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega NAOMI 2</t>
-  </si>
-  <si>
-    <t>naomi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namco System 246</t>
-  </si>
-  <si>
-    <t>namco2x6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony / Namco</t>
-  </si>
-  <si>
-    <t>Triforce</t>
-  </si>
-  <si>
-    <t>triforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namco, Sega &amp; Nintendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sammy Atomiswave</t>
-  </si>
-  <si>
-    <t>atomiswave</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game &amp; Watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handheld LCD games</t>
-  </si>
-  <si>
-    <t>gameandwatch</t>
-  </si>
-  <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handheld LCD Games</t>
-  </si>
-  <si>
-    <t>lcdgames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Pocket Computer</t>
-  </si>
-  <si>
-    <t>gamepock</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Fourth generation</t>
-  </si>
-  <si>
-    <t>gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Boy 2 Players</t>
-  </si>
-  <si>
-    <t>gb2players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari Lynx</t>
-  </si>
-  <si>
-    <t>lynx</t>
-  </si>
-  <si>
-    <t>Atari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Gear</t>
-  </si>
-  <si>
-    <t>gamegear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamate/chāojí xiǎozi/Super Boy/chāojí shéntóng/Super Child Prodigy</t>
-  </si>
-  <si>
-    <t>gamate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Master/Systema 2000/Super Game/Game Tronic</t>
-  </si>
-  <si>
-    <t>gmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartung, et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watara Supervision</t>
-  </si>
-  <si>
-    <t>supervision</t>
-  </si>
-  <si>
-    <t>Watara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Duck/Cougar Boy</t>
-  </si>
-  <si>
-    <t>megaduck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welback Holdings</t>
-  </si>
-  <si>
-    <t>Game.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Fifth generation</t>
-  </si>
-  <si>
-    <t>gamecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiger Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Boy Color</t>
-  </si>
-  <si>
-    <t>gbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Boy Color 2 Players</t>
-  </si>
-  <si>
-    <t>gbc2players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neo Geo Pocket</t>
-  </si>
-  <si>
-    <t>ngp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neo Geo Pocket Color</t>
-  </si>
-  <si>
-    <t>ngpc</t>
-  </si>
-  <si>
-    <t>WonderSwan</t>
-  </si>
-  <si>
-    <t>wswan</t>
-  </si>
-  <si>
-    <t>Bandai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WonderSwan Color</t>
-  </si>
-  <si>
-    <t>wswanc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Boy Advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Sixth generation</t>
-  </si>
-  <si>
-    <t>gba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pokémon Mini</t>
-  </si>
-  <si>
-    <t>pokemini</t>
-  </si>
-  <si>
-    <t>GP32</t>
-  </si>
-  <si>
-    <t>gp32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Seven generation</t>
-  </si>
-  <si>
-    <t>nds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayStation Portable</t>
-  </si>
-  <si>
-    <t>psp</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo 3DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Eighth generation</t>
-  </si>
-  <si>
-    <t>3ds</t>
-  </si>
-  <si>
-    <t>PlayStation_Vita</t>
-  </si>
-  <si>
-    <t>psvita</t>
-  </si>
-  <si>
-    <t>Arduboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasy Consoles</t>
-  </si>
-  <si>
-    <t>arduboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairchild Channel F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First/second generation (jank era)</t>
-  </si>
-  <si>
-    <t>channelf</t>
-  </si>
-  <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari 2600/VCS</t>
-  </si>
-  <si>
-    <t>atari2600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnavox Odyssey²/Philips Videopac G7000/Philips Odyssey/Odyssey²</t>
-  </si>
-  <si>
-    <t>odyssey2</t>
-  </si>
-  <si>
-    <t>Magnavox/Philips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bally Astrocade/Arcade/ABA-1000</t>
-  </si>
-  <si>
-    <t>astrocde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bally (Midway)</t>
-  </si>
-  <si>
-    <t>APF-MP1000/MP-1000/M-1000</t>
-  </si>
-  <si>
-    <t>apfm1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APF Electronics Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Computer 4000</t>
-  </si>
-  <si>
-    <t>vc4000</t>
-  </si>
-  <si>
-    <t>Interton</t>
-  </si>
-  <si>
-    <t>Intellivision</t>
-  </si>
-  <si>
-    <t>intellivision</t>
-  </si>
-  <si>
-    <t>Mattel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari 5200</t>
-  </si>
-  <si>
-    <t>atari5200</t>
-  </si>
-  <si>
-    <t>ColecoVision</t>
-  </si>
-  <si>
-    <t>colecovision</t>
-  </si>
-  <si>
-    <t>Coleco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventure Vision</t>
-  </si>
-  <si>
-    <t>advision</t>
-  </si>
-  <si>
-    <t>Entex</t>
-  </si>
-  <si>
-    <t>Vectrex</t>
-  </si>
-  <si>
-    <t>vectrex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton Bradley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreatiVision/Educat 2002/Dick Smith Wizzard/FunVision</t>
-  </si>
-  <si>
-    <t>crvision</t>
-  </si>
-  <si>
-    <t>VTech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcadia 2001/et al.</t>
-  </si>
-  <si>
-    <t>arcadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerson Radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo Entertainment System/Famicom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third generation (8-bit era)</t>
-  </si>
-  <si>
-    <t>nes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega SG-1000/SG-1000 II/SC-3000</t>
-  </si>
-  <si>
-    <t>sg1000</t>
-  </si>
-  <si>
-    <t>Othello_Multivision</t>
-  </si>
-  <si>
-    <t>multivision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsukuda Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philips Videopac+ G7400/G7420</t>
-  </si>
-  <si>
-    <t>videopacplus</t>
-  </si>
-  <si>
-    <t>Philips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casio PV-1000/ぴーぶいせん/Pi Bui-Sen</t>
-  </si>
-  <si>
-    <t>pv1000</t>
-  </si>
-  <si>
-    <t>Casio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Cassette Vision/スーパーカセットビジョン/Suupaa Kasetto Bijon</t>
-  </si>
-  <si>
-    <t>scv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoch Co.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Master System/Mark III</t>
-  </si>
-  <si>
-    <t>mastersystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Computer Disk System/Famicom</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari 7800</t>
-  </si>
-  <si>
-    <t>atari7800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socrates/Prof. Weiss-Alles/Professeur Saitout; Jeu Educatif Video</t>
-  </si>
-  <si>
-    <t>socrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC Engine/TurboGrafx-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourth generation (16-bit era)</t>
-  </si>
-  <si>
-    <t>pcengine</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Genesis/Mega Drive</t>
-  </si>
-  <si>
-    <t>megadrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC Engine CD-ROM²/PC Engine Duo R/PC Engine Duo RX/TurboGrafx-CD/TurboDuo</t>
-  </si>
-  <si>
-    <t>pcenginecd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC Engine SuperGrafx</t>
-  </si>
-  <si>
-    <t>supergrafx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Nintendo Entertainment System</t>
-  </si>
-  <si>
-    <t>snes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neo Geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compact Disc Interactive/CD-i</t>
-  </si>
-  <si>
-    <t>cdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philips, et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore CDTV</t>
-  </si>
-  <si>
-    <t>amigacdtv</t>
-  </si>
-  <si>
-    <t>Commodore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amstrad GX4000</t>
-  </si>
-  <si>
-    <t>gx4000</t>
-  </si>
-  <si>
-    <t>Amstrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega CD/Mega CD</t>
-  </si>
-  <si>
-    <t>segacd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super NES CD-ROM/SNES MSU-1</t>
-  </si>
-  <si>
-    <t>snes_msu-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Pico</t>
-  </si>
-  <si>
-    <t>pico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Game Boy</t>
-  </si>
-  <si>
-    <t>sgb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super A'Can</t>
-  </si>
-  <si>
-    <t>supracan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funtech Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari Jaguar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifth generation (32-bit/early 3D era)</t>
-  </si>
-  <si>
-    <t>jaguar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3DO Interactive Multiplayer</t>
-  </si>
-  <si>
-    <t>3do</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiga CD32</t>
-  </si>
-  <si>
-    <t>amigacd32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega 32X</t>
-  </si>
-  <si>
-    <t>sega32x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony PlayStation</t>
-  </si>
-  <si>
-    <t>psx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEC PC-FX</t>
-  </si>
-  <si>
-    <t>pcfx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neo Geo CD</t>
-  </si>
-  <si>
-    <t>neogeocd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Saturn</t>
-  </si>
-  <si>
-    <t>saturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Boy</t>
-  </si>
-  <si>
-    <t>virtualboy</t>
-  </si>
-  <si>
-    <t>Satellaview</t>
-  </si>
-  <si>
-    <t>satellaview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuFami Turbo</t>
-  </si>
-  <si>
-    <t>sufami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo 64</t>
-  </si>
-  <si>
-    <t>n64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sega Dreamcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixth generation (streamlining era)</t>
-  </si>
-  <si>
-    <t>dreamcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo 64DD</t>
-  </si>
-  <si>
-    <t>n64dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony PlayStation 2</t>
-  </si>
-  <si>
-    <t>ps2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo GameCube</t>
-  </si>
-  <si>
-    <t>gamecube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Xbox</t>
-  </si>
-  <si>
-    <t>xbox</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.Smile (TV LEARNING SYSTEM)</t>
-  </si>
-  <si>
-    <t>vsmile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Xbox 360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventh generation (the HD era)</t>
-  </si>
-  <si>
-    <t>xbox360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo Wii</t>
-  </si>
-  <si>
-    <t>wii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony PlayStation 3</t>
-  </si>
-  <si>
-    <t>ps3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo Wii U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighth generation</t>
-  </si>
-  <si>
-    <t>wiiu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzebox Open-Source console</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasy consoles</t>
-  </si>
-  <si>
-    <t>uzebox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alec Bourque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voxatron fantasy console</t>
-  </si>
-  <si>
-    <t>voxatron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexaloffle Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICO-8 fantasy console</t>
-  </si>
-  <si>
-    <t>pico8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIC-80 fantasy console</t>
-  </si>
-  <si>
-    <t>tic80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Krasnov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowres NX</t>
-  </si>
-  <si>
-    <t>lowresnx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timo Kloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASM4 fantasy console</t>
-  </si>
-  <si>
-    <t>wasm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aduros &amp; team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System short name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourth generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fifth generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sixth generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seventh generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eighth generation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home computer</t>
-  </si>
-  <si>
-    <t>apple2</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore PET</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari 800</t>
-  </si>
-  <si>
-    <t>atari800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acorn Computers</t>
-  </si>
-  <si>
-    <t>atom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TI-99/4 (TI-99/4A)</t>
-  </si>
-  <si>
-    <t>ti99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore VIC-20/VC-20</t>
-  </si>
-  <si>
-    <t>c20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRS-80/Tandy Color Computer</t>
-  </si>
-  <si>
-    <t>coco</t>
-  </si>
-  <si>
-    <t>Tandy/RadioShack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEC PC-8800</t>
-  </si>
-  <si>
-    <t>pc88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinclair ZX81</t>
-  </si>
-  <si>
-    <t>zx81</t>
-  </si>
-  <si>
-    <t>Sinclair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Micro/Master/Archimedes</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp X1</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>Sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZX Spectrum</t>
-  </si>
-  <si>
-    <t>zxspectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore 64</t>
-  </si>
-  <si>
-    <t>c64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEC PC-9800/PC-98</t>
-  </si>
-  <si>
-    <t>pc98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujitsu Micro 7 (FM-7)</t>
-  </si>
-  <si>
-    <t>fm7</t>
-  </si>
-  <si>
-    <t>Fujitsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomy Tutor/Pyūta/Grandstand Tutor</t>
-  </si>
-  <si>
-    <t>tutor</t>
-  </si>
-  <si>
-    <t>Tomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acorn Electron</t>
-  </si>
-  <si>
-    <t>electron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camputers Lynx</t>
-  </si>
-  <si>
-    <t>camplynx</t>
-  </si>
-  <si>
-    <t>Camputers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft MSX1</t>
-  </si>
-  <si>
-    <t>msx1</t>
-  </si>
-  <si>
-    <t>Coleco_Adam</t>
-  </si>
-  <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>Spectravideo</t>
-  </si>
-  <si>
-    <t>spectravideo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amstrad CPC</t>
-  </si>
-  <si>
-    <t>amstradcpc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macintosh 128K</t>
-  </si>
-  <si>
-    <t>macintosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomson MO/TO Series Computer</t>
-  </si>
-  <si>
-    <t>thomson</t>
-  </si>
-  <si>
-    <t>Thomson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore Plus/4</t>
-  </si>
-  <si>
-    <t>cplus4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser 310</t>
-  </si>
-  <si>
-    <t>laser310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Technology (VTech)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari ST</t>
-  </si>
-  <si>
-    <t>atarist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft MSX2</t>
-  </si>
-  <si>
-    <t>msx2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodore 128 (C128)</t>
-  </si>
-  <si>
-    <t>c128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple IIGS</t>
-  </si>
-  <si>
-    <t>apple2gs</t>
-  </si>
-  <si>
-    <t>Archimedes</t>
-  </si>
-  <si>
-    <t>archimedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atari XEGS</t>
-  </si>
-  <si>
-    <t>xegs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiga 500/OCS/ECS</t>
-  </si>
-  <si>
-    <t>amiga500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp X68000</t>
-  </si>
-  <si>
-    <t>x68000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft MSX2plus</t>
-  </si>
-  <si>
-    <t>msx2+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM Towns/Towns Marty</t>
-  </si>
-  <si>
-    <t>fmtowns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM Coupé</t>
-  </si>
-  <si>
-    <t>samcoupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles Gordon Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiga 1200/AGA</t>
-  </si>
-  <si>
-    <t>amiga1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tandy Video Information System</t>
-  </si>
-  <si>
-    <t>vis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tandy / Memorex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft MSX turboR</t>
-  </si>
-  <si>
-    <t>msxturbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native ports</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>ports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abuse SDL</t>
-  </si>
-  <si>
-    <t>abuse</t>
-  </si>
-  <si>
-    <t>Cannonball</t>
-  </si>
-  <si>
-    <t>cannonball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cave Story</t>
-  </si>
-  <si>
-    <t>cavestory</t>
-  </si>
-  <si>
-    <t>C-Dogs</t>
-  </si>
-  <si>
-    <t>cdogs</t>
-  </si>
-  <si>
-    <t>DevilutionX</t>
-  </si>
-  <si>
-    <t>devilutionx</t>
-  </si>
-  <si>
-    <t>EasyRPG</t>
-  </si>
-  <si>
-    <t>easyrpg</t>
-  </si>
-  <si>
-    <t>ECWolf</t>
-  </si>
-  <si>
-    <t>ecwolf</t>
-  </si>
-  <si>
-    <t>EDuke32</t>
-  </si>
-  <si>
-    <t>eduke32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future Pinball</t>
-  </si>
-  <si>
-    <t>fpinball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion Fury</t>
-  </si>
-  <si>
-    <t>fury</t>
-  </si>
-  <si>
-    <t>GZDoom</t>
-  </si>
-  <si>
-    <t>gzdoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydra Castle Labyrinth</t>
-  </si>
-  <si>
-    <t>hcl</t>
-  </si>
-  <si>
-    <t>Hurrican</t>
-  </si>
-  <si>
-    <t>hurrican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikemen Go</t>
-  </si>
-  <si>
-    <t>ikemen</t>
-  </si>
-  <si>
-    <t>Lutro</t>
-  </si>
-  <si>
-    <t>lutro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Boom</t>
-  </si>
-  <si>
-    <t>mrboom</t>
-  </si>
-  <si>
-    <t>M.U.G.E.N</t>
-  </si>
-  <si>
-    <t>mugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Beats of Rage</t>
-  </si>
-  <si>
-    <t>openbor</t>
-  </si>
-  <si>
-    <t>Openjazz</t>
-  </si>
-  <si>
-    <t>openjazz</t>
-  </si>
-  <si>
-    <t>PrBoom</t>
-  </si>
-  <si>
-    <t>prboom</t>
-  </si>
-  <si>
-    <t>pygame</t>
-  </si>
-  <si>
-    <t>Raze</t>
-  </si>
-  <si>
-    <t>raze</t>
-  </si>
-  <si>
-    <t>ScummVM</t>
-  </si>
-  <si>
-    <t>scummvm</t>
-  </si>
-  <si>
-    <t>SDLPoP</t>
-  </si>
-  <si>
-    <t>sdlpop</t>
-  </si>
-  <si>
-    <t>Solarus</t>
-  </si>
-  <si>
-    <t>solarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Engine/Sonic Retro Engine</t>
-  </si>
-  <si>
-    <t>sonicretro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Mario War</t>
-  </si>
-  <si>
-    <t>superbroswar</t>
-  </si>
-  <si>
-    <t>TyrQuake</t>
-  </si>
-  <si>
-    <t>tyrquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Pinball</t>
-  </si>
-  <si>
-    <t>vpinball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xash3D FWGS</t>
-  </si>
-  <si>
-    <t>xash3d_fwgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rick Dangerous</t>
-  </si>
-  <si>
-    <t>xrick</t>
-  </si>
-  <si>
-    <t>Flatpak</t>
-  </si>
-  <si>
-    <t>flatpak</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
-    <t>DOSbox</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>dos</t>
-  </si>
-  <si>
-    <t>Flashpoint</t>
-  </si>
-  <si>
-    <t>flash</t>
-  </si>
-  <si>
-    <t>Moonlight</t>
-  </si>
-  <si>
-    <t>moonlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plug 'n' Play/Handheld TV Games</t>
-  </si>
-  <si>
-    <t>plugnplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAME Video Game Music Player</t>
-  </si>
-  <si>
-    <t>vgmplay</t>
-  </si>
-  <si>
-    <t>WINE</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>Dolphin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emulator: Dolphin</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
     <t xml:space="preserve">Contra Versao</t>
   </si>
   <si>
+    <t>Humor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Me ne Frego Podcast</t>
   </si>
   <si>
+    <t>Politics</t>
+  </si>
+  <si>
     <t>Parabellum</t>
   </si>
   <si>
@@ -9788,6 +8440,9 @@
     <t xml:space="preserve">Maquina do Tempo Podcast</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Related Podcast</t>
   </si>
   <si>
@@ -9807,13 +8462,34 @@
   </si>
   <si>
     <t xml:space="preserve">Horseshoe Theory Podcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russians With Attitude</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Sennashow</t>
+  </si>
+  <si>
+    <t>PavanCast</t>
+  </si>
+  <si>
+    <t>Loentalks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coroa Católico VS Demônios</t>
+  </si>
+  <si>
+    <t>BASES.TED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="9">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -9863,28 +8539,6 @@
       <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11.000000"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color indexed="63"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="10.500000"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="11.500000"/>
-      <color indexed="63"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <name val="Consolas"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -9897,7 +8551,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -9920,39 +8574,6 @@
       </bottom>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="thin">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9960,7 +8581,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10010,40 +8631,10 @@
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30795,7 +29386,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showZeros="1" topLeftCell="A43" zoomScale="100" workbookViewId="0">
+    <sheetView showZeros="1" topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -31373,7 +29964,6 @@
       <c r="D40" s="14">
         <v>1982</v>
       </c>
-      <c r="E40"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
@@ -31505,7 +30095,7 @@
       <c r="A50" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="8" t="s">
         <v>2657</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -31519,58 +30109,56 @@
       <c r="A51" s="8" t="s">
         <v>2668</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="14">
-        <v>1986</v>
-      </c>
+      <c r="B51" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D51" s="14"/>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" t="s">
         <v>2670</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>2605</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14">
+        <v>1999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>2671</v>
       </c>
-      <c r="B53"/>
       <c r="C53" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D53" s="14">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
       <c r="A54" t="s">
         <v>2672</v>
       </c>
-      <c r="B54"/>
       <c r="C54" s="8" t="s">
-        <v>2605</v>
+        <v>2673</v>
       </c>
       <c r="D54" s="14">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>2673</v>
       </c>
-      <c r="B55"/>
-      <c r="C55" s="8" t="s">
-        <v>2674</v>
-      </c>
       <c r="D55" s="14">
-        <v>1983</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="56" ht="14.25">
@@ -31578,10 +30166,10 @@
         <v>2675</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1993</v>
+        <v>2673</v>
+      </c>
+      <c r="D56" s="19">
+        <v>1995</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -31589,10 +30177,10 @@
         <v>2676</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D57" s="19">
-        <v>1995</v>
+        <v>2673</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1998</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -31600,9 +30188,9 @@
         <v>2677</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D58" s="14">
+        <v>2673</v>
+      </c>
+      <c r="D58" s="19">
         <v>1998</v>
       </c>
     </row>
@@ -31611,10 +30199,10 @@
         <v>2678</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D59" s="19">
-        <v>1998</v>
+        <v>2673</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2004</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -31622,7 +30210,7 @@
         <v>2679</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D60" s="14">
         <v>2004</v>
@@ -31633,29 +30221,29 @@
         <v>2680</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D61" s="14">
         <v>2004</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" t="s">
+      <c r="A62" s="20" t="s">
         <v>2681</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D62" s="14">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" t="s">
         <v>2682</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D63" s="14">
         <v>2006</v>
@@ -31666,95 +30254,79 @@
         <v>2683</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D64" s="14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
         <v>2684</v>
       </c>
+      <c r="B65" s="11" t="s">
+        <v>2684</v>
+      </c>
       <c r="C65" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D65" s="14">
-        <v>2007</v>
+        <v>2016</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2685</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>2674</v>
+        <v>2680</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2673</v>
       </c>
       <c r="D66" s="14">
-        <v>2016</v>
-      </c>
-      <c r="E66" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="8" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2674</v>
+      <c r="B67" s="11" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>2673</v>
       </c>
       <c r="D67" s="14">
-        <v>2004</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" t="s">
         <v>2687</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D68" s="14">
-        <v>1997</v>
-      </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="11" t="s">
+      <c r="A69" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B69" t="s">
         <v>2657</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D70" s="14">
+      <c r="C69" s="11" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D69" s="14">
         <v>1984</v>
       </c>
     </row>
-    <row r="71" ht="14.25">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-    </row>
+    <row r="70" ht="14.25"/>
+    <row r="72" ht="14.25"/>
     <row r="73" ht="14.25"/>
-    <row r="74" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -31783,7 +30355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -31803,7 +30375,7 @@
         <v>2635</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -31811,7 +30383,7 @@
     <row r="3" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -31819,10 +30391,10 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="8" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2692</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2693</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -31830,689 +30402,689 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="11" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="11" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="11" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="11" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="11" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="11" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B36" t="s">
         <v>2751</v>
       </c>
-      <c r="B36" t="s">
-        <v>2752</v>
-      </c>
       <c r="C36" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B37" t="s">
         <v>2753</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>2754</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2755</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B38" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C38" t="s">
         <v>2754</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2755</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B39" t="s">
         <v>2757</v>
       </c>
-      <c r="B39" t="s">
-        <v>2758</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>2759</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>2760</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B41" t="s">
         <v>2761</v>
       </c>
-      <c r="B41" t="s">
-        <v>2762</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="8" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>2763</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>2764</v>
-      </c>
       <c r="C42" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="8" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="8" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="8" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="8" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B47" t="s">
         <v>2769</v>
       </c>
-      <c r="B47" t="s">
-        <v>2770</v>
-      </c>
       <c r="C47" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="8" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="8" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="8" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="C51" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" ht="14.25">
       <c r="C52" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B53" t="s">
         <v>2775</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="11" t="s">
         <v>2776</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>2777</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>2776</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>2777</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>2776</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>2777</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>2776</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>2777</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B57" t="s">
         <v>2782</v>
       </c>
-      <c r="B57" t="s">
-        <v>2783</v>
-      </c>
       <c r="C57" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B58" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B59" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B60" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B61" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B62" t="s">
         <v>2788</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2789</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -32520,52 +31092,52 @@
         <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B64" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>2791</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>2792</v>
-      </c>
       <c r="C65" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="B69" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -32579,3748 +31151,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="91.7109375"/>
-    <col customWidth="1" min="2" max="2" style="1" width="48.140625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="29.8515625"/>
-    <col customWidth="1" min="4" max="4" style="1" width="24.00390625"/>
-    <col customWidth="1" min="5" max="5" style="1" width="32.28125"/>
-    <col customWidth="1" min="6" max="6" style="1" width="18.140625"/>
-    <col min="7" max="16384" style="1" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="25" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>2801</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="25" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>2803</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="25" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>2805</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1978</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="25" t="s">
-        <v>2806</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>2807</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1978</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="25" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1990</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="25" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1992</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="25" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>2815</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1994</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="25" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>2817</v>
-      </c>
-      <c r="D9" s="27">
-        <v>1996</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="25" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>2819</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1998</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="25" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>2821</v>
-      </c>
-      <c r="D11" s="27">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="25" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D12" s="27">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>2826</v>
-      </c>
-      <c r="D13" s="27">
-        <v>2002</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="25" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>2829</v>
-      </c>
-      <c r="D14" s="27">
-        <v>2003</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="25" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>2833</v>
-      </c>
-      <c r="D15" s="27">
-        <v>1980</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="25" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>2836</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="25" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>2838</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1984</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="25" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D18" s="27">
-        <v>1989</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="25" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D19" s="27">
-        <v>1989</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>2846</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1989</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>2849</v>
-      </c>
-      <c r="D21" s="27">
-        <v>1990</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>2851</v>
-      </c>
-      <c r="D22" s="27">
-        <v>1990</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>2853</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>2854</v>
-      </c>
-      <c r="D23" s="27">
-        <v>1990</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>2857</v>
-      </c>
-      <c r="D24" s="27">
-        <v>1992</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="25" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D25" s="27">
-        <v>1993</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="25" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1997</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="25" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>2867</v>
-      </c>
-      <c r="D27" s="27">
-        <v>1998</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="25" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1998</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="25" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D29" s="27">
-        <v>1998</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="25" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>2873</v>
-      </c>
-      <c r="D30" s="27">
-        <v>1999</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="25" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>2875</v>
-      </c>
-      <c r="D31" s="27">
-        <v>1999</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>2878</v>
-      </c>
-      <c r="D32" s="27">
-        <v>2000</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="25" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>2881</v>
-      </c>
-      <c r="D33" s="27">
-        <v>2001</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="25" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>2883</v>
-      </c>
-      <c r="D34" s="27">
-        <v>2001</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="25" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D35" s="27">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D36" s="27">
-        <v>2004</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="25" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D37" s="27">
-        <v>2004</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>2895</v>
-      </c>
-      <c r="D38" s="27">
-        <v>2011</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="25" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D39" s="27">
-        <v>2011</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="25" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>2900</v>
-      </c>
-      <c r="D40" s="27">
-        <v>2015</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="41" ht="15">
-      <c r="A41" s="28" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>2903</v>
-      </c>
-      <c r="D41" s="30">
-        <v>1976</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>2904</v>
-      </c>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" ht="15">
-      <c r="A42" s="28" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D42" s="30">
-        <v>1977</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" ht="15">
-      <c r="A43" s="28" t="s">
-        <v>2907</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D43" s="30">
-        <v>1978</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>2909</v>
-      </c>
-      <c r="F43" s="31"/>
-    </row>
-    <row r="44" ht="15">
-      <c r="A44" s="28" t="s">
-        <v>2910</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D44" s="30">
-        <v>1978</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>2912</v>
-      </c>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" ht="15">
-      <c r="A45" s="28" t="s">
-        <v>2913</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>2914</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1978</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" ht="15">
-      <c r="A46" s="28" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D46" s="30">
-        <v>1978</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" ht="15">
-      <c r="A47" s="28" t="s">
-        <v>2919</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>2920</v>
-      </c>
-      <c r="D47" s="30">
-        <v>1979</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>2921</v>
-      </c>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" ht="15">
-      <c r="A48" s="28" t="s">
-        <v>2922</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>2923</v>
-      </c>
-      <c r="D48" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" ht="15">
-      <c r="A49" s="28" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D49" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" ht="15">
-      <c r="A50" s="28" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>2928</v>
-      </c>
-      <c r="D50" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>2929</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" ht="15">
-      <c r="A51" s="28" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>2931</v>
-      </c>
-      <c r="D51" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" ht="15">
-      <c r="A52" s="28" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>2934</v>
-      </c>
-      <c r="D52" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" ht="15">
-      <c r="A53" s="28" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>2937</v>
-      </c>
-      <c r="D53" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>2938</v>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" ht="15">
-      <c r="A54" s="28" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>2941</v>
-      </c>
-      <c r="D54" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" ht="15">
-      <c r="A55" s="28" t="s">
-        <v>2942</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>2943</v>
-      </c>
-      <c r="D55" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" ht="15">
-      <c r="A56" s="28" t="s">
-        <v>2944</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>2945</v>
-      </c>
-      <c r="D56" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>2946</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" ht="15">
-      <c r="A57" s="28" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>2948</v>
-      </c>
-      <c r="D57" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>2949</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" ht="15">
-      <c r="A58" s="28" t="s">
-        <v>2950</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>2951</v>
-      </c>
-      <c r="D58" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>2952</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" ht="15">
-      <c r="A59" s="28" t="s">
-        <v>2953</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>2954</v>
-      </c>
-      <c r="D59" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>2955</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" ht="15">
-      <c r="A60" s="28" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>2957</v>
-      </c>
-      <c r="D60" s="30">
-        <v>1985</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" ht="15">
-      <c r="A61" s="28" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>2959</v>
-      </c>
-      <c r="D61" s="30">
-        <v>1986</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" ht="15">
-      <c r="A62" s="28" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>2961</v>
-      </c>
-      <c r="D62" s="30">
-        <v>1986</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" ht="15">
-      <c r="A63" s="28" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D63" s="30">
-        <v>1988</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="28" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>2966</v>
-      </c>
-      <c r="D64" s="30">
-        <v>1987</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>2967</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="28" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D65" s="30">
-        <v>1988</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>2970</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>2971</v>
-      </c>
-      <c r="D66" s="30">
-        <v>1988</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>2967</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="28" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>2973</v>
-      </c>
-      <c r="D67" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>2967</v>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="28" t="s">
-        <v>2974</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>2975</v>
-      </c>
-      <c r="D68" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="28" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D69" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="28" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>2978</v>
-      </c>
-      <c r="D70" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>2979</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="28" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>2981</v>
-      </c>
-      <c r="D71" s="30">
-        <v>1991</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="28" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>2984</v>
-      </c>
-      <c r="D72" s="30">
-        <v>1991</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>2985</v>
-      </c>
-      <c r="F72" s="31"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="28" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D73" s="30">
-        <v>1991</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="28" t="s">
-        <v>2988</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>2989</v>
-      </c>
-      <c r="D74" s="30">
-        <v>1992</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="28" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>2991</v>
-      </c>
-      <c r="D75" s="30">
-        <v>1993</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="28" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>2993</v>
-      </c>
-      <c r="D76" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="28" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D77" s="30">
-        <v>1995</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>2996</v>
-      </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="28" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>2999</v>
-      </c>
-      <c r="D78" s="30">
-        <v>1993</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="A79" s="28" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>3001</v>
-      </c>
-      <c r="D79" s="30">
-        <v>1993</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>3002</v>
-      </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="A80" s="28" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>3004</v>
-      </c>
-      <c r="D80" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F80" s="31"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" ht="14.25">
-      <c r="A81" s="28" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>3006</v>
-      </c>
-      <c r="D81" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="A82" s="28" t="s">
-        <v>3007</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>3008</v>
-      </c>
-      <c r="D82" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>2892</v>
-      </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" ht="14.25">
-      <c r="A83" s="28" t="s">
-        <v>3009</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D83" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>2967</v>
-      </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" ht="14.25">
-      <c r="A84" s="28" t="s">
-        <v>3011</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>3012</v>
-      </c>
-      <c r="D84" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F84" s="31"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="28" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>3014</v>
-      </c>
-      <c r="D85" s="30">
-        <v>1994</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F85" s="31"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="28" t="s">
-        <v>3015</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>3016</v>
-      </c>
-      <c r="D86" s="30">
-        <v>1995</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" ht="14.25">
-      <c r="A87" s="28" t="s">
-        <v>3017</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>3018</v>
-      </c>
-      <c r="D87" s="30">
-        <v>1995</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F87" s="31"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="A88" s="28" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>3020</v>
-      </c>
-      <c r="D88" s="30">
-        <v>1996</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>2876</v>
-      </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="A89" s="28" t="s">
-        <v>3021</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D89" s="30">
-        <v>1996</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F89" s="31"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" ht="14.25">
-      <c r="A90" s="28" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>3025</v>
-      </c>
-      <c r="D90" s="30">
-        <v>1998</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="A91" s="28" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D91" s="30">
-        <v>1999</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="A92" s="28" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D92" s="30">
-        <v>2000</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>2892</v>
-      </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="A93" s="28" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D93" s="30">
-        <v>2001</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="A94" s="28" t="s">
-        <v>3032</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D94" s="30">
-        <v>2001</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>3034</v>
-      </c>
-      <c r="F94" s="31"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="A95" s="28" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>3036</v>
-      </c>
-      <c r="D95" s="30">
-        <v>2005</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="A96" s="28" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D96" s="30">
-        <v>2005</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>3034</v>
-      </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" ht="14.25">
-      <c r="A97" s="28" t="s">
-        <v>3040</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D97" s="30">
-        <v>2006</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F97" s="31"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" ht="14.25">
-      <c r="A98" s="28" t="s">
-        <v>3042</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>3043</v>
-      </c>
-      <c r="D98" s="30">
-        <v>2006</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>2892</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" ht="14.25">
-      <c r="A99" s="28" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>3046</v>
-      </c>
-      <c r="D99" s="30">
-        <v>2012</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F99" s="31"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="A100" s="28" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>3049</v>
-      </c>
-      <c r="D100" s="30">
-        <v>2007</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>3050</v>
-      </c>
-      <c r="F100" s="31"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="A101" s="28" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>3052</v>
-      </c>
-      <c r="D101" s="30">
-        <v>2011</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>3053</v>
-      </c>
-      <c r="F101" s="31"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="A102" s="28" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>3055</v>
-      </c>
-      <c r="D102" s="30">
-        <v>2015</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>3053</v>
-      </c>
-      <c r="F102" s="31"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="A103" s="28" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>3057</v>
-      </c>
-      <c r="D103" s="30">
-        <v>2017</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>3058</v>
-      </c>
-      <c r="F103" s="31"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="A104" s="28" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D104" s="30">
-        <v>2017</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>3061</v>
-      </c>
-      <c r="F104" s="31"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="A105" s="28" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>3063</v>
-      </c>
-      <c r="D105" s="30">
-        <v>2021</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>3064</v>
-      </c>
-      <c r="F105" s="31"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" ht="14.25">
-      <c r="A106" s="28" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>2833</v>
-      </c>
-      <c r="D106" s="30">
-        <v>1980</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" ht="14.25">
-      <c r="A107" s="28" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>2836</v>
-      </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" ht="14.25">
-      <c r="A108" s="28" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>2838</v>
-      </c>
-      <c r="D108" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>2839</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" ht="14.25">
-      <c r="A109" s="28" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D109" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" ht="14.25">
-      <c r="A110" s="28" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D110" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" ht="14.25">
-      <c r="A111" s="28" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>2846</v>
-      </c>
-      <c r="D111" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" ht="14.25">
-      <c r="A112" s="28" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>2849</v>
-      </c>
-      <c r="D112" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" ht="14.25">
-      <c r="A113" s="28" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>2851</v>
-      </c>
-      <c r="D113" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>2852</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" ht="14.25">
-      <c r="A114" s="28" t="s">
-        <v>2853</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>2854</v>
-      </c>
-      <c r="D114" s="30">
-        <v>1990</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>2855</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" ht="14.25">
-      <c r="A115" s="28" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>2857</v>
-      </c>
-      <c r="D115" s="30">
-        <v>1992</v>
-      </c>
-      <c r="E115" s="30" t="s">
-        <v>2858</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" ht="14.25">
-      <c r="A116" s="28" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D116" s="30">
-        <v>1993</v>
-      </c>
-      <c r="E116" s="30" t="s">
-        <v>2861</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" ht="14.25">
-      <c r="A117" s="28" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D117" s="30">
-        <v>1997</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>2865</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" ht="14.25">
-      <c r="A118" s="28" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>2867</v>
-      </c>
-      <c r="D118" s="30">
-        <v>1998</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" ht="14.25">
-      <c r="A119" s="28" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D119" s="30">
-        <v>1998</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" ht="14.25">
-      <c r="A120" s="28" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D120" s="30">
-        <v>1998</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" ht="14.25">
-      <c r="A121" s="28" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>2873</v>
-      </c>
-      <c r="D121" s="30">
-        <v>1999</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" ht="14.25">
-      <c r="A122" s="28" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>2875</v>
-      </c>
-      <c r="D122" s="30">
-        <v>1999</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>2876</v>
-      </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" ht="14.25">
-      <c r="A123" s="28" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>2878</v>
-      </c>
-      <c r="D123" s="30">
-        <v>2000</v>
-      </c>
-      <c r="E123" s="30" t="s">
-        <v>2876</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" ht="14.25">
-      <c r="A124" s="28" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>2881</v>
-      </c>
-      <c r="D124" s="30">
-        <v>2001</v>
-      </c>
-      <c r="E124" s="30" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25">
-      <c r="A125" s="28" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>2883</v>
-      </c>
-      <c r="D125" s="30">
-        <v>2001</v>
-      </c>
-      <c r="E125" s="30" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25">
-      <c r="A126" s="28" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D126" s="30">
-        <v>2001</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25">
-      <c r="A127" s="28" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D127" s="30">
-        <v>2004</v>
-      </c>
-      <c r="E127" s="30" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25">
-      <c r="A128" s="28" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D128" s="30">
-        <v>2004</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25">
-      <c r="A129" s="28" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>2895</v>
-      </c>
-      <c r="D129" s="30">
-        <v>2011</v>
-      </c>
-      <c r="E129" s="30" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25">
-      <c r="A130" s="28" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D130" s="30">
-        <v>2011</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25">
-      <c r="A131" s="28" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>2900</v>
-      </c>
-      <c r="D131" s="30">
-        <v>2015</v>
-      </c>
-      <c r="E131" s="30" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25">
-      <c r="A132" s="28" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C132" s="29" t="s">
-        <v>3073</v>
-      </c>
-      <c r="D132" s="30">
-        <v>1977</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25">
-      <c r="A133" s="28" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>3076</v>
-      </c>
-      <c r="D133" s="30">
-        <v>1977</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25">
-      <c r="A134" s="28" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>3078</v>
-      </c>
-      <c r="D134" s="30">
-        <v>1979</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25">
-      <c r="A135" s="28" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>3080</v>
-      </c>
-      <c r="D135" s="30">
-        <v>1979</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25">
-      <c r="A136" s="28" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C136" s="29" t="s">
-        <v>3082</v>
-      </c>
-      <c r="D136" s="30">
-        <v>1979</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25">
-      <c r="A137" s="28" t="s">
-        <v>3084</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C137" s="29" t="s">
-        <v>3085</v>
-      </c>
-      <c r="D137" s="30">
-        <v>1980</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25">
-      <c r="A138" s="28" t="s">
-        <v>3086</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C138" s="29" t="s">
-        <v>3087</v>
-      </c>
-      <c r="D138" s="30">
-        <v>1980</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25">
-      <c r="A139" s="28" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>3090</v>
-      </c>
-      <c r="D139" s="30">
-        <v>1981</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25">
-      <c r="A140" s="28" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C140" s="29" t="s">
-        <v>3092</v>
-      </c>
-      <c r="D140" s="30">
-        <v>1981</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25">
-      <c r="A141" s="28" t="s">
-        <v>3094</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C141" s="29" t="s">
-        <v>3095</v>
-      </c>
-      <c r="D141" s="30">
-        <v>1981</v>
-      </c>
-      <c r="E141" s="30" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25">
-      <c r="A142" s="28" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C142" s="29" t="s">
-        <v>3097</v>
-      </c>
-      <c r="D142" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25">
-      <c r="A143" s="28" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C143" s="29" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D143" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25">
-      <c r="A144" s="28" t="s">
-        <v>3101</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>3102</v>
-      </c>
-      <c r="D144" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25">
-      <c r="A145" s="28" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C145" s="29" t="s">
-        <v>3104</v>
-      </c>
-      <c r="D145" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25">
-      <c r="A146" s="28" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>3106</v>
-      </c>
-      <c r="D146" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25">
-      <c r="A147" s="28" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C147" s="29" t="s">
-        <v>3109</v>
-      </c>
-      <c r="D147" s="30">
-        <v>1982</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25">
-      <c r="A148" s="28" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C148" s="29" t="s">
-        <v>3112</v>
-      </c>
-      <c r="D148" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E148" s="30" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25">
-      <c r="A149" s="28" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C149" s="29" t="s">
-        <v>3114</v>
-      </c>
-      <c r="D149" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25">
-      <c r="A150" s="28" t="s">
-        <v>3116</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>3117</v>
-      </c>
-      <c r="D150" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E150" s="30" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25">
-      <c r="A151" s="28" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>3119</v>
-      </c>
-      <c r="D151" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E151" s="30" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25">
-      <c r="A152" s="28" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>3121</v>
-      </c>
-      <c r="D152" s="30">
-        <v>1983</v>
-      </c>
-      <c r="E152" s="30" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25">
-      <c r="A153" s="28" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>3123</v>
-      </c>
-      <c r="D153" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E153" s="30" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25">
-      <c r="A154" s="28" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D154" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25">
-      <c r="A155" s="28" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>3127</v>
-      </c>
-      <c r="D155" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E155" s="30" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25">
-      <c r="A156" s="28" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>3130</v>
-      </c>
-      <c r="D156" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E156" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25">
-      <c r="A157" s="28" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>3132</v>
-      </c>
-      <c r="D157" s="30">
-        <v>1984</v>
-      </c>
-      <c r="E157" s="30" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25">
-      <c r="A158" s="28" t="s">
-        <v>3134</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>3135</v>
-      </c>
-      <c r="D158" s="30">
-        <v>1985</v>
-      </c>
-      <c r="E158" s="30" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25">
-      <c r="A159" s="28" t="s">
-        <v>3136</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>3137</v>
-      </c>
-      <c r="D159" s="30">
-        <v>1985</v>
-      </c>
-      <c r="E159" s="30" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25">
-      <c r="A160" s="28" t="s">
-        <v>3138</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>3139</v>
-      </c>
-      <c r="D160" s="30">
-        <v>1985</v>
-      </c>
-      <c r="E160" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="161" ht="14.25">
-      <c r="A161" s="28" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>3141</v>
-      </c>
-      <c r="D161" s="30">
-        <v>1986</v>
-      </c>
-      <c r="E161" s="30" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="162" ht="14.25">
-      <c r="A162" s="28" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>3143</v>
-      </c>
-      <c r="D162" s="30">
-        <v>1987</v>
-      </c>
-      <c r="E162" s="30" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25">
-      <c r="A163" s="28" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C163" s="29" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D163" s="30">
-        <v>1987</v>
-      </c>
-      <c r="E163" s="30" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25">
-      <c r="A164" s="28" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>3147</v>
-      </c>
-      <c r="D164" s="30">
-        <v>1987</v>
-      </c>
-      <c r="E164" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25">
-      <c r="A165" s="28" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>3149</v>
-      </c>
-      <c r="D165" s="30">
-        <v>1987</v>
-      </c>
-      <c r="E165" s="30" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25">
-      <c r="A166" s="28" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C166" s="29" t="s">
-        <v>3151</v>
-      </c>
-      <c r="D166" s="30">
-        <v>1988</v>
-      </c>
-      <c r="E166" s="30" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25">
-      <c r="A167" s="28" t="s">
-        <v>3152</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>3153</v>
-      </c>
-      <c r="D167" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E167" s="30" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="168" ht="14.25">
-      <c r="A168" s="28" t="s">
-        <v>3154</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>3155</v>
-      </c>
-      <c r="D168" s="30">
-        <v>1989</v>
-      </c>
-      <c r="E168" s="30" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25">
-      <c r="A169" s="28" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C169" s="29" t="s">
-        <v>3158</v>
-      </c>
-      <c r="D169" s="30">
-        <v>1992</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25">
-      <c r="A170" s="28" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>3160</v>
-      </c>
-      <c r="D170" s="30">
-        <v>1992</v>
-      </c>
-      <c r="E170" s="30" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25">
-      <c r="A171" s="28" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>3072</v>
-      </c>
-      <c r="C171" s="29" t="s">
-        <v>3163</v>
-      </c>
-      <c r="D171" s="30">
-        <v>1993</v>
-      </c>
-      <c r="E171" s="30" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25">
-      <c r="A172" s="28" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C172" s="29" t="s">
-        <v>3166</v>
-      </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
-    </row>
-    <row r="173" ht="14.25">
-      <c r="A173" s="28" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>3168</v>
-      </c>
-      <c r="D173" s="30"/>
-      <c r="E173" s="31"/>
-    </row>
-    <row r="174" ht="14.25">
-      <c r="A174" s="28" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>3170</v>
-      </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="31"/>
-    </row>
-    <row r="175" ht="14.25">
-      <c r="A175" s="28" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>3172</v>
-      </c>
-      <c r="D175" s="30"/>
-      <c r="E175" s="31"/>
-    </row>
-    <row r="176" ht="14.25">
-      <c r="A176" s="28" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>3174</v>
-      </c>
-      <c r="D176" s="30"/>
-      <c r="E176" s="31"/>
-    </row>
-    <row r="177" ht="14.25">
-      <c r="A177" s="28" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C177" s="29" t="s">
-        <v>3176</v>
-      </c>
-      <c r="D177" s="30"/>
-      <c r="E177" s="31"/>
-    </row>
-    <row r="178" ht="14.25">
-      <c r="A178" s="28" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>3178</v>
-      </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="31"/>
-    </row>
-    <row r="179" ht="14.25">
-      <c r="A179" s="28" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C179" s="29" t="s">
-        <v>3180</v>
-      </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="31"/>
-    </row>
-    <row r="180" ht="14.25">
-      <c r="A180" s="28" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>3182</v>
-      </c>
-      <c r="D180" s="30"/>
-      <c r="E180" s="31"/>
-    </row>
-    <row r="181" ht="14.25">
-      <c r="A181" s="28" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C181" s="29" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D181" s="30"/>
-      <c r="E181" s="31"/>
-    </row>
-    <row r="182" ht="14.25">
-      <c r="A182" s="28" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>3186</v>
-      </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="31"/>
-    </row>
-    <row r="183" ht="14.25">
-      <c r="A183" s="28" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D183" s="30"/>
-      <c r="E183" s="31"/>
-    </row>
-    <row r="184" ht="14.25">
-      <c r="A184" s="28" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="31"/>
-    </row>
-    <row r="185" ht="14.25">
-      <c r="A185" s="28" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C185" s="29" t="s">
-        <v>3192</v>
-      </c>
-      <c r="D185" s="30"/>
-      <c r="E185" s="31"/>
-    </row>
-    <row r="186" ht="14.25">
-      <c r="A186" s="28" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>3194</v>
-      </c>
-      <c r="D186" s="30"/>
-      <c r="E186" s="31"/>
-    </row>
-    <row r="187" ht="14.25">
-      <c r="A187" s="28" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C187" s="29" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D187" s="30"/>
-      <c r="E187" s="31"/>
-    </row>
-    <row r="188" ht="14.25">
-      <c r="A188" s="28" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C188" s="29" t="s">
-        <v>3198</v>
-      </c>
-      <c r="D188" s="30"/>
-      <c r="E188" s="31"/>
-    </row>
-    <row r="189" ht="14.25">
-      <c r="A189" s="28" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C189" s="29" t="s">
-        <v>3200</v>
-      </c>
-      <c r="D189" s="30"/>
-      <c r="E189" s="31"/>
-    </row>
-    <row r="190" ht="14.25">
-      <c r="A190" s="28" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C190" s="29" t="s">
-        <v>3202</v>
-      </c>
-      <c r="D190" s="30"/>
-      <c r="E190" s="31"/>
-    </row>
-    <row r="191" ht="14.25">
-      <c r="A191" s="28" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C191" s="29" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D191" s="30"/>
-      <c r="E191" s="31"/>
-    </row>
-    <row r="192" ht="14.25">
-      <c r="A192" s="28" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C192" s="29" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D192" s="30"/>
-      <c r="E192" s="31"/>
-    </row>
-    <row r="193" ht="15">
-      <c r="A193" s="28" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C193" s="29" t="s">
-        <v>3207</v>
-      </c>
-      <c r="D193" s="30"/>
-      <c r="E193" s="31"/>
-    </row>
-    <row r="194" ht="15">
-      <c r="A194" s="28" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C194" s="29" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D194" s="30"/>
-      <c r="E194" s="31"/>
-    </row>
-    <row r="195" ht="15">
-      <c r="A195" s="28" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C195" s="29" t="s">
-        <v>3211</v>
-      </c>
-      <c r="D195" s="30"/>
-      <c r="E195" s="31"/>
-    </row>
-    <row r="196" ht="15">
-      <c r="A196" s="28" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C196" s="29" t="s">
-        <v>3213</v>
-      </c>
-      <c r="D196" s="30"/>
-      <c r="E196" s="31"/>
-    </row>
-    <row r="197" ht="15">
-      <c r="A197" s="28" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D197" s="30"/>
-      <c r="E197" s="31"/>
-    </row>
-    <row r="198" ht="15">
-      <c r="A198" s="28" t="s">
-        <v>3216</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D198" s="30"/>
-      <c r="E198" s="31"/>
-    </row>
-    <row r="199" ht="15">
-      <c r="A199" s="28" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C199" s="29" t="s">
-        <v>3219</v>
-      </c>
-      <c r="D199" s="30"/>
-      <c r="E199" s="31"/>
-    </row>
-    <row r="200" ht="15">
-      <c r="A200" s="28" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C200" s="29" t="s">
-        <v>3221</v>
-      </c>
-      <c r="D200" s="30"/>
-      <c r="E200" s="31"/>
-    </row>
-    <row r="201" ht="15">
-      <c r="A201" s="28" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C201" s="29" t="s">
-        <v>3223</v>
-      </c>
-      <c r="D201" s="30"/>
-      <c r="E201" s="31"/>
-    </row>
-    <row r="202" ht="15">
-      <c r="A202" s="28" t="s">
-        <v>3224</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C202" s="29" t="s">
-        <v>3225</v>
-      </c>
-      <c r="D202" s="30"/>
-      <c r="E202" s="31"/>
-    </row>
-    <row r="203" ht="15">
-      <c r="A203" s="28" t="s">
-        <v>3226</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C203" s="29" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D203" s="30"/>
-      <c r="E203" s="31"/>
-    </row>
-    <row r="204" ht="15">
-      <c r="A204" s="28" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C204" s="29" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D204" s="30"/>
-    </row>
-    <row r="205" ht="15">
-      <c r="A205" s="28" t="s">
-        <v>3230</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C205" s="29" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D205" s="30"/>
-    </row>
-    <row r="206" ht="15">
-      <c r="A206" s="28" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C206" s="29" t="s">
-        <v>3234</v>
-      </c>
-      <c r="D206" s="30"/>
-    </row>
-    <row r="207" ht="15">
-      <c r="A207" s="28" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C207" s="29" t="s">
-        <v>3236</v>
-      </c>
-      <c r="D207" s="30"/>
-    </row>
-    <row r="208" ht="15">
-      <c r="A208" s="28" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C208" s="29" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D208" s="30"/>
-    </row>
-    <row r="209" ht="15">
-      <c r="A209" s="28" t="s">
-        <v>3239</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C209" s="29" t="s">
-        <v>3240</v>
-      </c>
-      <c r="D209" s="30"/>
-    </row>
-    <row r="210" ht="15">
-      <c r="A210" s="28" t="s">
-        <v>3241</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C210" s="29" t="s">
-        <v>3242</v>
-      </c>
-      <c r="D210" s="30"/>
-    </row>
-    <row r="211" ht="15">
-      <c r="A211" s="28" t="s">
-        <v>3243</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C211" s="29" t="s">
-        <v>3244</v>
-      </c>
-      <c r="D211" s="30"/>
-    </row>
-    <row r="212" ht="15">
-      <c r="A212" s="28" t="s">
-        <v>3245</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C212" s="29" t="s">
-        <v>3246</v>
-      </c>
-      <c r="D212" s="30"/>
-    </row>
-    <row r="213" ht="14.25">
-      <c r="A213" s="32"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" ht="14.25">
-      <c r="A214" s="33"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" ht="14.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" ht="14.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" ht="14.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" ht="14.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" ht="14.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" ht="14.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" ht="14.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" ht="14.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" ht="14.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" ht="14.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" ht="14.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-    </row>
-    <row r="226" ht="14.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" ht="14.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" ht="14.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" ht="14.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" ht="14.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" ht="14.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-    </row>
-    <row r="232" ht="14.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" ht="14.25">
-      <c r="A233" s="1"/>
-      <c r="D233" s="1"/>
-    </row>
-    <row r="234" ht="14.25">
-      <c r="A234" s="1"/>
-      <c r="D234" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.421875"/>
+    <col customWidth="1" min="1" max="1" width="35.28125"/>
     <col customWidth="1" min="2" max="5" width="12.140625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
     <col customWidth="1" min="7" max="7" width="12.140625"/>
@@ -36337,7 +31174,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3247</v>
+        <v>2796</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -36348,65 +31185,160 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3248</v>
+        <v>2797</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3249</v>
+        <v>2799</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3250</v>
+        <v>2801</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3251</v>
+        <v>2802</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3252</v>
+        <v>2803</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3253</v>
+        <v>2805</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3254</v>
+        <v>2806</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2310</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>3255</v>
+        <v>2807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2310</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>3256</v>
+        <v>2808</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2798</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>3257</v>
+        <v>2809</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2798</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>3258</v>
+        <v>2810</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>3259</v>
+        <v>2811</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2800</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="2819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="2861">
   <si>
     <t>Title</t>
   </si>
@@ -7882,6 +7882,9 @@
     <t xml:space="preserve">Fritz the Cat</t>
   </si>
   <si>
+    <t xml:space="preserve">The Nine Lives of Fritz the Cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Lord of the Rings</t>
   </si>
   <si>
@@ -7903,6 +7906,9 @@
     <t xml:space="preserve">Hey Good Lookin</t>
   </si>
   <si>
+    <t xml:space="preserve">The Maxx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Golgo 13</t>
   </si>
   <si>
@@ -8032,22 +8038,163 @@
     <t xml:space="preserve">Fist of the North Star </t>
   </si>
   <si>
-    <t xml:space="preserve">Miyazaki (Every Movie)</t>
+    <t xml:space="preserve">Castle in the Sky</t>
   </si>
   <si>
     <t xml:space="preserve">Hayao Miyazaki</t>
   </si>
   <si>
+    <t xml:space="preserve">My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porco Rosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper of the Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Mononoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirited Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wind Rises</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Boy and the Heron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales from Earthsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorō Miyazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Up on Poppy Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grave of the Fireflies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isao Takahata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pom Poko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Neighbors the Yamadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tale of the Princess Kaguya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cat Returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroyuki Morita</t>
+  </si>
+  <si>
+    <t>Arrietty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiromasa Yonebayashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Marnie Was There</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Iron Giant</t>
   </si>
   <si>
+    <t xml:space="preserve">Brad Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thief and the Cobbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Adventures of Prince Achmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotte Reiniger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street of Crocodiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brothers Quay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret of NIMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Bluth</t>
+  </si>
+  <si>
+    <t>Anomalisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie Kaufman &amp; Duke Johnson</t>
+  </si>
+  <si>
+    <t>Shigurui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirotsugu Hamazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialized Animations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Murdoch</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:22d219e0d87f0948471784ecdfcf60e54db7ed7a&amp;dn=Murdoch%20Murdoch&amp;tr=http%3A%2F%2Fshare.camoe.cn%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce&amp;tr=http%3A%2F%2Ft.nyaatracker.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.doko.moe%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fasnet.pw%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.co%3A80%2Fannounce&amp;tr=http%3A%2F%2Fpt.lax.mx%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fsantost12.xyz%3A6969%2Fannounce&amp;tr=https%3A%2F%2Ftracker.bt-hash.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fzephir.monocul.us%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fgrifon.info%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.spark-rostov.ru%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftr.kxmp.cf%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.city9x.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fbt.aoeex.com%3A8000%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.telecom.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.electro-torrent.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.halfchub.club%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.nts.su%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fwambo.club%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dutchtracking.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftc.animereactor.ru%3A8082%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.justseed.it%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=https%3A%2F%2Fopen.kickasstracker.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.mgts.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.bashtel.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Finferno.demonoid.pw%3A3418%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cypherpunks.ru%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.calculate.ru%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.krs-ix.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.indowebster.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittorrent.am%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%2Fannounce&amp;tr=http%3A%2F%2Ftracker.baravik.org%3A6970%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker4.piratux.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.skyts.net%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.itzmx.com%3A6961%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fwww.wareztorrent.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.eddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.edoardocolombo.eu%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.mg64.net%3A6881%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker1.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=http%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.gorcomnet.ru%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969&amp;tr=udp%3A%2F%2Fpublic.popcorn-tracker.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ilibr.org%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kuroy.me%3A5944%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.devil-torrents.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.christianbro.pw%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.lanta-net.ru%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fulfbrueggemann.no-ip.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.eu%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Fpeerfect.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.swateam.org.uk%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fns349743.ip-91-121-106.eu%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.me%3A8080%2Fannounce&amp;tr=http%3A%2F%2Fagusiq-torrents.pl%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ffxtt.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fexplodie.org%3A6969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paranoia Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy City</t>
+  </si>
+  <si>
+    <t>Hellsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umanosuke Iida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergo Proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shūkō Murase</t>
+  </si>
+  <si>
     <t xml:space="preserve">Legend of the Galactic Heros</t>
   </si>
   <si>
+    <t xml:space="preserve">Noboru Ishiguro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armored Troopers Voton</t>
   </si>
   <si>
-    <t xml:space="preserve">Serialized Animations</t>
+    <t xml:space="preserve">Ryōsuke Takahashi</t>
   </si>
   <si>
     <t xml:space="preserve">The Cockpit</t>
@@ -8068,28 +8215,7 @@
     <t xml:space="preserve">Samurai Champloo</t>
   </si>
   <si>
-    <t xml:space="preserve">Paranoia Agent</t>
-  </si>
-  <si>
     <t>Mononoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergo Proxy</t>
-  </si>
-  <si>
-    <t>Shigurui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murdoch Murdoch</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:22d219e0d87f0948471784ecdfcf60e54db7ed7a&amp;dn=Murdoch%20Murdoch&amp;tr=http%3A%2F%2Fshare.camoe.cn%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce&amp;tr=http%3A%2F%2Ft.nyaatracker.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.doko.moe%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fasnet.pw%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.co%3A80%2Fannounce&amp;tr=http%3A%2F%2Fpt.lax.mx%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fsantost12.xyz%3A6969%2Fannounce&amp;tr=https%3A%2F%2Ftracker.bt-hash.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fzephir.monocul.us%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fgrifon.info%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.spark-rostov.ru%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftr.kxmp.cf%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.city9x.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fbt.aoeex.com%3A8000%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.telecom.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.electro-torrent.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.halfchub.club%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.nts.su%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fwambo.club%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dutchtracking.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftc.animereactor.ru%3A8082%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.justseed.it%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=https%3A%2F%2Fopen.kickasstracker.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.mgts.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.bashtel.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Finferno.demonoid.pw%3A3418%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cypherpunks.ru%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.calculate.ru%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.krs-ix.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.indowebster.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittorrent.am%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%2Fannounce&amp;tr=http%3A%2F%2Ftracker.baravik.org%3A6970%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker4.piratux.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.skyts.net%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.itzmx.com%3A6961%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fwww.wareztorrent.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.eddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.edoardocolombo.eu%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.mg64.net%3A6881%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker1.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=http%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.gorcomnet.ru%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969&amp;tr=udp%3A%2F%2Fpublic.popcorn-tracker.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ilibr.org%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kuroy.me%3A5944%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.devil-torrents.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.christianbro.pw%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.lanta-net.ru%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fulfbrueggemann.no-ip.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.eu%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Fpeerfect.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.swateam.org.uk%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fns349743.ip-91-121-106.eu%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.me%3A8080%2Fannounce&amp;tr=http%3A%2F%2Fagusiq-torrents.pl%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ffxtt.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fexplodie.org%3A6969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicy City</t>
-  </si>
-  <si>
-    <t>Hellsing</t>
   </si>
   <si>
     <t>Author</t>
@@ -8581,7 +8707,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8630,6 +8756,21 @@
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -29386,14 +29527,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showZeros="1" topLeftCell="A37" zoomScale="100" workbookViewId="0">
+    <sheetView showZeros="1" topLeftCell="A64" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="0" width="45.00390625"/>
-    <col customWidth="1" min="2" max="2" style="0" width="21.8515625"/>
+    <col customWidth="1" min="2" max="2" style="0" width="31.28125"/>
     <col customWidth="1" min="3" max="3" style="0" width="24.00390625"/>
     <col customWidth="1" min="4" max="6" style="0" width="21.8515625"/>
     <col min="7" max="16384" style="0" width="9.140625"/>
@@ -29560,31 +29701,31 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="20" t="s">
         <v>2618</v>
       </c>
       <c r="B12" t="s">
         <v>2616</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" t="s">
         <v>2605</v>
       </c>
       <c r="D12" s="14">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
         <v>2619</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" t="s">
         <v>2616</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D13" s="14">
-        <v>1973</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="14">
@@ -29598,7 +29739,7 @@
         <v>2605</v>
       </c>
       <c r="D14" s="14">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="15">
@@ -29612,7 +29753,7 @@
         <v>2605</v>
       </c>
       <c r="D15" s="14">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="16">
@@ -29626,7 +29767,7 @@
         <v>2605</v>
       </c>
       <c r="D16" s="14">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="17">
@@ -29640,7 +29781,7 @@
         <v>2605</v>
       </c>
       <c r="D17" s="14">
-        <v>1992</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="18">
@@ -29654,54 +29795,54 @@
         <v>2605</v>
       </c>
       <c r="D18" s="14">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D19" s="14">
         <v>1982</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20">
+      <c r="A20" s="21" t="s">
         <v>2626</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B20" s="11" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="D19" s="14">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>2605</v>
-      </c>
       <c r="D20" s="14">
-        <v>1983</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B21" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D21" s="14">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B22" t="s">
         <v>2630</v>
@@ -29710,147 +29851,147 @@
         <v>2605</v>
       </c>
       <c r="D22" s="14">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B23" t="s">
         <v>2632</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>2630</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D23" s="14">
-        <v>1973</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>2633</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>2630</v>
+      <c r="B24" t="s">
+        <v>2632</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D24" s="14">
-        <v>1982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>2634</v>
       </c>
-      <c r="B25" t="s">
-        <v>2635</v>
+      <c r="B25" s="11" t="s">
+        <v>2632</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D25" s="14">
-        <v>1988</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>2636</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>2605</v>
       </c>
-      <c r="D26" s="14">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2605</v>
-      </c>
       <c r="D27" s="14">
-        <v>2001</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
         <v>2638</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C28" t="s">
         <v>2605</v>
       </c>
       <c r="D28" s="14">
-        <v>1983</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B29" s="11" t="s">
         <v>2639</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C29" t="s">
         <v>2605</v>
       </c>
       <c r="D29" s="14">
-        <v>1993</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>2641</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>2639</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D30" s="14">
-        <v>1989</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>2642</v>
       </c>
-      <c r="B31" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="11" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="D31" s="19">
-        <v>1985</v>
+      <c r="D31" s="14">
+        <v>1993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
         <v>2643</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="11" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D32" s="14">
-        <v>2004</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="33">
@@ -29858,27 +29999,27 @@
         <v>2644</v>
       </c>
       <c r="B33" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>2605</v>
       </c>
-      <c r="D33" s="14">
-        <v>1995</v>
+      <c r="D33" s="19">
+        <v>1985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
         <v>2645</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>2639</v>
+      <c r="B34" s="8" t="s">
+        <v>2641</v>
       </c>
       <c r="C34" t="s">
         <v>2605</v>
       </c>
       <c r="D34" s="14">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="35">
@@ -29886,116 +30027,116 @@
         <v>2646</v>
       </c>
       <c r="B35" t="s">
-        <v>2647</v>
+        <v>2641</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D35" s="14">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B36" s="8" t="s">
         <v>2647</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2641</v>
       </c>
       <c r="C36" t="s">
         <v>2605</v>
       </c>
       <c r="D36" s="14">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B37" t="s">
         <v>2649</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2650</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D37" s="14">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="C38" t="s">
         <v>2605</v>
       </c>
       <c r="D38" s="14">
-        <v>1990</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B39" t="s">
         <v>2652</v>
       </c>
-      <c r="B39" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39" s="8" t="s">
         <v>2605</v>
       </c>
       <c r="D39" s="14">
-        <v>1980</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="C40" t="s">
         <v>2605</v>
       </c>
       <c r="D40" s="14">
-        <v>1982</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="A41" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C41" t="s">
         <v>2605</v>
       </c>
       <c r="D41" s="14">
-        <v>1985</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C42" s="11" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C42" t="s">
         <v>2605</v>
       </c>
       <c r="D42" s="14">
-        <v>2001</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>2659</v>
@@ -30004,21 +30145,21 @@
         <v>2605</v>
       </c>
       <c r="D43" s="14">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>2661</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>2659</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D44" s="14">
-        <v>1987</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="45">
@@ -30026,13 +30167,13 @@
         <v>2662</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D45" s="14">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="46">
@@ -30040,13 +30181,13 @@
         <v>2663</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D46" s="14">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="47">
@@ -30054,13 +30195,13 @@
         <v>2664</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D47" s="14">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="48">
@@ -30068,13 +30209,13 @@
         <v>2665</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D48" s="14">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="49">
@@ -30082,251 +30223,672 @@
         <v>2666</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D49" s="14">
-        <v>2007</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>2667</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>2605</v>
       </c>
       <c r="D50" s="14">
-        <v>1986</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
         <v>2668</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>2669</v>
+      <c r="B51" s="8" t="s">
+        <v>2661</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14">
+        <v>2007</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
+      <c r="A52" s="11" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="21" t="s">
         <v>2670</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="B53" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="D52" s="14">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="D53" s="14">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="21" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>2671</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="D53" s="14">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" t="s">
-        <v>2672</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="14">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="21" t="s">
         <v>2673</v>
       </c>
-      <c r="D54" s="14">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" t="s">
+      <c r="B55" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D55" s="14">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="21" t="s">
         <v>2674</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D55" s="14">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56" t="s">
+      <c r="B56" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="21" t="s">
         <v>2675</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="B57" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D57" s="14">
         <v>1995</v>
       </c>
     </row>
-    <row r="57" ht="14.25">
-      <c r="A57" t="s">
+    <row r="58">
+      <c r="A58" s="21" t="s">
         <v>2676</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D57" s="14">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" t="s">
+      <c r="B58" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="s">
         <v>2677</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D58" s="19">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" t="s">
+      <c r="B59" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="21" t="s">
         <v>2678</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D59" s="14">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>2673</v>
+      <c r="B60" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>2605</v>
       </c>
       <c r="D60" s="14">
         <v>2004</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="21" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D61" s="14">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="21" t="s">
         <v>2680</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D61" s="14">
+      <c r="B62" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="21" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="21" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="21" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D65" s="14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D66" s="14">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D68" s="14">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="21" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D69" s="14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="21" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D70" s="14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="21" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D71" s="14">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="21" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D72" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="21" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D73" s="14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D74" s="14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="21" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D75" s="14">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="21" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="21" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="21" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D79" s="14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D80" s="14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D81" s="14">
+        <v>2016</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D82" s="14">
         <v>2004</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="20" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D62" s="14">
+    <row r="83" ht="14.25">
+      <c r="A83" s="8" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D83" s="14">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D84" s="14">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="11" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="20" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D86" s="14">
         <v>2006</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
-      <c r="A63" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D63" s="14">
+    <row r="87" ht="14.25">
+      <c r="A87" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D87" s="14">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D90" s="19">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D91" s="14">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D92" s="19">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D93" s="14">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D94" s="14">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D95" s="14">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="27" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D96" s="14">
         <v>2006</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
-      <c r="A64" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D64" s="14">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>2684</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D65" s="14">
-        <v>2016</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D66" s="14">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="8" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D67" s="14">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="11" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D69" s="14">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25"/>
-    <row r="72" ht="14.25"/>
-    <row r="73" ht="14.25"/>
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D97" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="B99"/>
+      <c r="D99"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -30355,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2688</v>
+        <v>2730</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -30369,13 +30931,13 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -30383,7 +30945,7 @@
     <row r="3" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>2690</v>
+        <v>2732</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -30391,10 +30953,10 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>2691</v>
+        <v>2733</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2692</v>
+        <v>2734</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -30402,689 +30964,689 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2693</v>
+        <v>2735</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2694</v>
+        <v>2736</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2695</v>
+        <v>2737</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2696</v>
+        <v>2738</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2697</v>
+        <v>2739</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2698</v>
+        <v>2740</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2699</v>
+        <v>2741</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2678</v>
+        <v>2727</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11" t="s">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2700</v>
+        <v>2742</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>2702</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2703</v>
+        <v>2745</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>2704</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2705</v>
+        <v>2747</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>2706</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2707</v>
+        <v>2749</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>2708</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2709</v>
+        <v>2751</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>2710</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2711</v>
+        <v>2753</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>2712</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2713</v>
+        <v>2755</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
-        <v>2701</v>
+        <v>2743</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>2714</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2715</v>
+        <v>2757</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>2717</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2718</v>
+        <v>2760</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>2719</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2720</v>
+        <v>2762</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>2721</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2722</v>
+        <v>2764</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>2723</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2724</v>
+        <v>2766</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>2725</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2726</v>
+        <v>2768</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>2727</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2728</v>
+        <v>2770</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>2729</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2730</v>
+        <v>2772</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="11" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>2731</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2732</v>
+        <v>2774</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="11" t="s">
-        <v>2733</v>
+        <v>2775</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>2734</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2735</v>
+        <v>2777</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="11" t="s">
-        <v>2733</v>
+        <v>2775</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>2736</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>2737</v>
+        <v>2779</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="11" t="s">
-        <v>2733</v>
+        <v>2775</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>2738</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>2739</v>
+        <v>2781</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
-        <v>2733</v>
+        <v>2775</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>2740</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2741</v>
+        <v>2783</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>2743</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2744</v>
+        <v>2786</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="11" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>2745</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>2746</v>
+        <v>2788</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>2747</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2748</v>
+        <v>2790</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="11" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>2749</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>2750</v>
+        <v>2792</v>
       </c>
       <c r="B36" t="s">
-        <v>2751</v>
+        <v>2793</v>
       </c>
       <c r="C36" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>2752</v>
+        <v>2794</v>
       </c>
       <c r="B37" t="s">
-        <v>2753</v>
+        <v>2795</v>
       </c>
       <c r="C37" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>2755</v>
+        <v>2797</v>
       </c>
       <c r="B38" t="s">
-        <v>2753</v>
+        <v>2795</v>
       </c>
       <c r="C38" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>2756</v>
+        <v>2798</v>
       </c>
       <c r="B39" t="s">
-        <v>2757</v>
+        <v>2799</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>2758</v>
+        <v>2800</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2759</v>
+        <v>2801</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>2760</v>
+        <v>2802</v>
       </c>
       <c r="B41" t="s">
-        <v>2761</v>
+        <v>2803</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="8" t="s">
-        <v>2762</v>
+        <v>2804</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2763</v>
+        <v>2805</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="8" t="s">
-        <v>2764</v>
+        <v>2806</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2763</v>
+        <v>2805</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="8" t="s">
-        <v>2765</v>
+        <v>2807</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2763</v>
+        <v>2805</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="8" t="s">
-        <v>2766</v>
+        <v>2808</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2763</v>
+        <v>2805</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="8" t="s">
-        <v>2767</v>
+        <v>2809</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2763</v>
+        <v>2805</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>2768</v>
+        <v>2810</v>
       </c>
       <c r="B47" t="s">
-        <v>2769</v>
+        <v>2811</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="8" t="s">
-        <v>2770</v>
+        <v>2812</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2769</v>
+        <v>2811</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="8" t="s">
-        <v>2771</v>
+        <v>2813</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2769</v>
+        <v>2811</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="8" t="s">
-        <v>2772</v>
+        <v>2814</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2769</v>
+        <v>2811</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>2773</v>
+        <v>2815</v>
       </c>
       <c r="C51" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" ht="14.25">
       <c r="C52" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>2774</v>
+        <v>2816</v>
       </c>
       <c r="B53" t="s">
-        <v>2775</v>
+        <v>2817</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2776</v>
+        <v>2818</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" t="s">
-        <v>2777</v>
+        <v>2819</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2775</v>
+        <v>2817</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2776</v>
+        <v>2818</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>2778</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="8" t="s">
-        <v>2779</v>
+        <v>2821</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2775</v>
+        <v>2817</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2776</v>
+        <v>2818</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="8" t="s">
-        <v>2780</v>
+        <v>2822</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2775</v>
+        <v>2817</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2776</v>
+        <v>2818</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="21" t="s">
-        <v>2781</v>
+      <c r="A57" s="28" t="s">
+        <v>2823</v>
       </c>
       <c r="B57" t="s">
-        <v>2782</v>
+        <v>2824</v>
       </c>
       <c r="C57" t="s">
-        <v>2754</v>
+        <v>2796</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>2783</v>
+        <v>2825</v>
       </c>
       <c r="B58" t="s">
-        <v>2782</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>2784</v>
+        <v>2826</v>
       </c>
       <c r="B59" t="s">
-        <v>2782</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>2785</v>
+        <v>2827</v>
       </c>
       <c r="B60" t="s">
-        <v>2782</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>2786</v>
+        <v>2828</v>
       </c>
       <c r="B61" t="s">
-        <v>2782</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>2787</v>
+        <v>2829</v>
       </c>
       <c r="B62" t="s">
-        <v>2788</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -31092,52 +31654,52 @@
         <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>2788</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2789</v>
+        <v>2831</v>
       </c>
       <c r="B64" t="s">
-        <v>2773</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>2790</v>
+        <v>2832</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2791</v>
+        <v>2833</v>
       </c>
       <c r="C65" t="s">
-        <v>2742</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>2792</v>
+        <v>2834</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2791</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>2793</v>
+        <v>2835</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2791</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>2794</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="B69" t="s">
-        <v>2795</v>
+        <v>2837</v>
       </c>
     </row>
   </sheetData>
@@ -31174,7 +31736,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2796</v>
+        <v>2838</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -31191,31 +31753,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2797</v>
+        <v>2839</v>
       </c>
       <c r="B2" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2799</v>
+        <v>2841</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2800</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2801</v>
+        <v>2843</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2802</v>
+        <v>2844</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2252</v>
@@ -31223,23 +31785,23 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2803</v>
+        <v>2845</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2804</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2805</v>
+        <v>2847</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2800</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2806</v>
+        <v>2848</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2310</v>
@@ -31247,7 +31809,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2807</v>
+        <v>2849</v>
       </c>
       <c r="B9" t="s">
         <v>2310</v>
@@ -31255,90 +31817,90 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2808</v>
+        <v>2850</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2809</v>
+        <v>2851</v>
       </c>
       <c r="B11" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2810</v>
+        <v>2852</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2804</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2811</v>
+        <v>2853</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2800</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2812</v>
+        <v>2854</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2813</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2814</v>
+        <v>2856</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2815</v>
+        <v>2857</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2809</v>
+        <v>2851</v>
       </c>
       <c r="B17" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2816</v>
+        <v>2858</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2798</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2817</v>
+        <v>2859</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2800</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2818</v>
+        <v>2860</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2800</v>
+        <v>2842</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="2861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="2863">
   <si>
     <t>Title</t>
   </si>
@@ -6781,361 +6781,367 @@
     <t xml:space="preserve">George Butler</t>
   </si>
   <si>
+    <t xml:space="preserve">Addio zio Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gualtiero Jacopetti e Franco Prosperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondo cane n. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La donna nel mondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa Addio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Fuentes Most Canceled Man in America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Escandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europa: The Last Battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Insiders (JBS Documentary on the Council on Foreign Relations &amp; Trilateral Commission)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri Bezmenov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind the Big News: Propaganda and the CFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Day Amazon Murdered History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradley Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigged: The Zuckerberg Funded Plot to Defeat Donald Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Killian Meath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Creature from Jekyll Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Edward Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE KALERGI PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTHEW NORTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Greatest Lie Ever Sold: George Floyd and the Rise of BLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candace Owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Maimik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Shadow of Hermes</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">üri Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lightbringers: The Emissaries of Jahbulon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empire Of Dust</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bram Van Paesschen</t>
   </si>
   <si>
-    <t xml:space="preserve">Addio zio Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondo Doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gualtiero Jacopetti e Franco Prosperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondo cane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondo cane n. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La donna nel mondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Addio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Fuentes Most Canceled Man in America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modern Politics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Escandon</t>
+    <t xml:space="preserve">The Subversion Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Minds of Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron and Melissa Dykes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trust Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brinth of the Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World War II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Berlin Sin City Of The 1920's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret Masonic Victory of World War Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf H. The Greatest Story Never Told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnet:?xt=urn:btih:ca4a905cf8f29636bb11de92fc9792a793c633d1&amp;dn=Adolf Hitler The Greatest Story Never Told x264 THADOGG&amp;tr=http://the-torrents.org:8888/d63f5e41c476d6b178f581f29ddf4631/announce&amp;tr=http://tracker.opentrackr.org:1337/announce&amp;tr=udp://tracker.coppersurfer.tk:6969/announce&amp;tr=udp://tracker.openbittorrent.com:80/announce&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
   </si>
   <si>
     <t xml:space="preserve">Hellstorm - The Genocide Of Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">World War II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kyle Hunt</t>
   </si>
   <si>
-    <t xml:space="preserve">In the Shadow of Hermes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">üri Lina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lightbringers: The Emissaries of Jahbulon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolf H. The Greatest Story Never Told</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis Wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnet:?xt=urn:btih:ca4a905cf8f29636bb11de92fc9792a793c633d1&amp;dn=Adolf Hitler The Greatest Story Never Told x264 THADOGG&amp;tr=http://the-torrents.org:8888/d63f5e41c476d6b178f581f29ddf4631/announce&amp;tr=http://tracker.opentrackr.org:1337/announce&amp;tr=udp://tracker.coppersurfer.tk:6969/announce&amp;tr=udp://tracker.openbittorrent.com:80/announce&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
+    <t xml:space="preserve">World War II: Day by Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Majdanek Gas Chamber Myth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last Days of the Big Lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahrheit macht frei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gran tabu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Holocaust on Trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leslie Woodhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judea Declares War on Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredrick Töben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cry from the Grave</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children of Beslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to Bosnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabina Vajraca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt of The Earth (Nikolay Ragozin), part 1</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergei Bogdanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Predictive Programming?</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODD TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Order of Skull and Bones Brotherhood of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony Sutton</t>
   </si>
   <si>
     <t xml:space="preserve">New World Order: Communism by Backdoor</t>
   </si>
   <si>
-    <t>Conspiracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Secret Masonic Victory of World War Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europa: The Last Battle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobias B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World War II: Day by Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Majdanek Gas Chamber Myth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Hunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Last Days of the Big Lie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahrheit macht frei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El gran tabu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradley Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Day Amazon Murdered History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Holocaust on Trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie Woodhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cry from the Grave</t>
-  </si>
-  <si>
-    <t>War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Minds of Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaron and Melissa Dykes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Order of Skull and Bones Brotherhood of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antony Sutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judea Declares War on Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fredrick Töben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Creature from Jekyll Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Edward Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Trust Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Insiders (JBS Documentary on the Council on Foreign Relations &amp; Trilateral Commission)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuri Bezmenov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behind the Big News: Propaganda and the CFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Predictive Programming?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODD TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Berlin Sin City Of The 1920's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultural Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE KALERGI PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTHEW NORTH</t>
+    <t xml:space="preserve">Riddles in the Stone | Secrete Mysteries of Americas Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian J. Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The True Christian History of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge to Babylon: Rome, Ecumenism &amp; the Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Clouds Over Elberton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Secrets - Illuminati and the New Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tares Among the Wheat: Sequel to a Lamp in the Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hidden Faith of the Founding Fathers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Lamp in the Dark: The Untold History of the Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kinsey Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Illuminati - Riddles in Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 2: Riddles in Stone - The Secret Architecture of Washington D.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 1: The New Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megiddo: The March to Armageddon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megiddo II: The New Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 11: The New Pearl Harbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimo Mazzucco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Moon</t>
+  </si>
+  <si>
+    <t>Plandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaxxed: From Cover-Up to Catastrophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Wakefield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infertility: A Diabolical Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986: The Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Died Suddenly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Miller Skow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Six Degrees of Helter Skelter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray State: The Rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Crowley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Gray State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Open Secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzagate Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Berg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet on Set: The Dark Side of Kids TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium's X-Files - Marc Dutroux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Simkin</t>
+  </si>
+  <si>
+    <t>Citizenfour</t>
+  </si>
+  <si>
+    <t>Geopolitics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Poitras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Strange Harvest</t>
+  </si>
+  <si>
+    <t>Alien/UFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda Muolton Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clash of Gods [History Channel]</t>
+  </si>
+  <si>
+    <t>History</t>
   </si>
   <si>
     <t xml:space="preserve">S21 KHMER ROUGE KILLING MACHINE</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Maimik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Subversion Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children of Beslan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to Bosnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabina Vajraca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Greatest Lie Ever Sold: George Floyd and the Rise of BLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candace Owens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt of The Earth (Nikolay Ragozin), part 1</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergei Bogdanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riddles in the Stone | Secrete Mysteries of Americas Beginnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian J. Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The True Christian History of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge to Babylon: Rome, Ecumenism &amp; the Bible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Clouds Over Elberton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Secrets - Illuminati and the New Atlantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tares Among the Wheat: Sequel to a Lamp in the Dark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hidden Faith of the Founding Fathers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Lamp in the Dark: The Untold History of the Bible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kinsey Syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Illuminati - Riddles in Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 2: Riddles in Stone - The Secret Architecture of Washington D.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Mysteries of America's Beginnings Volume 1: The New Atlantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megiddo: The March to Armageddon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megiddo II: The New Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Brinth of the Nation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rigged: The Zuckerberg Funded Plot to Defeat Donald Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Killian Meath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 11: The New Pearl Harbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massimo Mazzucco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Moon</t>
-  </si>
-  <si>
-    <t>Plandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaxxed: From Cover-Up to Catastrophe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Wakefield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infertility: A Diabolical Agenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1986: The Act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clash of Gods [History Channel]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Died Suddenly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Miller Skow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Open Secret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizzagate Stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy Berg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of Shadows</t>
-  </si>
-  <si>
-    <t>Citizenfour</t>
-  </si>
-  <si>
-    <t>Geopolitics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Poitras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiet on Set: The Dark Side of Kids TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Six Degrees of Helter Skelter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gray State: The Rise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Crowley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Gray State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Nelson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Strange Harvest</t>
-  </si>
-  <si>
-    <t>Alien/UFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linda Muolton Howe</t>
   </si>
   <si>
     <t xml:space="preserve">Politics Unveiled - Anti-Masons, Etidorhpa, Occult Government, and the Puppet Show</t>
@@ -8707,7 +8713,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8735,7 +8741,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8756,18 +8765,6 @@
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -27282,13 +27279,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.57421875"/>
+    <col customWidth="1" min="1" max="1" width="71.140625"/>
     <col customWidth="1" min="2" max="2" width="36.7109375"/>
     <col customWidth="1" min="3" max="3" width="37.7109375"/>
     <col customWidth="1" min="4" max="4" width="80.8515625"/>
@@ -27334,10 +27331,10 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>2252</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -27349,54 +27346,54 @@
         <v>2254</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="8" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
         <v>2257</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="8" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="10" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2255</v>
+      <c r="B8" t="s">
+        <v>2252</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>2260</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -27404,111 +27401,107 @@
         <v>2261</v>
       </c>
       <c r="B10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C10" t="s">
         <v>2262</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C11" t="s">
         <v>2264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>2268</v>
+        <v>2265</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2259</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>2268</v>
+        <v>2259</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2267</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2265</v>
+        <v>2268</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2259</v>
       </c>
       <c r="C14" t="s">
-        <v>2271</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2272</v>
-      </c>
+        <v>2269</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>2273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="8" t="s">
         <v>2276</v>
       </c>
-      <c r="B17" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="11" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C18" t="s">
         <v>2277</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B19" t="s">
         <v>2279</v>
       </c>
-      <c r="B19" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -27517,9 +27510,9 @@
         <v>2281</v>
       </c>
       <c r="B20" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -27528,9 +27521,9 @@
         <v>2282</v>
       </c>
       <c r="B21" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C21" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>2283</v>
       </c>
     </row>
@@ -27539,7 +27532,7 @@
         <v>2284</v>
       </c>
       <c r="B22" t="s">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C22" t="s">
         <v>2285</v>
@@ -27550,42 +27543,41 @@
         <v>2286</v>
       </c>
       <c r="B23" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>2285</v>
+        <v>2279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2287</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>2287</v>
       </c>
-      <c r="B24" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2288</v>
-      </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>2289</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>2290</v>
       </c>
-      <c r="C25" t="s">
-        <v>2288</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>2291</v>
       </c>
-      <c r="B26" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="11" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>2292</v>
       </c>
     </row>
@@ -27593,10 +27585,10 @@
       <c r="A27" t="s">
         <v>2293</v>
       </c>
-      <c r="B27" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="11" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>2294</v>
       </c>
     </row>
@@ -27605,9 +27597,12 @@
         <v>2295</v>
       </c>
       <c r="B28" t="s">
-        <v>2265</v>
+        <v>2290</v>
       </c>
       <c r="C28" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D28" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -27616,9 +27611,9 @@
         <v>2297</v>
       </c>
       <c r="B29" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C29" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>2298</v>
       </c>
     </row>
@@ -27626,19 +27621,19 @@
       <c r="A30" t="s">
         <v>2299</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>2292</v>
+      <c r="B30" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>2262</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
         <v>2300</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>2262</v>
+      <c r="B31" t="s">
+        <v>2290</v>
       </c>
       <c r="C31" t="s">
         <v>2301</v>
@@ -27648,90 +27643,97 @@
       <c r="A32" t="s">
         <v>2302</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>2262</v>
+      <c r="B32" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2301</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>2303</v>
       </c>
       <c r="B33" t="s">
-        <v>2274</v>
+        <v>2290</v>
       </c>
       <c r="C33" t="s">
         <v>2304</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>2305</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="8" t="s">
+      <c r="B35" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C35" t="s">
         <v>2307</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C35" s="11" t="s">
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" t="s">
         <v>2308</v>
       </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="8" t="s">
+      <c r="B36" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C36" t="s">
         <v>2309</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="8" t="s">
+      <c r="B37" t="s">
         <v>2311</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>2262</v>
-      </c>
       <c r="C37" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="8" t="s">
         <v>2313</v>
       </c>
-      <c r="B38" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" s="11" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C39" t="s">
         <v>2314</v>
       </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" t="s">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" t="s">
         <v>2315</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>2290</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="8" t="s">
+      <c r="B40" t="s">
         <v>2316</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>2290</v>
       </c>
       <c r="C40" t="s">
         <v>2317</v>
@@ -27739,50 +27741,47 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>2318</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>2262</v>
+      <c r="B41" t="s">
+        <v>2319</v>
       </c>
       <c r="C41" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>2320</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B42" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C42" t="s">
         <v>2322</v>
       </c>
-      <c r="D42" s="8"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
         <v>2323</v>
       </c>
       <c r="B43" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C43" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" t="s">
         <v>2324</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="8" t="s">
+      <c r="B44" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C44" t="s">
         <v>2325</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>2324</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -27791,10 +27790,10 @@
         <v>2326</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -27803,10 +27802,10 @@
         <v>2327</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D46" s="8"/>
     </row>
@@ -27815,10 +27814,10 @@
         <v>2328</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D47" s="8"/>
     </row>
@@ -27827,10 +27826,10 @@
         <v>2329</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -27839,10 +27838,10 @@
         <v>2330</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -27851,10 +27850,10 @@
         <v>2331</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -27863,10 +27862,10 @@
         <v>2332</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -27875,10 +27874,10 @@
         <v>2333</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -27887,10 +27886,10 @@
         <v>2334</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -27899,10 +27898,10 @@
         <v>2335</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -27911,10 +27910,10 @@
         <v>2336</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -27923,10 +27922,10 @@
         <v>2337</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -27935,10 +27934,10 @@
         <v>2338</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -27947,17 +27946,19 @@
         <v>2339</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C58" s="8"/>
+        <v>2319</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>2325</v>
+      </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
         <v>2340</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>2262</v>
+      <c r="B59" t="s">
+        <v>2319</v>
       </c>
       <c r="C59" t="s">
         <v>2341</v>
@@ -27969,22 +27970,21 @@
         <v>2342</v>
       </c>
       <c r="B60" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C60" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D60" s="8"/>
+        <v>2341</v>
+      </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C61" t="s">
         <v>2344</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -27992,7 +27992,7 @@
         <v>2345</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C62" t="s">
         <v>2346</v>
@@ -28003,138 +28003,143 @@
         <v>2347</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2348</v>
+        <v>2319</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2274</v>
+        <v>2319</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C65" t="s">
         <v>2350</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>2348</v>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2319</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>2351</v>
+        <v>2352</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2354</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>2274</v>
+        <v>2355</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2319</v>
       </c>
       <c r="C69" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="8"/>
+      <c r="A70" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2359</v>
+      </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2356</v>
+        <v>2360</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>2358</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2274</v>
+      <c r="A72" s="12" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2362</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>2358</v>
+        <v>2363</v>
       </c>
       <c r="B73" t="s">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="C73" t="s">
-        <v>2360</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" t="s">
-        <v>2361</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>2355</v>
+        <v>2366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2368</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
-        <v>2362</v>
+        <v>2369</v>
       </c>
       <c r="B75" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25"/>
-    <row r="78" ht="14.25">
-      <c r="A78" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="A79" t="s">
-        <v>2365</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="A80" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="A82" s="12"/>
-    </row>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="8" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25"/>
+    <row r="86" ht="14.25"/>
+    <row r="94" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <hyperlinks>
@@ -28182,7 +28187,7 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
   </sheetData>
@@ -28223,296 +28228,296 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>2372</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>2381</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2379</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>2394</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>2392</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>2248</v>
@@ -28520,838 +28525,838 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>2431</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>2429</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>2450</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>2448</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>2472</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>2470</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>2485</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>2483</v>
-      </c>
       <c r="C55" s="11" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>2584</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>2582</v>
-      </c>
       <c r="C104" s="11" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
     </row>
   </sheetData>
@@ -29374,146 +29379,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="13" width="46.7109375"/>
-    <col customWidth="1" min="2" max="2" style="14" width="29.7109375"/>
-    <col customWidth="1" min="3" max="3" style="14" width="13.8515625"/>
-    <col min="4" max="4" style="14" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="14" width="46.7109375"/>
+    <col customWidth="1" min="2" max="2" style="15" width="29.7109375"/>
+    <col customWidth="1" min="3" max="3" style="15" width="13.8515625"/>
+    <col min="4" max="4" style="15" width="9.140625"/>
     <col customWidth="1" min="5" max="5" width="21.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="16" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2586</v>
+      <c r="D1" s="16" t="s">
+        <v>2588</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="A2" s="14" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2" s="15">
         <v>1969</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>1973</v>
       </c>
       <c r="E2" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>2590</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>2588</v>
-      </c>
       <c r="E3" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>2588</v>
+      <c r="A4" s="14" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2590</v>
       </c>
       <c r="E4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>2588</v>
+      <c r="A5" s="14" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2588</v>
+      <c r="A6" s="14" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>2588</v>
+      <c r="A7" s="14" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>2588</v>
+      <c r="A8" s="14" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>2588</v>
+      <c r="A9" s="14" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>2588</v>
+      <c r="A10" s="14" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="13" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="14" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C11" s="15">
         <v>1995</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>1999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="13" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>2588</v>
+      <c r="A13" s="14" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2590</v>
       </c>
     </row>
   </sheetData>
@@ -29562,1333 +29567,1328 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2603</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>2604</v>
+        <v>2605</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2606</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D2" s="19">
+        <v>2607</v>
+      </c>
+      <c r="D2" s="20">
         <v>1968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="B3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2607</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C4" t="s">
         <v>2607</v>
       </c>
-      <c r="C4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>1977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>2609</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>2607</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>1970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>2607</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>1969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>2607</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>1985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>2607</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>1991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="B9" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D9" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D9" s="15">
         <v>1981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="B10" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D10" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D10" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D11" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D11" s="15">
         <v>1972</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B12" t="s">
         <v>2618</v>
       </c>
-      <c r="B12" t="s">
-        <v>2616</v>
-      </c>
       <c r="C12" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D12" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D12" s="15">
         <v>1974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="B13" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D13" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D13" s="15">
         <v>1978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D14" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D14" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D15" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D15" s="15">
         <v>1975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D16" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D16" s="15">
         <v>1977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D17" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D17" s="15">
         <v>1981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D18" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D18" s="15">
         <v>1992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D19" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D19" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>2626</v>
+      <c r="A20" s="8" t="s">
+        <v>2628</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D20" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D20" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="B21" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D21" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D21" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B22" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D22" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D22" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="B23" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D23" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D23" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="B24" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D24" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D24" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>2634</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>2632</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D25" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D25" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D26" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D26" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="B27" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D27" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D27" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C28" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D28" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D28" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>2639</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>2637</v>
-      </c>
       <c r="C29" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D29" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D29" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D30" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D30" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D31" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D31" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>2643</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>2641</v>
-      </c>
       <c r="C32" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D32" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D32" s="15">
         <v>1989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="B33" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D33" s="19">
+        <v>2607</v>
+      </c>
+      <c r="D33" s="20">
         <v>1985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C34" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D34" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D34" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="B35" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D35" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D35" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C36" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D36" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D36" s="15">
         <v>2008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="B37" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D37" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D37" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C38" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D38" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D38" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="B39" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D39" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D39" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="C40" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D40" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D40" s="15">
         <v>1990</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="B41" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="C41" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D41" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D41" s="15">
         <v>1980</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="C42" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D42" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D42" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D43" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D43" s="15">
         <v>1985</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D44" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D44" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D45" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D45" s="15">
         <v>1984</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>2663</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>2661</v>
-      </c>
       <c r="C46" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D46" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D46" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D47" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D47" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D48" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D48" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D49" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D49" s="15">
         <v>1990</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D50" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D50" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D51" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D51" s="15">
         <v>2007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D52" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D52" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>2671</v>
+      <c r="A53" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D53" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D53" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="s">
-        <v>2672</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>2671</v>
+      <c r="A54" s="8" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D54" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D54" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="8" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>2671</v>
-      </c>
       <c r="C55" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D55" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D55" s="15">
         <v>1989</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>2671</v>
+      <c r="A56" s="8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D56" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D56" s="15">
         <v>1992</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>2671</v>
+      <c r="A57" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D57" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D57" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>2671</v>
+      <c r="A58" s="8" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D58" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D58" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="s">
-        <v>2677</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>2671</v>
+      <c r="A59" s="8" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D59" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D59" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>2671</v>
+      <c r="A60" s="8" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D60" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D60" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>2671</v>
+      <c r="A61" s="8" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D61" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D61" s="15">
         <v>2008</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>2671</v>
+      <c r="A62" s="8" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D62" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D62" s="15">
         <v>2013</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>2671</v>
+      <c r="A63" s="8" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2673</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D63" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D63" s="15">
         <v>2023</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>2683</v>
+      <c r="A64" s="8" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2685</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D64" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D64" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>2683</v>
+      <c r="A65" s="8" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2685</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D65" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D65" s="15">
         <v>2011</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>2686</v>
+      <c r="A66" s="8" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2688</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D66" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D66" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>2686</v>
+      <c r="A67" s="8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2688</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D67" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D67" s="15">
         <v>1991</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="8" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>2686</v>
-      </c>
       <c r="C68" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D68" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D68" s="15">
         <v>1994</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
-        <v>2689</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>2686</v>
+      <c r="A69" s="8" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2688</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D69" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D69" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>2686</v>
+      <c r="A70" s="8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2688</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D70" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D70" s="15">
         <v>2013</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
-        <v>2691</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>2692</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D71" s="14">
+      <c r="A71" s="8" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D71" s="15">
         <v>2002</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>2694</v>
+      <c r="A72" s="8" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2696</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D72" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D72" s="15">
         <v>2010</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>2694</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D73" s="14">
+      <c r="A73" s="8" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D73" s="15">
         <v>2014</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>2697</v>
+        <v>2698</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2699</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D74" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D74" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>2699</v>
+      <c r="A75" s="8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>2701</v>
       </c>
       <c r="C75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D75" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D75" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>2701</v>
+      <c r="A76" s="8" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>2703</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D76" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D76" s="15">
         <v>1926</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>2703</v>
+      <c r="A77" s="8" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>2705</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D77" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D77" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>2705</v>
+      <c r="A78" s="8" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2707</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D78" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D78" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="s">
-        <v>2706</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>2707</v>
+      <c r="A79" s="8" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2709</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D79" s="14">
+        <v>2607</v>
+      </c>
+      <c r="D79" s="15">
         <v>2015</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>2708</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>2709</v>
+        <v>2710</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2711</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D80" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D80" s="15">
         <v>2007</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D81" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D81" s="15">
         <v>2016</v>
       </c>
       <c r="E81" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="B82" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="C82" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D82" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D82" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="8" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D83" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D83" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>2716</v>
+        <v>2717</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>2718</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D84" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D84" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="11" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="B85" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D85" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D85" s="15">
         <v>1984</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="20" t="s">
-        <v>2717</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>2718</v>
+      <c r="A86" s="8" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2720</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D86" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D86" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>2720</v>
+        <v>2721</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>2722</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D87" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D87" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>2722</v>
+        <v>2723</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2724</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D88" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D88" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>2661</v>
+        <v>2725</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2663</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D89" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D89" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D90" s="19">
+        <v>2712</v>
+      </c>
+      <c r="D90" s="20">
         <v>1995</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D91" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D91" s="15">
         <v>1998</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D92" s="19">
+        <v>2712</v>
+      </c>
+      <c r="D92" s="20">
         <v>1998</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D93" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D93" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B94"/>
+        <v>2730</v>
+      </c>
       <c r="C94" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D94" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D94" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B95"/>
+        <v>2715</v>
+      </c>
       <c r="C95" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D95" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D95" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="27" t="s">
-        <v>2729</v>
+      <c r="A96" s="22" t="s">
+        <v>2731</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D96" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D96" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D97" s="14">
+        <v>2712</v>
+      </c>
+      <c r="D97" s="15">
         <v>2006</v>
       </c>
     </row>
-    <row r="99" ht="14.25">
-      <c r="B99"/>
-      <c r="D99"/>
-    </row>
+    <row r="99" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -30917,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -30931,13 +30931,13 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -30945,7 +30945,7 @@
     <row r="3" ht="14.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -30953,10 +30953,10 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -30964,742 +30964,742 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="11" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="11" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="11" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="11" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="11" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="11" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="B36" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="C36" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="B37" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="C37" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B38" t="s">
         <v>2797</v>
       </c>
-      <c r="B38" t="s">
-        <v>2795</v>
-      </c>
       <c r="C38" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>2798</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2799</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>2796</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="B41" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="8" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="8" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="8" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>2807</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>2805</v>
-      </c>
       <c r="C44" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="8" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="8" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="B47" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="8" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="8" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>2813</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>2811</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="8" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="C51" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" ht="14.25">
       <c r="C52" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="B53" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>2819</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>2817</v>
-      </c>
       <c r="C54" s="11" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="8" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="8" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="28" t="s">
-        <v>2823</v>
+      <c r="A57" s="23" t="s">
+        <v>2825</v>
       </c>
       <c r="B57" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="C57" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="B58" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B59" t="s">
         <v>2826</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="B60" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="B61" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="B62" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="13">
+      <c r="A63" s="14">
         <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="B64" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="C65" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>2835</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="B69" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
     </row>
   </sheetData>
@@ -31736,7 +31736,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -31753,154 +31753,154 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B2" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2252</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2310</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="B9" t="s">
-        <v>2310</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="B11" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="B17" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Movies SELECTED" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Podcasts" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movies SELECTED'!$A$1:$F$1010</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Movies!$A$1:$F$1008</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Documentaries!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movies SELECTED'!$A$1:$F$1010</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movies SELECTED'!$A$1:$F$1010</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Movies!$A$1:$F$1008</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Documentaries!$A$1:$E$1</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="2859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="2896">
   <si>
     <t>Title</t>
   </si>
@@ -6772,6 +6772,12 @@
     <t xml:space="preserve">George Butler</t>
   </si>
   <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif Kapadia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addio zio Tom</t>
   </si>
   <si>
@@ -6886,6 +6892,12 @@
     <t xml:space="preserve">The Trust Game</t>
   </si>
   <si>
+    <t xml:space="preserve">Journeys to the Edge of Consciousness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Harper</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Brinth of the Nation</t>
   </si>
   <si>
@@ -7126,16 +7138,115 @@
     <t xml:space="preserve">Linda Muolton Howe</t>
   </si>
   <si>
-    <t xml:space="preserve">Clash of Gods [History Channel]</t>
+    <t xml:space="preserve">Tolkien's The Lord of the Rings: A Catholic Worldview</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Beaumont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.K. Chesterton: The Apostle of Common Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovecraft: Fear of the Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank H. Woodward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Star: HR Gigers Welt</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belinda Sallin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodorowsky's Dune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Pavich</t>
+  </si>
+  <si>
+    <t>Crumb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terry Zwigoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin: A History of Nudity in the Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quest for the Lost Civilization</t>
   </si>
   <si>
     <t>History</t>
   </si>
   <si>
+    <t xml:space="preserve">Graham Hancock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld: Flooded Kingdoms of the Ice Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Scorsese Presents: The Saints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Scorsese</t>
+  </si>
+  <si>
     <t xml:space="preserve">S21 KHMER ROUGE KILLING MACHINE</t>
   </si>
   <si>
-    <t xml:space="preserve">Politics Unveiled - Anti-Masons, Etidorhpa, Occult Government, and the Puppet Show</t>
+    <t xml:space="preserve">My Name Is Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Cousins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheffs Table</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Israelism</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erin Axelman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Faulk / Alt Hype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sean Least</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Kroogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantean Gardens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Dyer</t>
   </si>
   <si>
     <t xml:space="preserve">All Pride MMA Events</t>
@@ -8221,6 +8332,9 @@
     <t>Manga</t>
   </si>
   <si>
+    <t>Uzumaki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Junji Ito</t>
   </si>
   <si>
@@ -8437,6 +8551,9 @@
     <t xml:space="preserve">Moebius &amp; Alejandro Jodorowsky</t>
   </si>
   <si>
+    <t xml:space="preserve">Graphic Novel</t>
+  </si>
+  <si>
     <t>Arzach</t>
   </si>
   <si>
@@ -8470,57 +8587,57 @@
     <t xml:space="preserve">The Night</t>
   </si>
   <si>
+    <t xml:space="preserve">Metal Hurtlant</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Magazines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Metal (1977-2022)    </t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:4eddadf7ed70f2a13024489d5f56badc4b24d944&amp;dn=Heavy+Metal+(1977-2022)&amp;tr=udp://tracker.openbittorrent.com:80&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic Illustrated</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Watchmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V for Vendetta</t>
+  </si>
+  <si>
+    <t>Promethea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The League of Extraordinary Gentlemen</t>
+  </si>
+  <si>
+    <t>Ronin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fortaleza Móvel e o Mundo Subterrâneo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ricardo Barreiro e Enrique Alcatena</t>
   </si>
   <si>
-    <t xml:space="preserve">Metal Hurtlant</t>
-  </si>
-  <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>Magazines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Metal (1977-2022)    </t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:4eddadf7ed70f2a13024489d5f56badc4b24d944&amp;dn=Heavy+Metal+(1977-2022)&amp;tr=udp://tracker.openbittorrent.com:80&amp;tr=udp://tracker.opentrackr.org:1337/announce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epic Illustrated</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Watchmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V for Vendetta</t>
-  </si>
-  <si>
-    <t>Promethea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Hell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The League of Extraordinary Gentlemen</t>
-  </si>
-  <si>
-    <t>Ronin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank Miller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Fortaleza Móvel e o Mundo Subterrâneo</t>
-  </si>
-  <si>
     <t>Den</t>
   </si>
   <si>
@@ -8533,9 +8650,6 @@
     <t xml:space="preserve">Creepy Presents Richard Corben</t>
   </si>
   <si>
-    <t xml:space="preserve">The Adventures of Yrris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Milo Manara</t>
   </si>
   <si>
@@ -8549,9 +8663,6 @@
   </si>
   <si>
     <t xml:space="preserve">Me ne Frego Podcast</t>
-  </si>
-  <si>
-    <t>Politics</t>
   </si>
   <si>
     <t>Parabellum</t>
@@ -8704,7 +8815,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8729,6 +8840,10 @@
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -34098,7 +34213,7 @@
         <v>2214</v>
       </c>
       <c r="B996" s="1" t="str">
-        <f t="shared" ref="B996:B997" si="17">C996</f>
+        <f t="shared" ref="B996:B1008" si="17">C996</f>
         <v xml:space="preserve">Woody Allen</v>
       </c>
       <c r="C996" s="1" t="s">
@@ -34134,7 +34249,7 @@
         <v>2219</v>
       </c>
       <c r="B998" s="1" t="str">
-        <f t="shared" ref="B998:B1008" si="18">C998</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C998" s="1" t="s">
@@ -34152,7 +34267,7 @@
         <v>2221</v>
       </c>
       <c r="B999" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C999" s="1" t="s">
@@ -34170,7 +34285,7 @@
         <v>2223</v>
       </c>
       <c r="B1000" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C1000" s="1" t="s">
@@ -34188,7 +34303,7 @@
         <v>2225</v>
       </c>
       <c r="B1001" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C1001" s="1" t="s">
@@ -34206,7 +34321,7 @@
         <v>2227</v>
       </c>
       <c r="B1002" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C1002" s="1" t="s">
@@ -34224,7 +34339,7 @@
         <v>2229</v>
       </c>
       <c r="B1003" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C1003" s="1" t="s">
@@ -34242,7 +34357,7 @@
         <v>2231</v>
       </c>
       <c r="B1004" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Yasujiro Ozu + Kenji Mizoguchu</v>
       </c>
       <c r="C1004" s="1" t="s">
@@ -34260,7 +34375,7 @@
         <v>2233</v>
       </c>
       <c r="B1005" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Zhang Yimou</v>
       </c>
       <c r="C1005" s="1" t="s">
@@ -34278,7 +34393,7 @@
         <v>2236</v>
       </c>
       <c r="B1006" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Zhang Yimou</v>
       </c>
       <c r="C1006" s="1" t="s">
@@ -34296,7 +34411,7 @@
         <v>2238</v>
       </c>
       <c r="B1007" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Zhang Yimou</v>
       </c>
       <c r="C1007" s="1" t="s">
@@ -34314,7 +34429,7 @@
         <v>2240</v>
       </c>
       <c r="B1008" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Zhang Yimou</v>
       </c>
       <c r="C1008" s="1" t="s">
@@ -34350,7 +34465,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -34402,79 +34517,79 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>2247</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C4" t="s">
         <v>2248</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="8" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>2250</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>2248</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="8" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>2251</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2249</v>
-      </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="10" t="s">
-        <v>2252</v>
+      <c r="A7" s="8" t="s">
+        <v>2253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2248</v>
+      <c r="A8" s="10" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2250</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B9" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B10" t="s">
         <v>2257</v>
       </c>
-      <c r="B10" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>2258</v>
       </c>
     </row>
@@ -34482,8 +34597,8 @@
       <c r="A11" t="s">
         <v>2259</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>2255</v>
+      <c r="B11" t="s">
+        <v>2257</v>
       </c>
       <c r="C11" t="s">
         <v>2260</v>
@@ -34494,108 +34609,108 @@
         <v>2261</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2255</v>
+        <v>2257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2262</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C13" s="11" t="s">
         <v>2263</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2257</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
         <v>2264</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>2265</v>
       </c>
-      <c r="D14" s="8"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
         <v>2266</v>
       </c>
-      <c r="B15" t="s">
-        <v>2255</v>
+      <c r="B15" s="11" t="s">
+        <v>2257</v>
       </c>
       <c r="C15" t="s">
         <v>2267</v>
       </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>2268</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C16" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>2270</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C17" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="D17" s="8"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>2272</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="C18" t="s">
         <v>2273</v>
       </c>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>2274</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C19" t="s">
         <v>2275</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B20" t="s">
         <v>2277</v>
       </c>
-      <c r="B20" t="s">
-        <v>2275</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>2278</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -34603,9 +34718,9 @@
         <v>2280</v>
       </c>
       <c r="B22" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C22" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>2281</v>
       </c>
     </row>
@@ -34614,7 +34729,7 @@
         <v>2282</v>
       </c>
       <c r="B23" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="C23" t="s">
         <v>2283</v>
@@ -34624,56 +34739,53 @@
       <c r="A24" t="s">
         <v>2284</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>2283</v>
+      <c r="B24" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2285</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>2285</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>2287</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C26" t="s">
         <v>2288</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>2289</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>2290</v>
       </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>2291</v>
       </c>
-      <c r="B28" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="11" t="s">
         <v>2290</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="11" t="s">
         <v>2292</v>
       </c>
     </row>
@@ -34681,8 +34793,8 @@
       <c r="A29" t="s">
         <v>2293</v>
       </c>
-      <c r="B29" t="s">
-        <v>2286</v>
+      <c r="B29" s="11" t="s">
+        <v>2290</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>2294</v>
@@ -34693,76 +34805,79 @@
         <v>2295</v>
       </c>
       <c r="B30" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>2258</v>
+        <v>2290</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B31" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2297</v>
+        <v>2290</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>2298</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="B32" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>2297</v>
+        <v>2290</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>2260</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="B33" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="C33" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>2301</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B35" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="C35" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B36" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="C36" t="s">
-        <v>2305</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="37" ht="14.25">
@@ -34770,303 +34885,303 @@
         <v>2306</v>
       </c>
       <c r="B37" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C37" t="s">
         <v>2307</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
         <v>2308</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C39" t="s">
         <v>2307</v>
       </c>
-      <c r="C38" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="8" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D39" s="8"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>2311</v>
       </c>
-      <c r="B40" t="s">
-        <v>2312</v>
-      </c>
       <c r="C40" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>2307</v>
+      </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C41" t="s">
         <v>2314</v>
       </c>
-      <c r="B41" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2316</v>
-      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C42" t="s">
         <v>2317</v>
       </c>
-      <c r="B42" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="8" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>2319</v>
       </c>
-      <c r="B43" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>2290</v>
+      <c r="C43" t="s">
+        <v>2320</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B44" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C44" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D44" s="8"/>
+        <v>2322</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="8" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>2315</v>
+      <c r="A45" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2319</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D45" s="8"/>
+        <v>2294</v>
+      </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="8" t="s">
-        <v>2323</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>2321</v>
+      <c r="A46" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2325</v>
       </c>
       <c r="D46" s="8"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="8" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D47" s="8"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>2325</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>2321</v>
       </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="8" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D49" s="8"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="8" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="8" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="8" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="8" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D53" s="8"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="8" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D54" s="8"/>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="8" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D55" s="8"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="8" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D56" s="8"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="8" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="8" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2337</v>
+      <c r="A59" s="8" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2325</v>
       </c>
       <c r="D59" s="8"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" t="s">
-        <v>2338</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2337</v>
-      </c>
+      <c r="A60" s="8" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>2315</v>
+        <v>2340</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2319</v>
       </c>
       <c r="C61" t="s">
-        <v>2340</v>
-      </c>
+        <v>2341</v>
+      </c>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C62" t="s">
         <v>2341</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -35074,70 +35189,70 @@
         <v>2343</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>2342</v>
+        <v>2319</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2344</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>2342</v>
+        <v>2319</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C65" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>2346</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2315</v>
+        <v>2348</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2315</v>
+        <v>2349</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2350</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="B68" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2350</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B69" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2352</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -35145,72 +35260,235 @@
         <v>2353</v>
       </c>
       <c r="B70" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C70" t="s">
         <v>2354</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C71" t="s">
         <v>2356</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>2354</v>
-      </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" t="s">
         <v>2357</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>2354</v>
+      <c r="B72" t="s">
+        <v>2358</v>
       </c>
       <c r="C72" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B73" t="s">
         <v>2360</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" s="11" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="8" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="A74" t="s">
+      <c r="B74" s="11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C74" t="s">
         <v>2362</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C75" t="s">
         <v>2365</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="76" ht="14.25">
-      <c r="A76" s="8" t="s">
+      <c r="B76" t="s">
         <v>2367</v>
       </c>
-      <c r="B76" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25"/>
-    <row r="86" ht="14.25"/>
-    <row r="94" ht="14.25"/>
+      <c r="C76" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="12" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="8" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <hyperlinks>
@@ -35256,11 +35534,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" t="s">
-        <v>2368</v>
-      </c>
-    </row>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -35299,296 +35604,296 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2369</v>
+        <v>2406</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>2370</v>
+        <v>2407</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2371</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2372</v>
+        <v>2409</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2370</v>
+        <v>2407</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>2373</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2374</v>
+        <v>2411</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2370</v>
+        <v>2407</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>2375</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2376</v>
+        <v>2413</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2378</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2379</v>
+        <v>2416</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>2380</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2381</v>
+        <v>2418</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2382</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2383</v>
+        <v>2420</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2384</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2385</v>
+        <v>2422</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2386</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2387</v>
+        <v>2424</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2388</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2389</v>
+        <v>2426</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2391</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2392</v>
+        <v>2429</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2393</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2394</v>
+        <v>2431</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2395</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2396</v>
+        <v>2433</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2397</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2398</v>
+        <v>2435</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2399</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2400</v>
+        <v>2437</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2401</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2402</v>
+        <v>2439</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2403</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2404</v>
+        <v>2441</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2405</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2406</v>
+        <v>2443</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2407</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2408</v>
+        <v>2445</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2409</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2410</v>
+        <v>2447</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2411</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2412</v>
+        <v>2449</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2413</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2414</v>
+        <v>2451</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2415</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2416</v>
+        <v>2453</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2417</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2418</v>
+        <v>2455</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2419</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2420</v>
+        <v>2457</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2421</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2422</v>
+        <v>2459</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2390</v>
+        <v>2427</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2423</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2424</v>
+        <v>2461</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2425</v>
+        <v>2462</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>2244</v>
@@ -35596,838 +35901,838 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2426</v>
+        <v>2463</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2428</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2429</v>
+        <v>2466</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2430</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2431</v>
+        <v>2468</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2432</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2433</v>
+        <v>2470</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2434</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2435</v>
+        <v>2472</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2436</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2437</v>
+        <v>2474</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2438</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2439</v>
+        <v>2476</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2440</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2441</v>
+        <v>2478</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2442</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2443</v>
+        <v>2480</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2427</v>
+        <v>2464</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2444</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2445</v>
+        <v>2482</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2447</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2448</v>
+        <v>2485</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2449</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2450</v>
+        <v>2487</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2451</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2452</v>
+        <v>2489</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2453</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2454</v>
+        <v>2491</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2455</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2456</v>
+        <v>2493</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2457</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2458</v>
+        <v>2495</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2459</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2460</v>
+        <v>2497</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2461</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2462</v>
+        <v>2499</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>2446</v>
+        <v>2483</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2463</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2464</v>
+        <v>2501</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>2465</v>
+        <v>2502</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2466</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2467</v>
+        <v>2504</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2469</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2470</v>
+        <v>2507</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2471</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2472</v>
+        <v>2509</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2473</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2474</v>
+        <v>2511</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2475</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2476</v>
+        <v>2513</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2477</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2478</v>
+        <v>2515</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2468</v>
+        <v>2505</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2479</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2480</v>
+        <v>2517</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2482</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2483</v>
+        <v>2520</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2484</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2485</v>
+        <v>2522</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2486</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2487</v>
+        <v>2524</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2488</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2489</v>
+        <v>2526</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2490</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2491</v>
+        <v>2528</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2492</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2493</v>
+        <v>2530</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2494</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2495</v>
+        <v>2532</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2496</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2497</v>
+        <v>2534</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2498</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2499</v>
+        <v>2536</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2500</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2501</v>
+        <v>2538</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2502</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2503</v>
+        <v>2540</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2504</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2505</v>
+        <v>2542</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2506</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2507</v>
+        <v>2544</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2508</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2509</v>
+        <v>2546</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2510</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2511</v>
+        <v>2548</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2512</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2513</v>
+        <v>2550</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2514</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2515</v>
+        <v>2552</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2516</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2517</v>
+        <v>2554</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2518</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2519</v>
+        <v>2556</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>2520</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2521</v>
+        <v>2558</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>2522</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2523</v>
+        <v>2560</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>2524</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2525</v>
+        <v>2562</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2526</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2527</v>
+        <v>2564</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2528</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2529</v>
+        <v>2566</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2530</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2531</v>
+        <v>2568</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2532</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2533</v>
+        <v>2570</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2534</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2535</v>
+        <v>2572</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>2536</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2537</v>
+        <v>2574</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2538</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2539</v>
+        <v>2576</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2540</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2541</v>
+        <v>2578</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2542</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2543</v>
+        <v>2580</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2544</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2545</v>
+        <v>2582</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2546</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2547</v>
+        <v>2584</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2548</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2549</v>
+        <v>2586</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>2550</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2551</v>
+        <v>2588</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>2552</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2553</v>
+        <v>2590</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>2554</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2555</v>
+        <v>2592</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>2556</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2557</v>
+        <v>2594</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>2558</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2559</v>
+        <v>2596</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>2560</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2561</v>
+        <v>2598</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>2562</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2563</v>
+        <v>2600</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>2564</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2565</v>
+        <v>2602</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>2566</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2567</v>
+        <v>2604</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>2568</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2569</v>
+        <v>2606</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>2570</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2571</v>
+        <v>2608</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>2572</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2573</v>
+        <v>2610</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>2574</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2575</v>
+        <v>2612</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>2576</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2577</v>
+        <v>2614</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>2481</v>
+        <v>2518</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>2578</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2579</v>
+        <v>2616</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>2580</v>
+        <v>2617</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>2581</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2582</v>
+        <v>2619</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>2580</v>
+        <v>2617</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>2583</v>
+        <v>2620</v>
       </c>
     </row>
   </sheetData>
@@ -36450,146 +36755,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="12" width="46.7109375"/>
-    <col customWidth="1" min="2" max="2" style="13" width="29.7109375"/>
-    <col customWidth="1" min="3" max="3" style="13" width="13.8515625"/>
-    <col min="4" max="4" style="13" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="14" width="46.7109375"/>
+    <col customWidth="1" min="2" max="2" style="15" width="29.7109375"/>
+    <col customWidth="1" min="3" max="3" style="15" width="13.8515625"/>
+    <col min="4" max="4" style="15" width="9.140625"/>
     <col customWidth="1" min="5" max="5" width="21.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="16" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2584</v>
+      <c r="D1" s="16" t="s">
+        <v>2621</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>2585</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>2586</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="A2" s="14" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C2" s="15">
         <v>1969</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>1973</v>
       </c>
       <c r="E2" t="s">
-        <v>2587</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>2588</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2586</v>
+      <c r="A3" s="14" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2623</v>
       </c>
       <c r="E3" t="s">
-        <v>2589</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>2590</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>2586</v>
+      <c r="A4" s="14" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2623</v>
       </c>
       <c r="E4" t="s">
-        <v>2591</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>2586</v>
+      <c r="A5" s="14" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>2586</v>
+      <c r="A6" s="14" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2586</v>
+      <c r="A7" s="14" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>2586</v>
+      <c r="A8" s="14" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>2586</v>
+      <c r="A9" s="14" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>2586</v>
+      <c r="A10" s="14" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="12" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>2586</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="14" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C11" s="15">
         <v>1995</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>1999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="A12" s="14" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="12" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>2586</v>
+      <c r="A13" s="14" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2623</v>
       </c>
     </row>
   </sheetData>
@@ -36638,1324 +36943,1324 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>2602</v>
+        <v>2638</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2639</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D2" s="18">
+        <v>2640</v>
+      </c>
+      <c r="D2" s="20">
         <v>1968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2604</v>
+        <v>2641</v>
       </c>
       <c r="B3" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D3" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D3" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>2606</v>
+        <v>2643</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C4" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D4" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D4" s="15">
         <v>1977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>2607</v>
+        <v>2644</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D5" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D5" s="15">
         <v>1970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>2608</v>
+        <v>2645</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D6" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D6" s="15">
         <v>1969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>2609</v>
+        <v>2646</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D7" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D7" s="15">
         <v>1985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>2610</v>
+        <v>2647</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2605</v>
+        <v>2642</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D8" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D8" s="15">
         <v>1991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2611</v>
+        <v>2648</v>
       </c>
       <c r="B9" t="s">
-        <v>2612</v>
+        <v>2649</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D9" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D9" s="15">
         <v>1981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2613</v>
+        <v>2650</v>
       </c>
       <c r="B10" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D10" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D10" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>2615</v>
+        <v>2652</v>
       </c>
       <c r="B11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D11" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D11" s="15">
         <v>1972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>2616</v>
+        <v>2653</v>
       </c>
       <c r="B12" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C12" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D12" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D12" s="15">
         <v>1974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>2617</v>
+        <v>2654</v>
       </c>
       <c r="B13" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D13" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D13" s="15">
         <v>1978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>2618</v>
+        <v>2655</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D14" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D14" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>2619</v>
+        <v>2656</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D15" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D15" s="15">
         <v>1975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>2620</v>
+        <v>2657</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D16" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D16" s="15">
         <v>1977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>2621</v>
+        <v>2658</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D17" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D17" s="15">
         <v>1981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>2622</v>
+        <v>2659</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D18" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D18" s="15">
         <v>1992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>2623</v>
+        <v>2660</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D19" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D19" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>2624</v>
+        <v>2661</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D20" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D20" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2625</v>
+        <v>2662</v>
       </c>
       <c r="B21" t="s">
-        <v>2626</v>
+        <v>2663</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D21" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D21" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2627</v>
+        <v>2664</v>
       </c>
       <c r="B22" t="s">
-        <v>2628</v>
+        <v>2665</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D22" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D22" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2629</v>
+        <v>2666</v>
       </c>
       <c r="B23" t="s">
-        <v>2630</v>
+        <v>2667</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D23" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D23" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2631</v>
+        <v>2668</v>
       </c>
       <c r="B24" t="s">
-        <v>2630</v>
+        <v>2667</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D24" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D24" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>2632</v>
+        <v>2669</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2630</v>
+        <v>2667</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D25" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D25" s="15">
         <v>1973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>2633</v>
+        <v>2670</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2630</v>
+        <v>2667</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D26" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D26" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2634</v>
+        <v>2671</v>
       </c>
       <c r="B27" t="s">
-        <v>2635</v>
+        <v>2672</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D27" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D27" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>2636</v>
+        <v>2673</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2635</v>
+        <v>2672</v>
       </c>
       <c r="C28" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D28" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D28" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>2637</v>
+        <v>2674</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2635</v>
+        <v>2672</v>
       </c>
       <c r="C29" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D29" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D29" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>2638</v>
+        <v>2675</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D30" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D30" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>2640</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="D31" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>2641</v>
+        <v>2678</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D32" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D32" s="15">
         <v>1989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2642</v>
+        <v>2679</v>
       </c>
       <c r="B33" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D33" s="18">
+        <v>2640</v>
+      </c>
+      <c r="D33" s="20">
         <v>1985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>2643</v>
+        <v>2680</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C34" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D34" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D34" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2644</v>
+        <v>2681</v>
       </c>
       <c r="B35" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D35" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D35" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>2645</v>
+        <v>2682</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="C36" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D36" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D36" s="15">
         <v>2008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2646</v>
+        <v>2683</v>
       </c>
       <c r="B37" t="s">
-        <v>2647</v>
+        <v>2684</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D37" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D37" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>2648</v>
+        <v>2685</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2647</v>
+        <v>2684</v>
       </c>
       <c r="C38" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D38" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D38" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2649</v>
+        <v>2686</v>
       </c>
       <c r="B39" t="s">
-        <v>2650</v>
+        <v>2687</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D39" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D39" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>2651</v>
+        <v>2688</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2650</v>
+        <v>2687</v>
       </c>
       <c r="C40" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D40" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D40" s="15">
         <v>1990</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2652</v>
+        <v>2689</v>
       </c>
       <c r="B41" t="s">
-        <v>2653</v>
+        <v>2690</v>
       </c>
       <c r="C41" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D41" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D41" s="15">
         <v>1980</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>2654</v>
+        <v>2691</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2655</v>
+        <v>2692</v>
       </c>
       <c r="C42" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D42" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D42" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>2656</v>
+        <v>2693</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2657</v>
+        <v>2694</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D43" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D43" s="15">
         <v>1985</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>2658</v>
+        <v>2695</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D44" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D44" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>2660</v>
+        <v>2697</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D45" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D45" s="15">
         <v>1984</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>2661</v>
+        <v>2698</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D46" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D46" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>2662</v>
+        <v>2699</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D47" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D47" s="15">
         <v>1987</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>2663</v>
+        <v>2700</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D48" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D48" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>2664</v>
+        <v>2701</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D49" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D49" s="15">
         <v>1990</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>2665</v>
+        <v>2702</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D50" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D50" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>2666</v>
+        <v>2703</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D51" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D51" s="15">
         <v>2007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>2667</v>
+        <v>2704</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2657</v>
+        <v>2694</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D52" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D52" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>2668</v>
+        <v>2705</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D53" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D53" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>2670</v>
+        <v>2707</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D54" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D54" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>2671</v>
+        <v>2708</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D55" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D55" s="15">
         <v>1989</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>2672</v>
+        <v>2709</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D56" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D56" s="15">
         <v>1992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>2673</v>
+        <v>2710</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D57" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D57" s="15">
         <v>1995</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>2674</v>
+        <v>2711</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D58" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D58" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>2675</v>
+        <v>2712</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D59" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D59" s="15">
         <v>2001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>2676</v>
+        <v>2713</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D60" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D60" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>2677</v>
+        <v>2714</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D61" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D61" s="15">
         <v>2008</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>2678</v>
+        <v>2715</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D62" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D62" s="15">
         <v>2013</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>2679</v>
+        <v>2716</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2669</v>
+        <v>2706</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D63" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D63" s="15">
         <v>2023</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>2680</v>
+        <v>2717</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2681</v>
+        <v>2718</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D64" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D64" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>2682</v>
+        <v>2719</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2681</v>
+        <v>2718</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D65" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D65" s="15">
         <v>2011</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
-        <v>2683</v>
+        <v>2720</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2684</v>
+        <v>2721</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D66" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D66" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>2685</v>
+        <v>2722</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2684</v>
+        <v>2721</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D67" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D67" s="15">
         <v>1991</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>2686</v>
+        <v>2723</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2684</v>
+        <v>2721</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D68" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D68" s="15">
         <v>1994</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>2687</v>
+        <v>2724</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2684</v>
+        <v>2721</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D69" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D69" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>2688</v>
+        <v>2725</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2684</v>
+        <v>2721</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D70" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D70" s="15">
         <v>2013</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>2689</v>
+        <v>2726</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2690</v>
+        <v>2727</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D71" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D71" s="15">
         <v>2002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>2691</v>
+        <v>2728</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2692</v>
+        <v>2729</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D72" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D72" s="15">
         <v>2010</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>2693</v>
+        <v>2730</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2692</v>
+        <v>2729</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D73" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D73" s="15">
         <v>2014</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2694</v>
+        <v>2731</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2695</v>
+        <v>2732</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D74" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D74" s="15">
         <v>1999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>2696</v>
+        <v>2733</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2697</v>
+        <v>2734</v>
       </c>
       <c r="C75" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D75" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D75" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>2699</v>
+        <v>2735</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>2736</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D76" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D76" s="15">
         <v>1926</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>2700</v>
+        <v>2737</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2701</v>
+        <v>2738</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D77" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D77" s="15">
         <v>1986</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
-        <v>2702</v>
+        <v>2739</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2703</v>
+        <v>2740</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D78" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D78" s="15">
         <v>1982</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>2704</v>
+        <v>2741</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2705</v>
+        <v>2742</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D79" s="13">
+        <v>2640</v>
+      </c>
+      <c r="D79" s="15">
         <v>2015</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>2706</v>
+        <v>2743</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>2707</v>
+        <v>2744</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D80" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D80" s="15">
         <v>2007</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>2709</v>
+        <v>2746</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2709</v>
+        <v>2746</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D81" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D81" s="15">
         <v>2016</v>
       </c>
       <c r="E81" t="s">
-        <v>2710</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>2711</v>
+        <v>2748</v>
       </c>
       <c r="B82" t="s">
-        <v>2647</v>
+        <v>2684</v>
       </c>
       <c r="C82" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D82" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D82" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="8" t="s">
-        <v>2712</v>
+        <v>2749</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2614</v>
+        <v>2651</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D83" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D83" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>2714</v>
+        <v>2750</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>2751</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D84" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D84" s="15">
         <v>1997</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="11" t="s">
-        <v>2667</v>
+        <v>2704</v>
       </c>
       <c r="B85" t="s">
-        <v>2657</v>
+        <v>2694</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D85" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D85" s="15">
         <v>1984</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="8" t="s">
-        <v>2715</v>
+        <v>2752</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2716</v>
+        <v>2753</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D86" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D86" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>2717</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>2718</v>
+        <v>2754</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>2755</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D87" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D87" s="15">
         <v>1988</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2719</v>
+        <v>2756</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2720</v>
+        <v>2757</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D88" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D88" s="15">
         <v>1983</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>2721</v>
+        <v>2758</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2659</v>
+        <v>2696</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D89" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D89" s="15">
         <v>1993</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2722</v>
+        <v>2759</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D90" s="18">
+        <v>2745</v>
+      </c>
+      <c r="D90" s="20">
         <v>1995</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>2723</v>
+        <v>2760</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D91" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D91" s="15">
         <v>1998</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" t="s">
-        <v>2724</v>
+        <v>2761</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D92" s="18">
+        <v>2745</v>
+      </c>
+      <c r="D92" s="20">
         <v>1998</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" t="s">
-        <v>2725</v>
+        <v>2762</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D93" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D93" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2726</v>
+        <v>2763</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D94" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D94" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>2711</v>
+        <v>2748</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D95" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D95" s="15">
         <v>2004</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="20" t="s">
-        <v>2727</v>
+      <c r="A96" s="22" t="s">
+        <v>2764</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D96" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D96" s="15">
         <v>2006</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" t="s">
-        <v>2715</v>
+        <v>2752</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D97" s="13">
+        <v>2745</v>
+      </c>
+      <c r="D97" s="15">
         <v>2006</v>
       </c>
     </row>
@@ -37971,7 +38276,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -37988,7 +38293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2728</v>
+        <v>2765</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -38002,777 +38307,764 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>2634</v>
+        <v>2671</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2635</v>
+        <v>2672</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>2767</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>2768</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2766</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>2731</v>
+        <v>2769</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>2770</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2766</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2733</v>
+        <v>2771</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2734</v>
+        <v>2772</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2735</v>
+        <v>2773</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2736</v>
+        <v>2774</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2737</v>
+        <v>2775</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2738</v>
+        <v>2776</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2739</v>
+        <v>2777</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2725</v>
+        <v>2762</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="11" t="s">
-        <v>2729</v>
+        <v>2766</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2740</v>
+        <v>2778</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>2742</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2743</v>
+        <v>2781</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>2744</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2745</v>
+        <v>2783</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>2746</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2747</v>
+        <v>2785</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>2748</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2749</v>
+        <v>2787</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>2750</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2751</v>
+        <v>2789</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>2752</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2753</v>
+        <v>2791</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
-        <v>2741</v>
+        <v>2779</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>2754</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2755</v>
+        <v>2793</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>2757</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2758</v>
+        <v>2796</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>2759</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2760</v>
+        <v>2798</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>2761</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2762</v>
+        <v>2800</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>2763</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2764</v>
+        <v>2802</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>2765</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2766</v>
+        <v>2804</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>2767</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>2768</v>
+        <v>2806</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>2769</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>2770</v>
+        <v>2808</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="11" t="s">
-        <v>2756</v>
+        <v>2794</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>2771</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>2772</v>
+        <v>2810</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="11" t="s">
-        <v>2773</v>
+        <v>2811</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>2774</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>2775</v>
+        <v>2813</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="11" t="s">
-        <v>2773</v>
+        <v>2811</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>2776</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>2777</v>
+        <v>2815</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="11" t="s">
-        <v>2773</v>
+        <v>2811</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>2778</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>2779</v>
+        <v>2817</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="11" t="s">
-        <v>2773</v>
+        <v>2811</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>2780</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" t="s">
-        <v>2781</v>
+        <v>2819</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11" t="s">
-        <v>2782</v>
+        <v>2820</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>2783</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" t="s">
-        <v>2784</v>
+        <v>2822</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="11" t="s">
-        <v>2782</v>
+        <v>2820</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>2785</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>2786</v>
+        <v>2824</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="11" t="s">
-        <v>2782</v>
+        <v>2820</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>2787</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>2788</v>
+        <v>2826</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="11" t="s">
-        <v>2782</v>
+        <v>2820</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>2789</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>2790</v>
+        <v>2828</v>
       </c>
       <c r="B36" t="s">
-        <v>2791</v>
+        <v>2829</v>
       </c>
       <c r="C36" t="s">
-        <v>2782</v>
+        <v>2820</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" t="s">
-        <v>2792</v>
+        <v>2830</v>
       </c>
       <c r="B37" t="s">
-        <v>2793</v>
+        <v>2831</v>
       </c>
       <c r="C37" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>2795</v>
+        <v>2833</v>
       </c>
       <c r="B38" t="s">
-        <v>2793</v>
+        <v>2831</v>
       </c>
       <c r="C38" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" t="s">
-        <v>2796</v>
+        <v>2834</v>
       </c>
       <c r="B39" t="s">
-        <v>2797</v>
+        <v>2835</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" t="s">
-        <v>2798</v>
+        <v>2836</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2799</v>
+        <v>2837</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
-        <v>2800</v>
+        <v>2838</v>
       </c>
       <c r="B41" t="s">
-        <v>2801</v>
+        <v>2839</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2794</v>
+        <v>2840</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="8" t="s">
-        <v>2802</v>
+        <v>2841</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2803</v>
+        <v>2842</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2794</v>
+        <v>2840</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="8" t="s">
-        <v>2804</v>
+        <v>2843</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2803</v>
+        <v>2842</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="8" t="s">
-        <v>2805</v>
+        <v>2844</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2803</v>
+        <v>2842</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="8" t="s">
-        <v>2806</v>
+        <v>2845</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2803</v>
+        <v>2842</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="8" t="s">
-        <v>2807</v>
+        <v>2846</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2803</v>
+        <v>2842</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>2808</v>
+        <v>2847</v>
       </c>
       <c r="B47" t="s">
-        <v>2809</v>
+        <v>2848</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="8" t="s">
-        <v>2810</v>
+        <v>2849</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2809</v>
+        <v>2848</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="8" t="s">
-        <v>2811</v>
+        <v>2850</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2809</v>
+        <v>2848</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="8" t="s">
-        <v>2812</v>
+        <v>2851</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2809</v>
+        <v>2848</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2794</v>
+        <v>2832</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>2813</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2782</v>
-      </c>
-      <c r="D51" s="8"/>
+        <v>2852</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="C52" t="s">
-        <v>2782</v>
-      </c>
-      <c r="D52" s="8"/>
+      <c r="A52" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>2856</v>
+      </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2815</v>
+      <c r="A53" s="8" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2853</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2816</v>
+        <v>2854</v>
       </c>
       <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" t="s">
-        <v>2817</v>
+      <c r="A54" s="8" t="s">
+        <v>2858</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2815</v>
+        <v>2853</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2816</v>
+        <v>2854</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>2818</v>
-      </c>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="8" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>2815</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>2816</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="23" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="8" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>2815</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>2816</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="A56" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2860</v>
+      </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="21" t="s">
-        <v>2821</v>
+      <c r="A57" t="s">
+        <v>2862</v>
       </c>
       <c r="B57" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D57" s="8"/>
+        <v>2860</v>
+      </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" t="s">
-        <v>2823</v>
+        <v>2863</v>
       </c>
       <c r="B58" t="s">
-        <v>2822</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" t="s">
-        <v>2824</v>
+        <v>2864</v>
       </c>
       <c r="B59" t="s">
-        <v>2822</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" t="s">
-        <v>2825</v>
+        <v>2865</v>
       </c>
       <c r="B60" t="s">
-        <v>2822</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" t="s">
-        <v>2826</v>
+      <c r="A61" s="14">
+        <v>300</v>
       </c>
       <c r="B61" t="s">
-        <v>2822</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" t="s">
-        <v>2827</v>
+        <v>2867</v>
       </c>
       <c r="B62" t="s">
-        <v>2828</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="12">
-        <v>300</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2828</v>
+      <c r="A63" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2820</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2813</v>
+        <v>2871</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>2870</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" t="s">
-        <v>2830</v>
+        <v>2872</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2782</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="B69" t="s">
-        <v>2835</v>
-      </c>
-    </row>
+      <c r="B66" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -38807,7 +39099,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2836</v>
+        <v>2874</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -38824,154 +39116,154 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2837</v>
+        <v>2875</v>
       </c>
       <c r="B2" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2839</v>
+        <v>2877</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2840</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2841</v>
+        <v>2878</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2842</v>
+        <v>2879</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2843</v>
+        <v>2880</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2844</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2845</v>
+        <v>2882</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2840</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2846</v>
+        <v>2883</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2366</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2847</v>
+        <v>2884</v>
       </c>
       <c r="B9" t="s">
-        <v>2366</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2848</v>
+        <v>2885</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2849</v>
+        <v>2886</v>
       </c>
       <c r="B11" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2850</v>
+        <v>2887</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2844</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2851</v>
+        <v>2888</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2840</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2852</v>
+        <v>2889</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2853</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2854</v>
+        <v>2891</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2855</v>
+        <v>2892</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2849</v>
+        <v>2886</v>
       </c>
       <c r="B17" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2856</v>
+        <v>2893</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2838</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2857</v>
+        <v>2894</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2840</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2858</v>
+        <v>2895</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2840</v>
+        <v>2398</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Movies SELECTED" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="2953">
   <si>
     <t>Title</t>
   </si>
@@ -7355,6 +7355,72 @@
   </si>
   <si>
     <t xml:space="preserve">Shock Docs Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killing, the Czech Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Vondrácek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Art of Killing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Oppenheimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyberpunk (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cyberpunk Educator (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Internet's Own Boy: The Story of Aaron Swartz (2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RiP: A Remix Manifesto (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPB AFK: The Pirate Bay Away from Keyboard (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Net - The Unabomber, LSD and the Internet (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackers Wanted aka Can You Hack It ( (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York City Hackers (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We Steal Secrets: The Story of WikiLeaks (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizenfour (2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and Conditions May Apply (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Watched Over by Machines of Loving Grace (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackers: Wizards of the Electronic Age (1984)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Code (2001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolution OS (2001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBS: The Documentary (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Lamp (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Bedrooms to Billions (2014)</t>
   </si>
   <si>
     <t xml:space="preserve">To Archive</t>
@@ -32206,7 +32272,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -33391,6 +33457,120 @@
         <v>2440</v>
       </c>
     </row>
+    <row r="112" ht="14.25">
+      <c r="A112" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25"/>
+    <row r="134" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <hyperlinks>
@@ -33439,37 +33619,37 @@
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>2441</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>2442</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2443</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2444</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2445</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2446</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2447</v>
+        <v>2469</v>
       </c>
     </row>
   </sheetData>
@@ -33510,296 +33690,296 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2448</v>
+        <v>2470</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>2449</v>
+        <v>2471</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>2450</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2451</v>
+        <v>2473</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2449</v>
+        <v>2471</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>2452</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2453</v>
+        <v>2475</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2449</v>
+        <v>2471</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>2454</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2455</v>
+        <v>2477</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2457</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2458</v>
+        <v>2480</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>2459</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2460</v>
+        <v>2482</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2461</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2462</v>
+        <v>2484</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2463</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2465</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2466</v>
+        <v>2488</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2456</v>
+        <v>2478</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2467</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2468</v>
+        <v>2490</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2470</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2471</v>
+        <v>2493</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2472</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2473</v>
+        <v>2495</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2474</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2475</v>
+        <v>2497</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2476</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2477</v>
+        <v>2499</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2478</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2479</v>
+        <v>2501</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2480</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2481</v>
+        <v>2503</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2482</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2483</v>
+        <v>2505</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2484</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2485</v>
+        <v>2507</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2486</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2487</v>
+        <v>2509</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2488</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2489</v>
+        <v>2511</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2490</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>2491</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>2469</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>2492</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2493</v>
+        <v>2515</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2494</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2495</v>
+        <v>2517</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2496</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2497</v>
+        <v>2519</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2498</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2499</v>
+        <v>2521</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2500</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2501</v>
+        <v>2523</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2469</v>
+        <v>2491</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2502</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2503</v>
+        <v>2525</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2504</v>
+        <v>2526</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>2257</v>
@@ -33807,838 +33987,838 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2505</v>
+        <v>2527</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2507</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2508</v>
+        <v>2530</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2509</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2510</v>
+        <v>2532</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2511</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2512</v>
+        <v>2534</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2513</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2514</v>
+        <v>2536</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2515</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2516</v>
+        <v>2538</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2517</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2518</v>
+        <v>2540</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2519</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2520</v>
+        <v>2542</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2521</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2522</v>
+        <v>2544</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2506</v>
+        <v>2528</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2523</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2524</v>
+        <v>2546</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2526</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2527</v>
+        <v>2549</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2528</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2529</v>
+        <v>2551</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2530</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2531</v>
+        <v>2553</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2532</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2533</v>
+        <v>2555</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2534</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2535</v>
+        <v>2557</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2536</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2537</v>
+        <v>2559</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2538</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2539</v>
+        <v>2561</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2540</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2541</v>
+        <v>2563</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>2525</v>
+        <v>2547</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2542</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2543</v>
+        <v>2565</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>2544</v>
+        <v>2566</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2545</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2546</v>
+        <v>2568</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2548</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2549</v>
+        <v>2571</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2550</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2551</v>
+        <v>2573</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2552</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2553</v>
+        <v>2575</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2554</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2555</v>
+        <v>2577</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2556</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2557</v>
+        <v>2579</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2547</v>
+        <v>2569</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2558</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2559</v>
+        <v>2581</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2561</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2562</v>
+        <v>2584</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2563</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2564</v>
+        <v>2586</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2565</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2566</v>
+        <v>2588</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2567</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2568</v>
+        <v>2590</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2569</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2570</v>
+        <v>2592</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2571</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2572</v>
+        <v>2594</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2573</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2574</v>
+        <v>2596</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2575</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2576</v>
+        <v>2598</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2577</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2578</v>
+        <v>2600</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2579</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2580</v>
+        <v>2602</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2581</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>2582</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>2560</v>
-      </c>
       <c r="C65" s="11" t="s">
-        <v>2583</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2584</v>
+        <v>2606</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2585</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2586</v>
+        <v>2608</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2587</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2588</v>
+        <v>2610</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2589</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2590</v>
+        <v>2612</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2591</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2592</v>
+        <v>2614</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2593</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2594</v>
+        <v>2616</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2595</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2596</v>
+        <v>2618</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2597</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2598</v>
+        <v>2620</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>2599</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2600</v>
+        <v>2622</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>2601</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2602</v>
+        <v>2624</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>2603</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2604</v>
+        <v>2626</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2605</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2606</v>
+        <v>2628</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2607</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2608</v>
+        <v>2630</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2609</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2610</v>
+        <v>2632</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2611</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2612</v>
+        <v>2634</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2613</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2614</v>
+        <v>2636</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>2615</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2616</v>
+        <v>2638</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2617</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2618</v>
+        <v>2640</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2619</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2620</v>
+        <v>2642</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2621</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2622</v>
+        <v>2644</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2623</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2624</v>
+        <v>2646</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2625</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2626</v>
+        <v>2648</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2627</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2628</v>
+        <v>2650</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>2629</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2630</v>
+        <v>2652</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>2631</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2632</v>
+        <v>2654</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>2633</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2634</v>
+        <v>2656</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>2635</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2636</v>
+        <v>2658</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>2637</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2638</v>
+        <v>2660</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>2639</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2640</v>
+        <v>2662</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>2641</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2642</v>
+        <v>2664</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>2643</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2644</v>
+        <v>2666</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>2645</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2646</v>
+        <v>2668</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>2647</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2648</v>
+        <v>2670</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>2649</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2650</v>
+        <v>2672</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>2651</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2652</v>
+        <v>2674</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>2653</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2654</v>
+        <v>2676</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>2655</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2656</v>
+        <v>2678</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>2657</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2658</v>
+        <v>2680</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>2659</v>
+        <v>2681</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>2660</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2661</v>
+        <v>2683</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>2659</v>
+        <v>2681</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>2662</v>
+        <v>2684</v>
       </c>
     </row>
   </sheetData>
@@ -34679,7 +34859,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>2663</v>
+        <v>2685</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -34687,10 +34867,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>2664</v>
+        <v>2686</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C2" s="13">
         <v>1969</v>
@@ -34699,41 +34879,41 @@
         <v>1973</v>
       </c>
       <c r="E2" t="s">
-        <v>2666</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>2667</v>
+        <v>2689</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>2668</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>2669</v>
+        <v>2691</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>2670</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>2671</v>
+        <v>2693</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -34741,10 +34921,10 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>2672</v>
+        <v>2694</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -34752,10 +34932,10 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>2673</v>
+        <v>2695</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -34763,10 +34943,10 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>2674</v>
+        <v>2696</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -34774,10 +34954,10 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>2675</v>
+        <v>2697</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -34785,10 +34965,10 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>2676</v>
+        <v>2698</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -34796,10 +34976,10 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="12" t="s">
-        <v>2677</v>
+        <v>2699</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C11" s="16">
         <v>1995</v>
@@ -34811,10 +34991,10 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>2678</v>
+        <v>2700</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -34822,10 +35002,10 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="12" t="s">
-        <v>2679</v>
+        <v>2701</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -34833,10 +35013,10 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="12" t="s">
-        <v>2680</v>
+        <v>2702</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -34844,10 +35024,10 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="12" t="s">
-        <v>2681</v>
+        <v>2703</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -34855,10 +35035,10 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="12" t="s">
-        <v>2682</v>
+        <v>2704</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -34866,10 +35046,10 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="12" t="s">
-        <v>2683</v>
+        <v>2705</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -34877,7 +35057,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="13" t="s">
-        <v>2665</v>
+        <v>2687</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -34949,13 +35129,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2684</v>
+        <v>2706</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>2685</v>
+        <v>2707</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D2" s="20">
         <v>1968</v>
@@ -34963,13 +35143,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2687</v>
+        <v>2709</v>
       </c>
       <c r="B3" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D3" s="13">
         <v>1973</v>
@@ -34977,13 +35157,13 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>2689</v>
+        <v>2711</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C4" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D4" s="13">
         <v>1977</v>
@@ -34991,13 +35171,13 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>2690</v>
+        <v>2712</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D5" s="13">
         <v>1970</v>
@@ -35005,13 +35185,13 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>2691</v>
+        <v>2713</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D6" s="13">
         <v>1969</v>
@@ -35019,13 +35199,13 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>2692</v>
+        <v>2714</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D7" s="13">
         <v>1985</v>
@@ -35033,13 +35213,13 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>2693</v>
+        <v>2715</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2688</v>
+        <v>2710</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D8" s="13">
         <v>1991</v>
@@ -35047,13 +35227,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2694</v>
+        <v>2716</v>
       </c>
       <c r="B9" t="s">
-        <v>2695</v>
+        <v>2717</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D9" s="13">
         <v>1981</v>
@@ -35061,13 +35241,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2696</v>
+        <v>2718</v>
       </c>
       <c r="B10" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D10" s="13">
         <v>1983</v>
@@ -35075,13 +35255,13 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>2698</v>
+        <v>2720</v>
       </c>
       <c r="B11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D11" s="13">
         <v>1972</v>
@@ -35089,13 +35269,13 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>2699</v>
+        <v>2721</v>
       </c>
       <c r="B12" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C12" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D12" s="13">
         <v>1974</v>
@@ -35103,13 +35283,13 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>2700</v>
+        <v>2722</v>
       </c>
       <c r="B13" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D13" s="13">
         <v>1978</v>
@@ -35117,13 +35297,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>2701</v>
+        <v>2723</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D14" s="13">
         <v>1973</v>
@@ -35131,13 +35311,13 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>2702</v>
+        <v>2724</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D15" s="13">
         <v>1975</v>
@@ -35145,13 +35325,13 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>2703</v>
+        <v>2725</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D16" s="13">
         <v>1977</v>
@@ -35159,13 +35339,13 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>2704</v>
+        <v>2726</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D17" s="13">
         <v>1981</v>
@@ -35173,13 +35353,13 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>2705</v>
+        <v>2727</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D18" s="13">
         <v>1992</v>
@@ -35187,13 +35367,13 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>2706</v>
+        <v>2728</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D19" s="13">
         <v>1982</v>
@@ -35201,13 +35381,13 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>2707</v>
+        <v>2729</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D20" s="13">
         <v>1995</v>
@@ -35215,13 +35395,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>2708</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2686</v>
       </c>
       <c r="D21" s="13">
         <v>1983</v>
@@ -35229,13 +35409,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2710</v>
+        <v>2732</v>
       </c>
       <c r="B22" t="s">
-        <v>2711</v>
+        <v>2733</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D22" s="13">
         <v>1983</v>
@@ -35243,13 +35423,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2712</v>
+        <v>2734</v>
       </c>
       <c r="B23" t="s">
-        <v>2713</v>
+        <v>2735</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D23" s="13">
         <v>1987</v>
@@ -35257,13 +35437,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2714</v>
+        <v>2736</v>
       </c>
       <c r="B24" t="s">
-        <v>2713</v>
+        <v>2735</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D24" s="13">
         <v>1988</v>
@@ -35271,13 +35451,13 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>2715</v>
+        <v>2737</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2713</v>
+        <v>2735</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D25" s="13">
         <v>1973</v>
@@ -35285,13 +35465,13 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>2716</v>
+        <v>2738</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2713</v>
+        <v>2735</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D26" s="13">
         <v>1982</v>
@@ -35299,13 +35479,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2717</v>
+        <v>2739</v>
       </c>
       <c r="B27" t="s">
-        <v>2718</v>
+        <v>2740</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D27" s="13">
         <v>1988</v>
@@ -35313,13 +35493,13 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>2719</v>
+        <v>2741</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2718</v>
+        <v>2740</v>
       </c>
       <c r="C28" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D28" s="13">
         <v>2004</v>
@@ -35327,13 +35507,13 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>2720</v>
+        <v>2742</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2718</v>
+        <v>2740</v>
       </c>
       <c r="C29" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D29" s="13">
         <v>2001</v>
@@ -35341,13 +35521,13 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>2721</v>
+        <v>2743</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D30" s="13">
         <v>1983</v>
@@ -35355,13 +35535,13 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>2723</v>
+        <v>2745</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D31" s="13">
         <v>1993</v>
@@ -35369,13 +35549,13 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>2724</v>
+        <v>2746</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D32" s="13">
         <v>1989</v>
@@ -35383,13 +35563,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2725</v>
+        <v>2747</v>
       </c>
       <c r="B33" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D33" s="20">
         <v>1985</v>
@@ -35397,13 +35577,13 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>2726</v>
+        <v>2748</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C34" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D34" s="13">
         <v>2004</v>
@@ -35411,13 +35591,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2727</v>
+        <v>2749</v>
       </c>
       <c r="B35" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D35" s="13">
         <v>1995</v>
@@ -35425,13 +35605,13 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>2728</v>
+        <v>2750</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="C36" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D36" s="13">
         <v>2008</v>
@@ -35439,13 +35619,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2729</v>
+        <v>2751</v>
       </c>
       <c r="B37" t="s">
-        <v>2730</v>
+        <v>2752</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D37" s="13">
         <v>1997</v>
@@ -35453,13 +35633,13 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>2731</v>
+        <v>2753</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2730</v>
+        <v>2752</v>
       </c>
       <c r="C38" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D38" s="13">
         <v>2006</v>
@@ -35467,13 +35647,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2732</v>
+        <v>2754</v>
       </c>
       <c r="B39" t="s">
-        <v>2733</v>
+        <v>2755</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D39" s="13">
         <v>1999</v>
@@ -35481,13 +35661,13 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>2734</v>
+        <v>2756</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2733</v>
+        <v>2755</v>
       </c>
       <c r="C40" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D40" s="13">
         <v>1990</v>
@@ -35495,13 +35675,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2735</v>
+        <v>2757</v>
       </c>
       <c r="B41" t="s">
-        <v>2736</v>
+        <v>2758</v>
       </c>
       <c r="C41" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D41" s="13">
         <v>1980</v>
@@ -35509,13 +35689,13 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>2737</v>
+        <v>2759</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2738</v>
+        <v>2760</v>
       </c>
       <c r="C42" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D42" s="13">
         <v>1982</v>
@@ -35523,13 +35703,13 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>2739</v>
+        <v>2761</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2740</v>
+        <v>2762</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D43" s="13">
         <v>1985</v>
@@ -35537,13 +35717,13 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>2741</v>
+        <v>2763</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D44" s="13">
         <v>2001</v>
@@ -35551,13 +35731,13 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>2743</v>
+        <v>2765</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D45" s="13">
         <v>1984</v>
@@ -35565,13 +35745,13 @@
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>2744</v>
+        <v>2766</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D46" s="13">
         <v>1987</v>
@@ -35579,13 +35759,13 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>2745</v>
+        <v>2767</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D47" s="13">
         <v>1987</v>
@@ -35593,13 +35773,13 @@
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>2746</v>
+        <v>2768</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D48" s="13">
         <v>1988</v>
@@ -35607,13 +35787,13 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>2747</v>
+        <v>2769</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D49" s="13">
         <v>1990</v>
@@ -35621,13 +35801,13 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>2748</v>
+        <v>2770</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D50" s="13">
         <v>1993</v>
@@ -35635,13 +35815,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>2749</v>
+        <v>2771</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D51" s="13">
         <v>2007</v>
@@ -35649,13 +35829,13 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>2750</v>
+        <v>2772</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2740</v>
+        <v>2762</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D52" s="13">
         <v>1986</v>
@@ -35663,13 +35843,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>2751</v>
+        <v>2773</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D53" s="13">
         <v>1986</v>
@@ -35677,13 +35857,13 @@
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>2753</v>
+        <v>2775</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D54" s="13">
         <v>1986</v>
@@ -35691,13 +35871,13 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>2754</v>
+        <v>2776</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D55" s="13">
         <v>1989</v>
@@ -35705,13 +35885,13 @@
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>2755</v>
+        <v>2777</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D56" s="13">
         <v>1992</v>
@@ -35719,13 +35899,13 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>2756</v>
+        <v>2778</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D57" s="13">
         <v>1995</v>
@@ -35733,13 +35913,13 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>2757</v>
+        <v>2779</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D58" s="13">
         <v>1997</v>
@@ -35747,13 +35927,13 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>2758</v>
+        <v>2780</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D59" s="13">
         <v>2001</v>
@@ -35761,13 +35941,13 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>2759</v>
+        <v>2781</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D60" s="13">
         <v>2004</v>
@@ -35775,13 +35955,13 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>2760</v>
+        <v>2782</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D61" s="13">
         <v>2008</v>
@@ -35789,13 +35969,13 @@
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>2761</v>
+        <v>2783</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D62" s="13">
         <v>2013</v>
@@ -35803,13 +35983,13 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>2762</v>
+        <v>2784</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D63" s="13">
         <v>2023</v>
@@ -35817,13 +35997,13 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>2763</v>
+        <v>2785</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2764</v>
+        <v>2786</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D64" s="13">
         <v>2006</v>
@@ -35831,13 +36011,13 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>2765</v>
+        <v>2787</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2764</v>
+        <v>2786</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D65" s="13">
         <v>2011</v>
@@ -35845,13 +36025,13 @@
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
-        <v>2766</v>
+        <v>2788</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2767</v>
+        <v>2789</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D66" s="13">
         <v>1988</v>
@@ -35859,13 +36039,13 @@
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>2768</v>
+        <v>2790</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2767</v>
+        <v>2789</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D67" s="13">
         <v>1991</v>
@@ -35873,13 +36053,13 @@
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>2769</v>
+        <v>2791</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2767</v>
+        <v>2789</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D68" s="13">
         <v>1994</v>
@@ -35887,13 +36067,13 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>2770</v>
+        <v>2792</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2767</v>
+        <v>2789</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D69" s="13">
         <v>1999</v>
@@ -35901,13 +36081,13 @@
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>2771</v>
+        <v>2793</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2767</v>
+        <v>2789</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D70" s="13">
         <v>2013</v>
@@ -35915,13 +36095,13 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>2772</v>
+        <v>2794</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2773</v>
+        <v>2795</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D71" s="13">
         <v>2002</v>
@@ -35929,13 +36109,13 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>2774</v>
+        <v>2796</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2775</v>
+        <v>2797</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D72" s="13">
         <v>2010</v>
@@ -35943,13 +36123,13 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>2776</v>
+        <v>2798</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2775</v>
+        <v>2797</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D73" s="13">
         <v>2014</v>
@@ -35957,13 +36137,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2777</v>
+        <v>2799</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2778</v>
+        <v>2800</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D74" s="13">
         <v>1999</v>
@@ -35971,13 +36151,13 @@
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>2779</v>
+        <v>2801</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2780</v>
+        <v>2802</v>
       </c>
       <c r="C75" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D75" s="13">
         <v>1993</v>
@@ -35985,13 +36165,13 @@
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>2781</v>
+        <v>2803</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>2782</v>
+        <v>2804</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D76" s="13">
         <v>1926</v>
@@ -35999,13 +36179,13 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>2783</v>
+        <v>2805</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2784</v>
+        <v>2806</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D77" s="13">
         <v>1986</v>
@@ -36013,13 +36193,13 @@
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
-        <v>2785</v>
+        <v>2807</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2786</v>
+        <v>2808</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D78" s="13">
         <v>1982</v>
@@ -36027,13 +36207,13 @@
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>2787</v>
+        <v>2809</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2788</v>
+        <v>2810</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="D79" s="13">
         <v>2015</v>
@@ -36041,13 +36221,13 @@
     </row>
     <row r="80" ht="14.25">
       <c r="A80" t="s">
-        <v>2789</v>
+        <v>2811</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>2790</v>
+        <v>2812</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D80" s="13">
         <v>2007</v>
@@ -36055,30 +36235,30 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>2792</v>
+        <v>2814</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2792</v>
+        <v>2814</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D81" s="13">
         <v>2016</v>
       </c>
       <c r="E81" t="s">
-        <v>2793</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
-        <v>2794</v>
+        <v>2816</v>
       </c>
       <c r="B82" t="s">
-        <v>2730</v>
+        <v>2752</v>
       </c>
       <c r="C82" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D82" s="13">
         <v>2004</v>
@@ -36086,13 +36266,13 @@
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="8" t="s">
-        <v>2795</v>
+        <v>2817</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2697</v>
+        <v>2719</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D83" s="13">
         <v>1997</v>
@@ -36100,13 +36280,13 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>2796</v>
+        <v>2818</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2797</v>
+        <v>2819</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D84" s="13">
         <v>1997</v>
@@ -36114,13 +36294,13 @@
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="11" t="s">
-        <v>2750</v>
+        <v>2772</v>
       </c>
       <c r="B85" t="s">
-        <v>2740</v>
+        <v>2762</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D85" s="13">
         <v>1984</v>
@@ -36128,13 +36308,13 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="8" t="s">
-        <v>2798</v>
+        <v>2820</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2799</v>
+        <v>2821</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D86" s="13">
         <v>2006</v>
@@ -36142,13 +36322,13 @@
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>2800</v>
+        <v>2822</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>2801</v>
+        <v>2823</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D87" s="13">
         <v>1988</v>
@@ -36156,13 +36336,13 @@
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2802</v>
+        <v>2824</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2803</v>
+        <v>2825</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D88" s="13">
         <v>1983</v>
@@ -36170,13 +36350,13 @@
     </row>
     <row r="89" ht="14.25">
       <c r="A89" t="s">
-        <v>2804</v>
+        <v>2826</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2742</v>
+        <v>2764</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D89" s="13">
         <v>1993</v>
@@ -36184,10 +36364,10 @@
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2805</v>
+        <v>2827</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D90" s="20">
         <v>1995</v>
@@ -36195,10 +36375,10 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>2806</v>
+        <v>2828</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D91" s="13">
         <v>1998</v>
@@ -36206,24 +36386,24 @@
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="8" t="s">
-        <v>2807</v>
+        <v>2829</v>
       </c>
       <c r="C92"/>
       <c r="D92" s="13"/>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="8" t="s">
-        <v>2808</v>
+        <v>2830</v>
       </c>
       <c r="C93"/>
       <c r="D93" s="13"/>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2809</v>
+        <v>2831</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D94" s="13">
         <v>2004</v>
@@ -36231,10 +36411,10 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
-        <v>2810</v>
+        <v>2832</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D95" s="20">
         <v>1998</v>
@@ -36242,10 +36422,10 @@
     </row>
     <row r="96" ht="14.25">
       <c r="A96" t="s">
-        <v>2811</v>
+        <v>2833</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D96" s="13">
         <v>2004</v>
@@ -36253,18 +36433,18 @@
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="8" t="s">
-        <v>2812</v>
+        <v>2834</v>
       </c>
       <c r="C97" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" t="s">
-        <v>2794</v>
+        <v>2816</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D98" s="13">
         <v>2004</v>
@@ -36272,10 +36452,10 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="22" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>2813</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>2791</v>
       </c>
       <c r="D99" s="13">
         <v>2006</v>
@@ -36283,34 +36463,34 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="22" t="s">
-        <v>2814</v>
+        <v>2836</v>
       </c>
       <c r="C100" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
       <c r="D100" s="13"/>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="8" t="s">
-        <v>2815</v>
+        <v>2837</v>
       </c>
       <c r="C101" t="s">
-        <v>2791</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="8" t="s">
-        <v>2816</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="8" t="s">
-        <v>2817</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="8" t="s">
-        <v>2818</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="105" ht="14.25">
@@ -36318,32 +36498,32 @@
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="8" t="s">
-        <v>2747</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="8" t="s">
-        <v>2819</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="8" t="s">
-        <v>2771</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="8" t="s">
-        <v>2820</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="8" t="s">
-        <v>2821</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="8" t="s">
-        <v>2822</v>
+        <v>2844</v>
       </c>
     </row>
   </sheetData>
@@ -36375,7 +36555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>2823</v>
+        <v>2845</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -36389,7 +36569,7 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="24" t="s">
-        <v>2824</v>
+        <v>2846</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -36398,553 +36578,553 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="17" t="s">
-        <v>2717</v>
+        <v>2739</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>2718</v>
+        <v>2740</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="17" t="s">
-        <v>2826</v>
+        <v>2848</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2827</v>
+        <v>2849</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="17" t="s">
-        <v>2828</v>
+        <v>2850</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2829</v>
+        <v>2851</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="17" t="s">
-        <v>2830</v>
+        <v>2852</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>2831</v>
+        <v>2853</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="17" t="s">
-        <v>2832</v>
+        <v>2854</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="17" t="s">
-        <v>2833</v>
+        <v>2855</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2834</v>
+        <v>2856</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="17" t="s">
-        <v>2835</v>
+        <v>2857</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="17" t="s">
-        <v>2836</v>
+        <v>2858</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="17" t="s">
-        <v>2837</v>
+        <v>2859</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="17" t="s">
-        <v>2811</v>
+        <v>2833</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="17" t="s">
-        <v>2838</v>
+        <v>2860</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="17" t="s">
-        <v>2839</v>
+        <v>2861</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="26" t="s">
-        <v>2825</v>
+        <v>2847</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="17" t="s">
-        <v>2840</v>
+        <v>2862</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>2841</v>
+        <v>2863</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>2842</v>
+        <v>2864</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26" t="s">
-        <v>2843</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="17" t="s">
-        <v>2844</v>
+        <v>2866</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>2845</v>
+        <v>2867</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>2842</v>
+        <v>2864</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="17" t="s">
-        <v>2846</v>
+        <v>2868</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>2847</v>
+        <v>2869</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>2842</v>
+        <v>2864</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="17" t="s">
-        <v>2848</v>
+        <v>2870</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>2849</v>
+        <v>2871</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>2842</v>
+        <v>2864</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="17" t="s">
-        <v>2850</v>
+        <v>2872</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2851</v>
+        <v>2873</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>2852</v>
+        <v>2874</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>2853</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="17" t="s">
-        <v>2854</v>
+        <v>2876</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2855</v>
+        <v>2877</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>2852</v>
+        <v>2874</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="17" t="s">
-        <v>2856</v>
+        <v>2878</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2857</v>
+        <v>2879</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>2852</v>
+        <v>2874</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26" t="s">
-        <v>2858</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="17" t="s">
-        <v>2859</v>
+        <v>2881</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2860</v>
+        <v>2882</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>2860</v>
+        <v>2882</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="17" t="s">
-        <v>2861</v>
+        <v>2883</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>2860</v>
+        <v>2882</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>2860</v>
+        <v>2882</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="17" t="s">
-        <v>2862</v>
+        <v>2884</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2863</v>
+        <v>2885</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>2863</v>
+        <v>2885</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="17"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="17" t="s">
-        <v>2864</v>
+        <v>2886</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>2865</v>
+        <v>2887</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>2866</v>
+        <v>2888</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="17" t="s">
-        <v>2867</v>
+        <v>2889</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2868</v>
+        <v>2890</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="17"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="17" t="s">
-        <v>2870</v>
+        <v>2892</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="17"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="17" t="s">
-        <v>2871</v>
+        <v>2893</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="17"/>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="17" t="s">
-        <v>2872</v>
+        <v>2894</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="17"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="17" t="s">
-        <v>2873</v>
+        <v>2895</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="17"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="17" t="s">
-        <v>2874</v>
+        <v>2896</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="17"/>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="17" t="s">
-        <v>2875</v>
+        <v>2897</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>2869</v>
+        <v>2891</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="17"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="17" t="s">
-        <v>2876</v>
+        <v>2898</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="17"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="17" t="s">
-        <v>2878</v>
+        <v>2900</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="17"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="17" t="s">
-        <v>2879</v>
+        <v>2901</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="17"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="17" t="s">
-        <v>2880</v>
+        <v>2902</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>2877</v>
+        <v>2899</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="17"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="17" t="s">
-        <v>2881</v>
+        <v>2903</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>2417</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>2882</v>
+        <v>2904</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="17"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="17" t="s">
-        <v>2883</v>
+        <v>2905</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>2417</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>2882</v>
+        <v>2904</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
-        <v>2884</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="17" t="s">
-        <v>2885</v>
+        <v>2907</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>2417</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>2882</v>
+        <v>2904</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="27" t="s">
-        <v>2886</v>
+        <v>2908</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="17" t="s">
-        <v>2888</v>
+        <v>2910</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="17" t="s">
-        <v>2889</v>
+        <v>2911</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="17" t="s">
-        <v>2890</v>
+        <v>2912</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="17" t="s">
-        <v>2891</v>
+        <v>2913</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>2887</v>
+        <v>2909</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="17" t="s">
-        <v>2892</v>
+        <v>2914</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -36954,114 +37134,114 @@
         <v>300</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="28" t="s">
-        <v>2894</v>
+        <v>2916</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="28" t="s">
-        <v>2895</v>
+        <v>2917</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="17" t="s">
-        <v>2896</v>
+        <v>2918</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="17" t="s">
-        <v>2898</v>
+        <v>2920</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="17" t="s">
-        <v>2899</v>
+        <v>2921</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="17" t="s">
-        <v>2900</v>
+        <v>2922</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>2897</v>
+        <v>2919</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="17" t="s">
-        <v>2901</v>
+        <v>2923</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>2902</v>
+        <v>2924</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2902</v>
+        <v>2924</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="17" t="s">
-        <v>2903</v>
+        <v>2925</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>2904</v>
+        <v>2926</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>2904</v>
+        <v>2926</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -37129,7 +37309,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2905</v>
+        <v>2927</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -37146,15 +37326,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2906</v>
+        <v>2928</v>
       </c>
       <c r="B2" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2908</v>
+        <v>2930</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2419</v>
@@ -37162,15 +37342,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2909</v>
+        <v>2931</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2910</v>
+        <v>2932</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2290</v>
@@ -37178,15 +37358,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2911</v>
+        <v>2933</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2912</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2913</v>
+        <v>2935</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2419</v>
@@ -37194,7 +37374,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2914</v>
+        <v>2936</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2404</v>
@@ -37202,7 +37382,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2915</v>
+        <v>2937</v>
       </c>
       <c r="B9" t="s">
         <v>2404</v>
@@ -37210,31 +37390,31 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2916</v>
+        <v>2938</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2917</v>
+        <v>2939</v>
       </c>
       <c r="B11" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2918</v>
+        <v>2940</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2912</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2919</v>
+        <v>2941</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2419</v>
@@ -37242,47 +37422,47 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2920</v>
+        <v>2942</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2921</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2922</v>
+        <v>2944</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2923</v>
+        <v>2945</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2917</v>
+        <v>2939</v>
       </c>
       <c r="B17" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2924</v>
+        <v>2946</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2907</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2925</v>
+        <v>2947</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2419</v>
@@ -37290,7 +37470,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2926</v>
+        <v>2948</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>2419</v>
@@ -37298,7 +37478,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2927</v>
+        <v>2949</v>
       </c>
       <c r="B21" t="s">
         <v>2419</v>
@@ -37306,7 +37486,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2928</v>
+        <v>2950</v>
       </c>
       <c r="B22" t="s">
         <v>2334</v>
@@ -37314,7 +37494,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2929</v>
+        <v>2951</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>2334</v>
@@ -37322,10 +37502,10 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2930</v>
+        <v>2952</v>
       </c>
       <c r="B24" t="s">
-        <v>2912</v>
+        <v>2934</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Movies SELECTED" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="2953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="2954">
   <si>
     <t>Title</t>
   </si>
@@ -8891,6 +8891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Radiofobia Classics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carioquismo Cultural</t>
   </si>
 </sst>
 </file>
@@ -37508,6 +37511,14 @@
         <v>2934</v>
       </c>
     </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2929</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Movies SELECTED" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="2954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="2974">
   <si>
     <t>Title</t>
   </si>
@@ -8287,286 +8287,346 @@
     <t xml:space="preserve">The Sky Crawlers</t>
   </si>
   <si>
+    <t xml:space="preserve">Jin-Roh - The Wolf Brigade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroyuki Okiura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record of the Lodoss War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krvavá pani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Kubal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Angel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Bokanowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Hunter D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyoo Ashida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampire Hunter D: Bloodlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshiaki Kawajiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lensman: Secret of The Lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neo Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon City Shinjuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wind Named Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlander: The Search for Vengeance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fist of the North Star </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle in the Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayao Miyazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porco Rosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper of the Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Mononoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirited Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wind Rises</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Boy and the Heron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales from Earthsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorō Miyazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Up on Poppy Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grave of the Fireflies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isao Takahata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pom Poko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Neighbors the Yamadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tale of the Princess Kaguya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cat Returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroyuki Morita</t>
+  </si>
+  <si>
+    <t>Arrietty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiromasa Yonebayashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Marnie Was There</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Iron Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thief and the Cobbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Adventures of Prince Achmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotte Reiniger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street of Crocodiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brothers Quay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret of NIMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Bluth</t>
+  </si>
+  <si>
+    <t>Anomalisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie Kaufman &amp; Duke Johnson</t>
+  </si>
+  <si>
+    <t>Shigurui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirotsugu Hamazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialized Animations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Murdoch</t>
+  </si>
+  <si>
+    <t>magnet:?xt=urn:btih:22d219e0d87f0948471784ecdfcf60e54db7ed7a&amp;dn=Murdoch%20Murdoch&amp;tr=http%3A%2F%2Fshare.camoe.cn%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce&amp;tr=http%3A%2F%2Ft.nyaatracker.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.doko.moe%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fasnet.pw%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.co%3A80%2Fannounce&amp;tr=http%3A%2F%2Fpt.lax.mx%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fsantost12.xyz%3A6969%2Fannounce&amp;tr=https%3A%2F%2Ftracker.bt-hash.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fzephir.monocul.us%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fgrifon.info%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.spark-rostov.ru%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftr.kxmp.cf%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.city9x.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fbt.aoeex.com%3A8000%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.telecom.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.electro-torrent.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.halfchub.club%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.nts.su%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fwambo.club%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dutchtracking.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftc.animereactor.ru%3A8082%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.justseed.it%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=https%3A%2F%2Fopen.kickasstracker.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.mgts.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.bashtel.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Finferno.demonoid.pw%3A3418%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cypherpunks.ru%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.calculate.ru%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.krs-ix.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.indowebster.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittorrent.am%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%2Fannounce&amp;tr=http%3A%2F%2Ftracker.baravik.org%3A6970%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker4.piratux.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.skyts.net%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.itzmx.com%3A6961%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fwww.wareztorrent.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.eddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.edoardocolombo.eu%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.mg64.net%3A6881%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker1.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=http%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.gorcomnet.ru%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969&amp;tr=udp%3A%2F%2Fpublic.popcorn-tracker.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ilibr.org%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kuroy.me%3A5944%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.devil-torrents.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.christianbro.pw%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.lanta-net.ru%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fulfbrueggemann.no-ip.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.eu%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Fpeerfect.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.swateam.org.uk%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fns349743.ip-91-121-106.eu%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.me%3A8080%2Fannounce&amp;tr=http%3A%2F%2Fagusiq-torrents.pl%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ffxtt.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fexplodie.org%3A6969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy City</t>
+  </si>
+  <si>
+    <t>Hellsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umanosuke Iida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergo Proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shūkō Murase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend of the Galactic Heros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noboru Ishiguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armored Troopers Voton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryōsuke Takahashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cockpit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hideaki Anno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryūtarō Nakamura</t>
+  </si>
+  <si>
+    <t>Lazarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinichirō Watanabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samurai Champloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowboy Bebop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macross Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michiko &amp; Hatchin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayo Yamamoto</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masayuki Kojima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tetsurō Araki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paranoia Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satoshi Kon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect Blue</t>
   </si>
   <si>
-    <t xml:space="preserve">Satoshi Kon</t>
-  </si>
-  <si>
     <t>Paprika</t>
   </si>
   <si>
-    <t xml:space="preserve">Jin-Roh - The Wolf Brigade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroyuki Okiura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record of the Lodoss War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krvavá pani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktor Kubal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Angel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Bokanowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vampire Hunter D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toyoo Ashida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vampire Hunter D: Bloodlust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshiaki Kawajiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lensman: Secret of The Lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wicked City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neo Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon City Shinjuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Wind Named Amnesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninja Scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highlander: The Search for Vengeance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fist of the North Star </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle in the Sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayao Miyazaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porco Rosso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whisper of the Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princess Mononoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirited Away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howl's Moving Castle</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wind Rises</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Boy and the Heron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales from Earthsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorō Miyazaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Up on Poppy Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grave of the Fireflies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isao Takahata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Yesterday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pom Poko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Neighbors the Yamadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Tale of the Princess Kaguya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cat Returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroyuki Morita</t>
-  </si>
-  <si>
-    <t>Arrietty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiromasa Yonebayashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Marnie Was There</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Iron Giant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brad Bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Thief and the Cobbler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Adventures of Prince Achmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lotte Reiniger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street of Crocodiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brothers Quay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Secret of NIMH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don Bluth</t>
-  </si>
-  <si>
-    <t>Anomalisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlie Kaufman &amp; Duke Johnson</t>
-  </si>
-  <si>
-    <t>Shigurui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirotsugu Hamazaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serialized Animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murdoch Murdoch</t>
-  </si>
-  <si>
-    <t>magnet:?xt=urn:btih:22d219e0d87f0948471784ecdfcf60e54db7ed7a&amp;dn=Murdoch%20Murdoch&amp;tr=http%3A%2F%2Fshare.camoe.cn%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.torrent.eu.org%3A451%2Fannounce&amp;tr=http%3A%2F%2Ft.nyaatracker.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.doko.moe%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fasnet.pw%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.co%3A80%2Fannounce&amp;tr=http%3A%2F%2Fpt.lax.mx%3A80%2Fannounce&amp;tr=udp%3A%2F%2Fsantost12.xyz%3A6969%2Fannounce&amp;tr=https%3A%2F%2Ftracker.bt-hash.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fzephir.monocul.us%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fgrifon.info%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.spark-rostov.ru%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftr.kxmp.cf%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.city9x.com%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fbt.aoeex.com%3A8000%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.telecom.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.electro-torrent.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.halfchub.club%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.nts.su%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Fwambo.club%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.dutchtracking.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftc.animereactor.ru%3A8082%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.justseed.it%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.leechers-paradise.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=https%3A%2F%2Fopen.kickasstracker.com%3A443%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fopen.stealth.si%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.mgts.by%3A80%2Fannounce&amp;tr=http%3A%2F%2Fretracker.bashtel.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Finferno.demonoid.pw%3A3418%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cypherpunks.ru%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.calculate.ru%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.yoshi210.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tiny-vps.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.filetracker.pl%3A8089%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%2Fannounce&amp;tr=http%3A%2F%2Fmgtracker.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.krs-ix.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.indowebster.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fthetracker.org%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.aletorrenty.pl%3A2710%2Fannounce&amp;tr=http%3A%2F%2Ftracker.bittorrent.am%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%2Fannounce&amp;tr=http%3A%2F%2Ftracker.baravik.org%3A6970%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker4.piratux.com%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.skyts.net%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker2.itzmx.com%3A6961%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%2Fannounce&amp;tr=udp%3A%2F%2Fbt.xxx-tracker.com%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fwww.wareztorrent.com%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.eddie4.nl%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.coppersurfer.tk%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.ex.ua%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.opentrackr.org%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.edoardocolombo.eu%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.kicks-ass.net%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.dutchtracking.nl%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftracker.mg64.net%3A6881%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker1.wasabii.com.tw%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tfile.me%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.tvunderground.org.ru%3A3218%2Fannounce&amp;tr=http%3A%2F%2Ftracker.grepler.com%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.bittor.pw%3A1337%2Fannounce&amp;tr=http%3A%2F%2Ftracker.flashtorrents.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Fretracker.gorcomnet.ru%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.sktorrent.net%3A6969&amp;tr=udp%3A%2F%2Fpublic.popcorn-tracker.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.ilibr.org%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.kuroy.me%3A5944%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.mg64.net%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.cyberia.is%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftracker.devil-torrents.pl%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker2.christianbro.pw%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fretracker.lanta-net.ru%3A2710%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.internetwarriors.net%3A1337%2Fannounce&amp;tr=udp%3A%2F%2Fulfbrueggemann.no-ip.org%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.eu%3A8080%2Fannounce&amp;tr=udp%3A%2F%2Fpeerfect.org%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.swateam.org.uk%3A2710%2Fannounce&amp;tr=http%3A%2F%2Fns349743.ip-91-121-106.eu%3A80%2Fannounce&amp;tr=http%3A%2F%2Ftorrentsmd.me%3A8080%2Fannounce&amp;tr=http%3A%2F%2Fagusiq-torrents.pl%3A6969%2Fannounce&amp;tr=http%3A%2F%2Ffxtt.ru%3A80%2Fannounce&amp;tr=udp%3A%2F%2Ftracker.vanitycore.co%3A6969%2Fannounce&amp;tr=udp%3A%2F%2Fexplodie.org%3A6969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paranoia Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicy City</t>
-  </si>
-  <si>
-    <t>Hellsing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umanosuke Iida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergo Proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shūkō Murase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend of the Galactic Heros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noboru Ishiguro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armored Troopers Voton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryōsuke Takahashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cockpit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Lazarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michiko &amp; Hatchin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samurai Champloo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cowboy Bebop</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death Note</t>
+    <t>Memories</t>
   </si>
   <si>
     <t>Mononoke</t>
   </si>
   <si>
+    <t xml:space="preserve">Kenji Nakamura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ayakashi: Japanese Classic Horror</t>
   </si>
   <si>
+    <t xml:space="preserve">Tetsuo Imazawa</t>
+  </si>
+  <si>
     <t>Animatrix</t>
   </si>
   <si>
+    <t xml:space="preserve">Lilly e Lana Wachowski</t>
+  </si>
+  <si>
     <t>Baccano!</t>
   </si>
   <si>
-    <t xml:space="preserve">Ad Astra: Scipio to Hannibal</t>
+    <t xml:space="preserve">Takahiro Omori</t>
   </si>
   <si>
     <t xml:space="preserve">Vinland Saga</t>
   </si>
   <si>
+    <t xml:space="preserve">Shūhei Yabuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuo Yamazaki</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Rose of Versailles</t>
   </si>
   <si>
+    <t xml:space="preserve">Tadao Nagahama</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Diary of Tortov Roddle</t>
   </si>
   <si>
+    <t xml:space="preserve">Kunio Katō</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iblard Jikan</t>
   </si>
   <si>
+    <t xml:space="preserve">Naohisa Inoue</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Girl From the Other Side: Siuil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yūtarō Kubo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun of the White Mare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcell Jankovics</t>
   </si>
   <si>
     <t>Author</t>
@@ -8900,7 +8960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -8955,6 +9015,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.500000"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.000000"/>
       <name val="Calibri"/>
@@ -9002,7 +9067,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9055,20 +9120,37 @@
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
@@ -35059,9 +35141,7 @@
       <c r="E17" s="17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="13" t="s">
-        <v>2687</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
@@ -35097,7 +35177,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showZeros="1" topLeftCell="A88" zoomScale="100" workbookViewId="0">
+    <sheetView showZeros="1" topLeftCell="A95" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -35582,7 +35662,7 @@
       <c r="A34" s="8" t="s">
         <v>2748</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="21" t="s">
         <v>2744</v>
       </c>
       <c r="C34" t="s">
@@ -35631,7 +35711,7 @@
         <v>2708</v>
       </c>
       <c r="D37" s="13">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="38">
@@ -35645,7 +35725,7 @@
         <v>2708</v>
       </c>
       <c r="D38" s="13">
-        <v>2006</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="39">
@@ -35655,11 +35735,11 @@
       <c r="B39" t="s">
         <v>2755</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" t="s">
         <v>2708</v>
       </c>
       <c r="D39" s="13">
-        <v>1999</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="40">
@@ -35667,55 +35747,55 @@
         <v>2756</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="C40" t="s">
         <v>2708</v>
       </c>
       <c r="D40" s="13">
-        <v>1990</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>2757</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="8" t="s">
         <v>2758</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="8" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D41" s="13">
-        <v>1980</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C42" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D42" s="13">
-        <v>1982</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>2761</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>2762</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D43" s="13">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="44">
@@ -35723,119 +35803,119 @@
         <v>2763</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D44" s="13">
-        <v>2001</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D45" s="13">
-        <v>1984</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D46" s="13">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D47" s="13">
-        <v>1987</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D48" s="13">
-        <v>1988</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D49" s="13">
-        <v>1990</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>2770</v>
+      <c r="A50" s="11" t="s">
+        <v>2769</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D50" s="13">
-        <v>1993</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>2764</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D51" s="13">
-        <v>2007</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>2772</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>2762</v>
+      <c r="B52" s="1" t="s">
+        <v>2771</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>2708</v>
@@ -35849,139 +35929,139 @@
         <v>2773</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D53" s="13">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D54" s="13">
-        <v>1986</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D55" s="13">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D56" s="13">
-        <v>1992</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D57" s="13">
-        <v>1995</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D58" s="13">
-        <v>1997</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D59" s="13">
-        <v>2001</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D60" s="13">
-        <v>2004</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D61" s="13">
-        <v>2008</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>2783</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D62" s="13">
-        <v>2013</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="63">
@@ -35989,13 +36069,13 @@
         <v>2784</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2774</v>
+        <v>2783</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D63" s="13">
-        <v>2023</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="64">
@@ -36009,7 +36089,7 @@
         <v>2708</v>
       </c>
       <c r="D64" s="13">
-        <v>2006</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="65">
@@ -36023,7 +36103,7 @@
         <v>2708</v>
       </c>
       <c r="D65" s="13">
-        <v>2011</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="66">
@@ -36031,55 +36111,55 @@
         <v>2788</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D66" s="13">
-        <v>1988</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D67" s="13">
-        <v>1991</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D68" s="13">
-        <v>1994</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D69" s="13">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="70">
@@ -36087,447 +36167,594 @@
         <v>2793</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2789</v>
+        <v>2794</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D70" s="13">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D71" s="13">
-        <v>2002</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
+      <c r="A72" t="s">
         <v>2796</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="8" t="s">
         <v>2797</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="8" t="s">
         <v>2708</v>
       </c>
       <c r="D72" s="13">
-        <v>2010</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
         <v>2798</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>2797</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="8" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C73" t="s">
         <v>2708</v>
       </c>
       <c r="D73" s="13">
-        <v>2014</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="8" t="s">
         <v>2800</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="19" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D74" s="13">
-        <v>1999</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2802</v>
-      </c>
-      <c r="C75" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D75" s="13">
-        <v>1993</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B76" s="19" t="s">
         <v>2804</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2805</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D76" s="13">
-        <v>1926</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>2708</v>
       </c>
       <c r="D77" s="13">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>2807</v>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
+        <v>2808</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2808</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>2708</v>
+        <v>2809</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>2810</v>
       </c>
       <c r="D78" s="13">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B79" s="8" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>2810</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>2708</v>
-      </c>
       <c r="D79" s="13">
-        <v>2015</v>
+        <v>2016</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="A80" s="8" t="s">
         <v>2813</v>
       </c>
+      <c r="B80" s="11" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>2810</v>
+      </c>
       <c r="D80" s="13">
-        <v>2007</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
         <v>2814</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>2814</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>2813</v>
+      <c r="B81" s="19" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>2810</v>
       </c>
       <c r="D81" s="13">
-        <v>2016</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2815</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" t="s">
-        <v>2816</v>
+      <c r="A82" s="11" t="s">
+        <v>2769</v>
       </c>
       <c r="B82" t="s">
-        <v>2752</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2813</v>
+        <v>2759</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>2810</v>
       </c>
       <c r="D82" s="13">
-        <v>2004</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="8" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>2817</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>2719</v>
-      </c>
       <c r="C83" s="11" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="D83" s="13">
-        <v>1997</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
         <v>2818</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="22" t="s">
         <v>2819</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>2813</v>
+      <c r="C84" s="8" t="s">
+        <v>2810</v>
       </c>
       <c r="D84" s="13">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="11" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2762</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>2813</v>
+      <c r="A85" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>2810</v>
       </c>
       <c r="D85" s="13">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="8" t="s">
-        <v>2820</v>
+      <c r="A86" t="s">
+        <v>2822</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2821</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>2813</v>
+        <v>2761</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>2810</v>
       </c>
       <c r="D86" s="13">
-        <v>2006</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="D87" s="13">
-        <v>1988</v>
+        <v>2810</v>
+      </c>
+      <c r="D87" s="20">
+        <v>1995</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B88" s="8" t="s">
         <v>2825</v>
       </c>
+      <c r="B88" s="21" t="s">
+        <v>2826</v>
+      </c>
       <c r="C88" s="8" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="D88" s="13">
-        <v>1983</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>2764</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>2813</v>
+      <c r="A89" s="8" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2810</v>
       </c>
       <c r="D89" s="13">
-        <v>1993</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2827</v>
+        <v>2829</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2828</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="D90" s="20">
-        <v>1995</v>
+        <v>2810</v>
+      </c>
+      <c r="D90" s="13">
+        <v>2004</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B91" t="s">
         <v>2828</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="D91" s="13">
+      <c r="C91" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D91" s="20">
         <v>1998</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="8" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C92"/>
-      <c r="D92" s="13"/>
+      <c r="A92" s="21" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1994</v>
+      </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="8" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C93"/>
-      <c r="D93" s="13"/>
+        <v>2832</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2008</v>
+      </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2831</v>
+        <v>2834</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>2835</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="D94" s="13">
         <v>2004</v>
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>2813</v>
-      </c>
-      <c r="D95" s="20">
-        <v>1998</v>
+      <c r="A95" s="8" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D95" s="13">
+        <v>2006</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" t="s">
-        <v>2833</v>
+        <v>2838</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>2839</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="D96" s="13">
         <v>2004</v>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="8" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2813</v>
+      <c r="A97" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1997</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>2813</v>
+      <c r="A98" s="8" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2708</v>
       </c>
       <c r="D98" s="13">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="22" t="s">
-        <v>2835</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>2813</v>
+      <c r="A99" s="21" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>2708</v>
       </c>
       <c r="D99" s="13">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="26" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D100" s="13">
         <v>2006</v>
       </c>
     </row>
-    <row r="100" ht="14.25">
-      <c r="A100" s="22" t="s">
-        <v>2836</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2813</v>
-      </c>
-      <c r="D100" s="13"/>
-    </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="8" t="s">
-        <v>2837</v>
+      <c r="A101" s="26" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>2846</v>
       </c>
       <c r="C101" t="s">
-        <v>2813</v>
+        <v>2810</v>
+      </c>
+      <c r="D101" s="13">
+        <v>2006</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="8" t="s">
-        <v>2838</v>
+        <v>2847</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D102" s="13">
+        <v>2003</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="8" t="s">
-        <v>2839</v>
+        <v>2849</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D103" s="13">
+        <v>2007</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="8" t="s">
-        <v>2840</v>
+        <v>2851</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2019</v>
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="8" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1990</v>
+      </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="8" t="s">
-        <v>2769</v>
+        <v>2854</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D106" s="13">
+        <v>1979</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="8" t="s">
-        <v>2841</v>
+        <v>2790</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D107" s="28">
+        <v>2013</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="8" t="s">
-        <v>2793</v>
+        <v>2856</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D108" s="13">
+        <v>2003</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="8" t="s">
-        <v>2842</v>
+        <v>2859</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D109" s="13">
+        <v>2007</v>
       </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="8" t="s">
-        <v>2843</v>
+        <v>2861</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D110" s="13">
+        <v>2019</v>
       </c>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="8" t="s">
-        <v>2844</v>
-      </c>
+      <c r="A111" s="21" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D111" s="13">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -36554,30 +36781,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="29" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="24" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="30" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="17" t="s">
@@ -36586,665 +36815,665 @@
       <c r="B3" s="17" t="s">
         <v>2740</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="17" t="s">
-        <v>2848</v>
+        <v>2868</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+        <v>2869</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="17" t="s">
-        <v>2850</v>
+        <v>2870</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2851</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+        <v>2871</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="17" t="s">
-        <v>2852</v>
+        <v>2872</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>2853</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>2873</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="17" t="s">
-        <v>2854</v>
+        <v>2874</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="17" t="s">
-        <v>2855</v>
+        <v>2875</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+        <v>2876</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="17" t="s">
-        <v>2857</v>
+        <v>2877</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="17" t="s">
-        <v>2858</v>
+        <v>2878</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="17" t="s">
-        <v>2859</v>
+        <v>2879</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="17" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="17" t="s">
-        <v>2860</v>
+        <v>2880</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="17" t="s">
-        <v>2861</v>
+        <v>2881</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="26" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="17" t="s">
-        <v>2862</v>
+        <v>2882</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26" t="s">
-        <v>2865</v>
+        <v>2883</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>2885</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="17" t="s">
-        <v>2866</v>
+        <v>2886</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>2867</v>
+        <v>2887</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>2864</v>
+        <v>2884</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="17" t="s">
-        <v>2868</v>
+        <v>2888</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+        <v>2889</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="17" t="s">
-        <v>2870</v>
+        <v>2890</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>2871</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+        <v>2891</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="17" t="s">
-        <v>2872</v>
+        <v>2892</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2873</v>
+        <v>2893</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
-        <v>2875</v>
+        <v>2894</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>2895</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="17" t="s">
-        <v>2876</v>
+        <v>2896</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2877</v>
+        <v>2897</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+        <v>2894</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="17" t="s">
-        <v>2878</v>
+        <v>2898</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2879</v>
+        <v>2899</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
-        <v>2880</v>
+        <v>2894</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="17" t="s">
-        <v>2881</v>
+        <v>2901</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2882</v>
+        <v>2902</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>2882</v>
+        <v>2902</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="17" t="s">
-        <v>2883</v>
+        <v>2903</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>2882</v>
+        <v>2902</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>2882</v>
+        <v>2902</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="17" t="s">
-        <v>2884</v>
+        <v>2904</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2885</v>
+        <v>2905</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>2905</v>
+      </c>
+      <c r="D24" s="33"/>
       <c r="E24" s="17"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="17" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>2906</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D25" s="33"/>
       <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="17" t="s">
-        <v>2889</v>
+        <v>2909</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2890</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>2910</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D26" s="33"/>
       <c r="E26" s="17"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="17" t="s">
-        <v>2892</v>
+        <v>2912</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D27" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="17"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="17" t="s">
-        <v>2893</v>
+        <v>2913</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D28" s="33"/>
       <c r="E28" s="17"/>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="17" t="s">
-        <v>2894</v>
+        <v>2914</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D29" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D29" s="33"/>
       <c r="E29" s="17"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="17" t="s">
-        <v>2895</v>
+        <v>2915</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D30" s="33"/>
       <c r="E30" s="17"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="17" t="s">
-        <v>2896</v>
+        <v>2916</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D31" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D31" s="33"/>
       <c r="E31" s="17"/>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="17" t="s">
-        <v>2897</v>
+        <v>2917</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2891</v>
+        <v>2911</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>2911</v>
+      </c>
+      <c r="D32" s="33"/>
       <c r="E32" s="17"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="17" t="s">
-        <v>2898</v>
+        <v>2918</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2899</v>
+        <v>2919</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>2919</v>
+      </c>
+      <c r="D33" s="33"/>
       <c r="E33" s="17"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="17" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>2899</v>
+        <v>2920</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>2919</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>2919</v>
+      </c>
+      <c r="D34" s="33"/>
       <c r="E34" s="17"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="17" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>2899</v>
+        <v>2921</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>2919</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D35" s="26"/>
+        <v>2919</v>
+      </c>
+      <c r="D35" s="33"/>
       <c r="E35" s="17"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="17" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>2899</v>
+        <v>2922</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>2919</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>2919</v>
+      </c>
+      <c r="D36" s="33"/>
       <c r="E36" s="17"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="17" t="s">
-        <v>2903</v>
+        <v>2923</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>2417</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D37" s="26"/>
+      <c r="C37" s="33" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D37" s="33"/>
       <c r="E37" s="17"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="17" t="s">
-        <v>2905</v>
+        <v>2925</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>2417</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26" t="s">
-        <v>2906</v>
+      <c r="C38" s="33" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33" t="s">
+        <v>2926</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="17" t="s">
-        <v>2907</v>
+        <v>2927</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>2417</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="C39" s="33" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="27" t="s">
-        <v>2908</v>
+      <c r="A40" s="34" t="s">
+        <v>2928</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="17" t="s">
-        <v>2910</v>
+        <v>2930</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="17" t="s">
-        <v>2911</v>
+        <v>2931</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="17" t="s">
-        <v>2912</v>
+        <v>2932</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="17" t="s">
-        <v>2913</v>
+        <v>2933</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>2909</v>
+        <v>2929</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="17" t="s">
-        <v>2914</v>
+        <v>2934</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="28">
+      <c r="A46" s="35">
         <v>300</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="28" t="s">
-        <v>2916</v>
+      <c r="A47" s="35" t="s">
+        <v>2936</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="28" t="s">
-        <v>2917</v>
+      <c r="A48" s="35" t="s">
+        <v>2937</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>2915</v>
+        <v>2935</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="17" t="s">
-        <v>2918</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>2919</v>
+        <v>2938</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>2939</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="17" t="s">
-        <v>2920</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>2919</v>
+        <v>2940</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>2939</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="17" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>2919</v>
+        <v>2941</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>2939</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="17" t="s">
-        <v>2922</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>2919</v>
+        <v>2942</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>2939</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="17" t="s">
-        <v>2923</v>
+        <v>2943</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>2924</v>
+        <v>2944</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2924</v>
+        <v>2944</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="17" t="s">
-        <v>2925</v>
+        <v>2945</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>2926</v>
+        <v>2946</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>2926</v>
+        <v>2946</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -37312,7 +37541,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2927</v>
+        <v>2947</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -37329,15 +37558,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2928</v>
+        <v>2948</v>
       </c>
       <c r="B2" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2930</v>
+        <v>2950</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2419</v>
@@ -37345,15 +37574,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2931</v>
+        <v>2951</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2932</v>
+        <v>2952</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2290</v>
@@ -37361,15 +37590,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2933</v>
+        <v>2953</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2934</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2935</v>
+        <v>2955</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2419</v>
@@ -37377,7 +37606,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2936</v>
+        <v>2956</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2404</v>
@@ -37385,7 +37614,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2937</v>
+        <v>2957</v>
       </c>
       <c r="B9" t="s">
         <v>2404</v>
@@ -37393,31 +37622,31 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2938</v>
+        <v>2958</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2939</v>
+        <v>2959</v>
       </c>
       <c r="B11" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2940</v>
+        <v>2960</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2934</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2941</v>
+        <v>2961</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2419</v>
@@ -37425,47 +37654,47 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2942</v>
+        <v>2962</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2943</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2944</v>
+        <v>2964</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2945</v>
+        <v>2965</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2939</v>
+        <v>2959</v>
       </c>
       <c r="B17" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2946</v>
+        <v>2966</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2947</v>
+        <v>2967</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2419</v>
@@ -37473,7 +37702,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2948</v>
+        <v>2968</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>2419</v>
@@ -37481,7 +37710,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2949</v>
+        <v>2969</v>
       </c>
       <c r="B21" t="s">
         <v>2419</v>
@@ -37489,7 +37718,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2950</v>
+        <v>2970</v>
       </c>
       <c r="B22" t="s">
         <v>2334</v>
@@ -37497,7 +37726,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2951</v>
+        <v>2971</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>2334</v>
@@ -37505,18 +37734,18 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2952</v>
+        <v>2972</v>
       </c>
       <c r="B24" t="s">
-        <v>2934</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2953</v>
+        <v>2973</v>
       </c>
       <c r="B25" t="s">
-        <v>2929</v>
+        <v>2949</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="2935">
   <si>
     <t>Title</t>
   </si>
@@ -7015,6 +7015,30 @@
     <t xml:space="preserve">The Age of Disclosure</t>
   </si>
   <si>
+    <t xml:space="preserve">The Phenomenon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenômenos na Amazônia: ENCONTROS INDÍGENAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rony Vernet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliens &amp; Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Michael Heiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliens &amp; Demons – A compilation of old video clips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trey Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tolkien's The Lord of the Rings: A Catholic Worldview</t>
   </si>
   <si>
@@ -7132,21 +7156,6 @@
     <t xml:space="preserve">Sonia Poulton</t>
   </si>
   <si>
-    <t xml:space="preserve">The Phenomenon</t>
-  </si>
-  <si>
-    <t>UFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenômenos na Amazônia: ENCONTROS INDÍGENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rony Vernet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belly of the Beast</t>
   </si>
   <si>
@@ -7240,6 +7249,12 @@
     <t xml:space="preserve">From Bedrooms to Billions (2014)</t>
   </si>
   <si>
+    <t xml:space="preserve">Clash of Colors: LA Riots of 1992 (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David D. Kim</t>
+  </si>
+  <si>
     <t xml:space="preserve">To Archive</t>
   </si>
   <si>
@@ -8732,6 +8747,12 @@
   </si>
   <si>
     <t xml:space="preserve">Emilio Balcarce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiem Chevalier Vampire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pat Mills &amp; Olivier Ledroit</t>
   </si>
   <si>
     <t>System</t>
@@ -8940,7 +8961,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8979,6 +9000,10 @@
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -31296,7 +31321,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -32183,55 +32208,55 @@
       <c r="C77" s="14"/>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" t="s">
+      <c r="A78" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="17" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>2328</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2329</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C79" t="s">
         <v>2330</v>
       </c>
-      <c r="B79" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2329</v>
-      </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" t="s">
+      <c r="A80" s="14" t="s">
         <v>2331</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C80" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" t="s">
+      <c r="A81" s="18" t="s">
         <v>2333</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="19" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>2334</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B82" t="s">
         <v>2336</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2334</v>
       </c>
       <c r="C82" t="s">
         <v>2337</v>
@@ -32242,81 +32267,81 @@
         <v>2338</v>
       </c>
       <c r="B83" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="C83" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C84" t="s">
         <v>2340</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B85" t="s">
         <v>2342</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>2343</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C86" t="s">
         <v>2345</v>
       </c>
-      <c r="B86" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2344</v>
-      </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" t="s">
         <v>2346</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>2344</v>
+      <c r="B87" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2347</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="B88" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="14" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>2343</v>
+      <c r="A89" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2351</v>
       </c>
       <c r="C89" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="B90" t="s">
         <v>2351</v>
@@ -32326,167 +32351,173 @@
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" t="s">
-        <v>2353</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="14" t="s">
         <v>2354</v>
       </c>
-      <c r="C91" t="s">
-        <v>2355</v>
+      <c r="B91" s="17" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>2352</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="14" t="s">
         <v>2356</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" s="14" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C93" t="s">
         <v>2357</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="A93" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2361</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>2273</v>
+        <v>2358</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2359</v>
       </c>
       <c r="C94" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C95" t="s">
         <v>2363</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>2273</v>
+        <v>2364</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2365</v>
       </c>
       <c r="C96" t="s">
-        <v>2279</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>2273</v>
       </c>
       <c r="C97" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="14" t="s">
-        <v>2282</v>
+      <c r="A98" t="s">
+        <v>2369</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>2273</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>2279</v>
+      <c r="C98" t="s">
+        <v>2370</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="14" t="s">
-        <v>2366</v>
+      <c r="A99" t="s">
+        <v>2371</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>2367</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>2368</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2367</v>
+        <v>2287</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>2273</v>
       </c>
       <c r="C100" t="s">
-        <v>2370</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="14" t="s">
-        <v>2371</v>
+      <c r="A101" t="s">
+        <v>2372</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>2273</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>2372</v>
+      <c r="C101" t="s">
+        <v>2373</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="14" t="s">
-        <v>2373</v>
+        <v>2282</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>2273</v>
       </c>
       <c r="C102" s="14" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="14" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="A103" t="s">
+      <c r="B103" s="17" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>2375</v>
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" t="s">
+      <c r="A104" s="14" t="s">
         <v>2376</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>2377</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C108" t="s">
         <v>2381</v>
       </c>
     </row>
@@ -32494,15 +32525,15 @@
       <c r="A109" t="s">
         <v>2382</v>
       </c>
-      <c r="B109" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2383</v>
-      </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C110" t="s">
         <v>2384</v>
       </c>
     </row>
@@ -32510,89 +32541,112 @@
       <c r="A111" t="s">
         <v>2385</v>
       </c>
+      <c r="B111" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2386</v>
+      </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25"/>
-    <row r="129" ht="14.25"/>
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <hyperlinks>
@@ -32641,37 +32695,37 @@
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>2402</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>2403</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>2404</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>2405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>2406</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>2407</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
     </row>
   </sheetData>
@@ -32712,296 +32766,296 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2409</v>
+        <v>2414</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>2411</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2412</v>
+        <v>2417</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>2413</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2414</v>
+        <v>2419</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2410</v>
+        <v>2415</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>2415</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2416</v>
+        <v>2421</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>2418</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2419</v>
+        <v>2424</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>2420</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2422</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2423</v>
+        <v>2428</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>2424</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2425</v>
+        <v>2430</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>2426</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2427</v>
+        <v>2432</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>2417</v>
+        <v>2422</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>2428</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2429</v>
+        <v>2434</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>2431</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2432</v>
+        <v>2437</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>2433</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2434</v>
+        <v>2439</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>2435</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2436</v>
+        <v>2441</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>2437</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2438</v>
+        <v>2443</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2439</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2440</v>
+        <v>2445</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>2441</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2442</v>
+        <v>2447</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2443</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2444</v>
+        <v>2449</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2445</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2446</v>
+        <v>2451</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>2447</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2448</v>
+        <v>2453</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>2449</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2450</v>
+        <v>2455</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>2451</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2452</v>
+        <v>2457</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>2453</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2454</v>
+        <v>2459</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>2455</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2456</v>
+        <v>2461</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>2457</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2458</v>
+        <v>2463</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>2459</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>2461</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2462</v>
+        <v>2467</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2430</v>
+        <v>2435</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>2463</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>2197</v>
@@ -33009,838 +33063,838 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2466</v>
+        <v>2471</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>2468</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2469</v>
+        <v>2474</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2470</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2472</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>2474</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2477</v>
+        <v>2482</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>2478</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2479</v>
+        <v>2484</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>2482</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2483</v>
+        <v>2488</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>2484</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2485</v>
+        <v>2490</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>2487</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2488</v>
+        <v>2493</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>2489</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>2491</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2492</v>
+        <v>2497</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>2493</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2494</v>
+        <v>2499</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2495</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2496</v>
+        <v>2501</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>2497</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2498</v>
+        <v>2503</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>2499</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>2501</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2502</v>
+        <v>2507</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2503</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2504</v>
+        <v>2509</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>2505</v>
+        <v>2510</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>2506</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2507</v>
+        <v>2512</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>2509</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2510</v>
+        <v>2515</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>2511</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2512</v>
+        <v>2517</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>2513</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2514</v>
+        <v>2519</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>2515</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2516</v>
+        <v>2521</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>2517</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2518</v>
+        <v>2523</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2519</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2520</v>
+        <v>2525</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>2522</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2523</v>
+        <v>2528</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>2524</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2525</v>
+        <v>2530</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>2526</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2527</v>
+        <v>2532</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>2528</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2529</v>
+        <v>2534</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>2530</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2531</v>
+        <v>2536</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>2532</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2533</v>
+        <v>2538</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>2534</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2535</v>
+        <v>2540</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>2536</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>2538</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>2540</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2541</v>
+        <v>2546</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>2542</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2543</v>
+        <v>2548</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2544</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2545</v>
+        <v>2550</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>2546</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2547</v>
+        <v>2552</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>2548</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>2550</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2551</v>
+        <v>2556</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>2552</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2553</v>
+        <v>2558</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>2554</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2555</v>
+        <v>2560</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>2556</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2557</v>
+        <v>2562</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>2558</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>2560</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2561</v>
+        <v>2566</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>2562</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2563</v>
+        <v>2568</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2565</v>
+        <v>2570</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>2572</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2573</v>
+        <v>2578</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>2578</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2581</v>
+        <v>2586</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>2582</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2583</v>
+        <v>2588</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>2584</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2585</v>
+        <v>2590</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>2586</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2587</v>
+        <v>2592</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>2588</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2589</v>
+        <v>2594</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>2590</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2591</v>
+        <v>2596</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>2592</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2593</v>
+        <v>2598</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>2594</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2595</v>
+        <v>2600</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>2596</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>2598</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2599</v>
+        <v>2604</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>2600</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2601</v>
+        <v>2606</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>2602</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2603</v>
+        <v>2608</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>2604</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>2606</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2607</v>
+        <v>2612</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>2608</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2609</v>
+        <v>2614</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>2610</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2611</v>
+        <v>2616</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>2612</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2613</v>
+        <v>2618</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>2614</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2615</v>
+        <v>2620</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>2616</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>2521</v>
+        <v>2526</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>2618</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2619</v>
+        <v>2624</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>2620</v>
+        <v>2625</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>2621</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2622</v>
+        <v>2627</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>2620</v>
+        <v>2625</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>2623</v>
+        <v>2628</v>
       </c>
     </row>
   </sheetData>
@@ -33863,245 +33917,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="18" width="46.7109375"/>
-    <col customWidth="1" min="2" max="2" style="19" width="29.7109375"/>
-    <col customWidth="1" min="3" max="3" style="19" width="13.8515625"/>
-    <col min="4" max="4" style="19" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="20" width="46.7109375"/>
+    <col customWidth="1" min="2" max="2" style="21" width="29.7109375"/>
+    <col customWidth="1" min="3" max="3" style="21" width="13.8515625"/>
+    <col min="4" max="4" style="21" width="9.140625"/>
     <col customWidth="1" min="5" max="5" width="21.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="22" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>2624</v>
+      <c r="D1" s="22" t="s">
+        <v>2629</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="20" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C2" s="21">
         <v>1969</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="21">
         <v>1973</v>
       </c>
       <c r="E2" t="s">
-        <v>2627</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>2628</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
-        <v>2629</v>
+      <c r="A3" s="20" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>2634</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="A4" s="20" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>2631</v>
       </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>2636</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="20" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>2633</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="20" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>2634</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="20" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>2635</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="20" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="20" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="20" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="18" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="A11" s="20" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C11" s="24">
         <v>1995</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="26">
         <v>1999</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>2639</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="20" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="18" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="20" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="18" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="20" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="18" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="20" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="18" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="20" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="18" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="20" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -34149,379 +34203,379 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>2646</v>
+        <v>2650</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2651</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D2" s="26">
+        <v>2652</v>
+      </c>
+      <c r="D2" s="28">
         <v>1968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2648</v>
+        <v>2653</v>
       </c>
       <c r="B3" t="s">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D3" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D3" s="21">
         <v>1973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>2650</v>
+        <v>2655</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="C4" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D4" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D4" s="21">
         <v>1977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>2651</v>
+        <v>2656</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D5" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D5" s="21">
         <v>1970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>1969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>2653</v>
+        <v>2658</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D7" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D7" s="21">
         <v>1985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>2654</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>2649</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D8" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D8" s="21">
         <v>1991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2655</v>
+        <v>2660</v>
       </c>
       <c r="B9" t="s">
-        <v>2656</v>
+        <v>2661</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D9" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D9" s="21">
         <v>1981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2657</v>
+        <v>2662</v>
       </c>
       <c r="B10" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D10" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D10" s="21">
         <v>1983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>2659</v>
+        <v>2664</v>
       </c>
       <c r="B11" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C11" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D11" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D11" s="21">
         <v>1972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="B12" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C12" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D12" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D12" s="21">
         <v>1974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>2661</v>
+        <v>2666</v>
       </c>
       <c r="B13" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D13" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D13" s="21">
         <v>1978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>2662</v>
+        <v>2667</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D14" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D14" s="21">
         <v>1973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>2663</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>2658</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D15" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D15" s="21">
         <v>1975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>2664</v>
+        <v>2669</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D16" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D16" s="21">
         <v>1977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>2665</v>
+        <v>2670</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D17" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D17" s="21">
         <v>1981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>2666</v>
+        <v>2671</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D18" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D18" s="21">
         <v>1992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>2667</v>
+        <v>2672</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D19" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D19" s="21">
         <v>1982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>2668</v>
+        <v>2673</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D20" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D20" s="21">
         <v>1995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2669</v>
+        <v>2674</v>
       </c>
       <c r="B21" t="s">
-        <v>2670</v>
+        <v>2675</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D21" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D21" s="21">
         <v>1983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="B22" t="s">
-        <v>2672</v>
+        <v>2677</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D22" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D22" s="21">
         <v>1983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2673</v>
+        <v>2678</v>
       </c>
       <c r="B23" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D23" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D23" s="21">
         <v>1987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2675</v>
+        <v>2680</v>
       </c>
       <c r="B24" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D24" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D24" s="21">
         <v>1988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>2676</v>
+        <v>2681</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D25" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D25" s="21">
         <v>1973</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>2677</v>
+        <v>2682</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D26" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D26" s="21">
         <v>1982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2678</v>
+        <v>2683</v>
       </c>
       <c r="B27" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D27" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D27" s="21">
         <v>1988</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>2680</v>
+        <v>2685</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C28" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D28" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D28" s="21">
         <v>2004</v>
       </c>
     </row>
@@ -34530,1309 +34584,1309 @@
         <v>481</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C29" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D29" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D29" s="21">
         <v>2001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>2681</v>
+        <v>2686</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D30" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D30" s="21">
         <v>1983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>2683</v>
+        <v>2688</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D31" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D31" s="21">
         <v>1993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>2684</v>
+        <v>2689</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D32" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D32" s="21">
         <v>1989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2685</v>
+        <v>2690</v>
       </c>
       <c r="B33" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D33" s="26">
+        <v>2652</v>
+      </c>
+      <c r="D33" s="28">
         <v>1985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>2686</v>
+        <v>2691</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C34" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D34" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D34" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B35" t="s">
         <v>2687</v>
       </c>
-      <c r="B35" t="s">
-        <v>2682</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D35" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D35" s="21">
         <v>1995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>2688</v>
+        <v>2693</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>2682</v>
+        <v>2687</v>
       </c>
       <c r="C36" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D36" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D36" s="21">
         <v>2008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2689</v>
+        <v>2694</v>
       </c>
       <c r="B37" t="s">
-        <v>2690</v>
+        <v>2695</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D37" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D37" s="21">
         <v>1999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>2691</v>
+        <v>2696</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>2690</v>
+        <v>2695</v>
       </c>
       <c r="C38" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D38" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D38" s="21">
         <v>1990</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2692</v>
+        <v>2697</v>
       </c>
       <c r="B39" t="s">
-        <v>2693</v>
+        <v>2698</v>
       </c>
       <c r="C39" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D39" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D39" s="21">
         <v>1980</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>2694</v>
+        <v>2699</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>2695</v>
+        <v>2700</v>
       </c>
       <c r="C40" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D40" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D40" s="21">
         <v>1982</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>2696</v>
+        <v>2701</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>2697</v>
+        <v>2702</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D41" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D41" s="21">
         <v>1985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>2698</v>
+        <v>2703</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D42" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D42" s="21">
         <v>2001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>2700</v>
+        <v>2705</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D43" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D43" s="21">
         <v>1984</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>2701</v>
+        <v>2706</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D44" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D44" s="21">
         <v>1987</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>2702</v>
+        <v>2707</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D45" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D45" s="21">
         <v>1987</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>2703</v>
+        <v>2708</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D46" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D46" s="21">
         <v>1988</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>2704</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>2699</v>
-      </c>
       <c r="C47" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D47" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D47" s="21">
         <v>1990</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>2705</v>
+        <v>2710</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D48" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D48" s="21">
         <v>1993</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>2706</v>
+        <v>2711</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D49" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D49" s="21">
         <v>2007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>2707</v>
+        <v>2712</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>2697</v>
+        <v>2702</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D50" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D50" s="21">
         <v>1986</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>2708</v>
+        <v>2713</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D51" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D51" s="21">
         <v>1986</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>2710</v>
+        <v>2715</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D52" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D52" s="21">
         <v>1986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>2711</v>
+        <v>2716</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D53" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D53" s="21">
         <v>1989</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>2712</v>
+        <v>2717</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D54" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D54" s="21">
         <v>1992</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>2713</v>
+        <v>2718</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D55" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D55" s="21">
         <v>1995</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>2714</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>2709</v>
-      </c>
       <c r="C56" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D56" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D56" s="21">
         <v>1997</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>2715</v>
+        <v>2720</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D57" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D57" s="21">
         <v>2001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>2716</v>
+        <v>2721</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D58" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D58" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>2717</v>
+        <v>2722</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D59" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D59" s="21">
         <v>2008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>2718</v>
+        <v>2723</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D60" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D60" s="21">
         <v>2013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>2719</v>
+        <v>2724</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D61" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D61" s="21">
         <v>2023</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>2720</v>
+        <v>2725</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>2721</v>
+        <v>2726</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D62" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D62" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>2722</v>
+        <v>2727</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>2721</v>
+        <v>2726</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D63" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D63" s="21">
         <v>2011</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>2723</v>
+        <v>2728</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D64" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D64" s="21">
         <v>1988</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>2725</v>
+        <v>2730</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D65" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D65" s="21">
         <v>1991</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>2726</v>
+        <v>2731</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D66" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D66" s="21">
         <v>1994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>2727</v>
+        <v>2732</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D67" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D67" s="21">
         <v>1999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>2728</v>
+        <v>2733</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D68" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D68" s="21">
         <v>2013</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>2729</v>
+        <v>2734</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D69" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D69" s="21">
         <v>2002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D70" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D70" s="21">
         <v>2010</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="14" t="s">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D71" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D71" s="21">
         <v>2014</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D72" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D72" s="21">
         <v>1999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="C73" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D73" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D73" s="21">
         <v>1993</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>2738</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>2739</v>
+        <v>2743</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>2744</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D74" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D74" s="21">
         <v>1926</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>2741</v>
+        <v>2746</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D75" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D75" s="21">
         <v>1986</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>2742</v>
+        <v>2747</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>2743</v>
+        <v>2748</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D76" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D76" s="21">
         <v>1982</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="14" t="s">
-        <v>2744</v>
+        <v>2749</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>2745</v>
+        <v>2750</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D77" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D77" s="21">
         <v>2015</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" t="s">
-        <v>2746</v>
+        <v>2751</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>2747</v>
+        <v>2752</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D78" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D78" s="21">
         <v>2007</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" t="s">
-        <v>2749</v>
+        <v>2754</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>2749</v>
+        <v>2754</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D79" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D79" s="21">
         <v>2016</v>
       </c>
       <c r="E79" t="s">
-        <v>2750</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="14" t="s">
-        <v>2751</v>
+        <v>2756</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D80" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D80" s="21">
         <v>1997</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" t="s">
-        <v>2752</v>
-      </c>
-      <c r="B81" s="25" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D81" s="19">
+      <c r="D81" s="21">
         <v>1997</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="17" t="s">
-        <v>2707</v>
+        <v>2712</v>
       </c>
       <c r="B82" t="s">
-        <v>2697</v>
+        <v>2702</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D82" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D82" s="21">
         <v>1984</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="14" t="s">
-        <v>2754</v>
+        <v>2759</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D83" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D83" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>2757</v>
+        <v>2761</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>2762</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D84" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D84" s="21">
         <v>1988</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" t="s">
-        <v>2758</v>
+        <v>2763</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>2759</v>
+        <v>2764</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D85" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D85" s="21">
         <v>1983</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" t="s">
-        <v>2760</v>
+        <v>2765</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D86" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D86" s="21">
         <v>1993</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" t="s">
-        <v>2761</v>
+        <v>2766</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>2762</v>
+        <v>2767</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D87" s="26">
+        <v>2753</v>
+      </c>
+      <c r="D87" s="28">
         <v>1995</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" t="s">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>2764</v>
+        <v>2769</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D88" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D88" s="21">
         <v>1998</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="14" t="s">
-        <v>2765</v>
+        <v>2770</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>2766</v>
+        <v>2771</v>
       </c>
       <c r="C89" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D89" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D89" s="21">
         <v>2025</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" t="s">
-        <v>2767</v>
+        <v>2772</v>
       </c>
       <c r="B90" t="s">
-        <v>2766</v>
+        <v>2771</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D90" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D90" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" t="s">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="B91" t="s">
-        <v>2766</v>
+        <v>2771</v>
       </c>
       <c r="C91" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D91" s="26">
+        <v>2753</v>
+      </c>
+      <c r="D91" s="28">
         <v>1998</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="14" t="s">
-        <v>2769</v>
+        <v>2774</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>2766</v>
+        <v>2771</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D92" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D92" s="21">
         <v>1994</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="14" t="s">
-        <v>2770</v>
+        <v>2775</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>2771</v>
+        <v>2776</v>
       </c>
       <c r="C93" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D93" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D93" s="21">
         <v>2008</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" t="s">
-        <v>2772</v>
+        <v>2777</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>2773</v>
+        <v>2778</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D94" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D94" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="14" t="s">
-        <v>2774</v>
+        <v>2779</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>2775</v>
+        <v>2780</v>
       </c>
       <c r="C95" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D95" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D95" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="14" t="s">
-        <v>2776</v>
+        <v>2781</v>
       </c>
       <c r="B96" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D96" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D96" s="21">
         <v>2001</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" t="s">
-        <v>2778</v>
+        <v>2783</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D97" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D97" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" t="s">
-        <v>2779</v>
+        <v>2784</v>
       </c>
       <c r="B98" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D98" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D98" s="21">
         <v>1997</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="14" t="s">
-        <v>2780</v>
+        <v>2785</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="C99" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D99" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D99" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="14" t="s">
-        <v>2781</v>
+        <v>2786</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D100" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D100" s="21">
         <v>1995</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="6" t="s">
-        <v>2782</v>
+        <v>2787</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>2783</v>
+        <v>2788</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D101" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D101" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="6" t="s">
-        <v>2784</v>
+        <v>2789</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>2785</v>
+        <v>2790</v>
       </c>
       <c r="C102" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D102" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D102" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="14" t="s">
-        <v>2786</v>
+        <v>2791</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>2787</v>
+        <v>2792</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D103" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D103" s="21">
         <v>2003</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="14" t="s">
-        <v>2788</v>
+        <v>2793</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>2789</v>
+        <v>2794</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D104" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D104" s="21">
         <v>2007</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="14" t="s">
-        <v>2790</v>
+        <v>2795</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>2791</v>
+        <v>2796</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D105" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D105" s="21">
         <v>2019</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="14" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>2792</v>
+        <v>2709</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>2797</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D106" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D106" s="21">
         <v>1990</v>
       </c>
     </row>
     <row r="107" ht="14.25">
       <c r="A107" s="14" t="s">
-        <v>2793</v>
+        <v>2798</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>2794</v>
+        <v>2799</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D107" s="19">
+        <v>2753</v>
+      </c>
+      <c r="D107" s="21">
         <v>1979</v>
       </c>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="14" t="s">
-        <v>2728</v>
+        <v>2733</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>2724</v>
+        <v>2729</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D108" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D108" s="21">
         <v>2013</v>
       </c>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="14" t="s">
-        <v>2795</v>
+        <v>2800</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>2796</v>
+        <v>2801</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D109" s="19">
+        <v>2802</v>
+      </c>
+      <c r="D109" s="21">
         <v>2003</v>
       </c>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="14" t="s">
-        <v>2798</v>
+        <v>2803</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>2799</v>
+        <v>2804</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D110" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D110" s="21">
         <v>2007</v>
       </c>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="14" t="s">
-        <v>2800</v>
+        <v>2805</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>2801</v>
+        <v>2806</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D111" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D111" s="21">
         <v>2019</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="14" t="s">
-        <v>2802</v>
+        <v>2807</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D112" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D112" s="21">
         <v>1981</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" t="s">
-        <v>2804</v>
+        <v>2809</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>2777</v>
+        <v>2782</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D113" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D113" s="21">
         <v>2003</v>
       </c>
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="14" t="s">
-        <v>2805</v>
+        <v>2810</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>2806</v>
+        <v>2811</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D114" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D114" s="21">
         <v>1998</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="14" t="s">
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D115" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D115" s="21">
         <v>2009</v>
       </c>
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="14" t="s">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>395</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D116" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D116" s="21">
         <v>2005</v>
       </c>
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="14" t="s">
-        <v>2810</v>
+        <v>2815</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>2811</v>
+        <v>2816</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D117" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D117" s="21">
         <v>2006</v>
       </c>
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="14" t="s">
-        <v>2812</v>
+        <v>2817</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>2813</v>
+        <v>2818</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D118" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D118" s="21">
         <v>2008</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="14" t="s">
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D119" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D119" s="21">
         <v>2009</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="14" t="s">
-        <v>2814</v>
+        <v>2819</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>2815</v>
+        <v>2820</v>
       </c>
       <c r="C120" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D120" s="19">
+        <v>2802</v>
+      </c>
+      <c r="D120" s="21">
         <v>2007</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="14" t="s">
-        <v>2816</v>
+        <v>2821</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>2743</v>
+        <v>2748</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D121" s="19">
+        <v>2652</v>
+      </c>
+      <c r="D121" s="21">
         <v>1982</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="B125" s="14" t="s">
-        <v>2817</v>
+        <v>2822</v>
       </c>
     </row>
   </sheetData>
@@ -35846,745 +35900,753 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="23" width="66.57421875"/>
-    <col customWidth="1" min="2" max="2" style="23" width="40.7109375"/>
-    <col customWidth="1" min="3" max="4" style="23" width="22.00390625"/>
-    <col customWidth="1" min="5" max="5" style="23" width="41.57421875"/>
-    <col min="6" max="16384" style="23" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="25" width="66.57421875"/>
+    <col customWidth="1" min="2" max="2" style="25" width="40.7109375"/>
+    <col customWidth="1" min="3" max="4" style="25" width="22.00390625"/>
+    <col customWidth="1" min="5" max="5" style="25" width="41.57421875"/>
+    <col min="6" max="16384" style="25" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>2818</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="30" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="23" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="25" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="23" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="25" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="23" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>2824</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="25" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>2825</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="23" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="25" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="23" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="25" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="23" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="25" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="23" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="25" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="23" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="25" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="23" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="25" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="23" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="25" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="23" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="32" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="25" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="23" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>2836</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32" t="s">
-        <v>2838</v>
+      <c r="A15" s="25" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>2843</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="23" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="25" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="23" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="25" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>2842</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="23" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="25" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="23" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>2846</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32" t="s">
-        <v>2848</v>
+      <c r="A19" s="25" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>2853</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="23" t="s">
-        <v>2849</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>2850</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="25" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="23" t="s">
-        <v>2851</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="25" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>2852</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>2847</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32" t="s">
-        <v>2853</v>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
+        <v>2858</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="23" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>2855</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="25" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="23" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>2855</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="25" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="23" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>2858</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>2858</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="25" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="23" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>2861</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="25" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="23" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="25" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="23" t="s">
-        <v>2865</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="25" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="23" t="s">
-        <v>2866</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="25" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="23" t="s">
-        <v>2867</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="25" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="23" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="25" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>2869</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="23" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>2864</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="25" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="23" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>2872</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="25" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="23" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>2872</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="25" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="23" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>2872</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="25" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="23" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>2872</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="25" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="23" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="25" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="23" t="s">
-        <v>2878</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32" t="s">
-        <v>2879</v>
+      <c r="A38" s="25" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34" t="s">
+        <v>2884</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="23" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="25" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="33" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="A40" s="35" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="23" t="s">
-        <v>2883</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="25" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="23" t="s">
-        <v>2884</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="A42" s="25" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="23" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="A43" s="25" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="23" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="A44" s="25" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="23" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="A45" s="25" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="34">
+      <c r="A46" s="36">
         <v>300</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="34" t="s">
-        <v>2889</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="36" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="34" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="A48" s="36" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="23" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="25" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="23" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="A50" s="25" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="23" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="A51" s="25" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="23" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="A52" s="25" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="23" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="A53" s="25" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="23" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="A54" s="25" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="C55" s="23"/>
+      <c r="A55" s="25" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>2906</v>
+      </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="C56" s="23"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="C58" s="23"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="C59" s="23"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="C60" s="23"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="C62" s="23"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="C63" s="23"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="C64" s="23"/>
+      <c r="C64" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -36620,7 +36682,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>2900</v>
+        <v>2907</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -36634,170 +36696,170 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2901</v>
+        <v>2908</v>
       </c>
       <c r="B2" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2903</v>
+        <v>2910</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2904</v>
+        <v>2911</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2905</v>
+        <v>2912</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>2230</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>2906</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2907</v>
+        <v>2914</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>2908</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2909</v>
+        <v>2916</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2910</v>
+        <v>2917</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2343</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2911</v>
+        <v>2918</v>
       </c>
       <c r="B9" t="s">
-        <v>2343</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2912</v>
+        <v>2919</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2913</v>
+        <v>2920</v>
       </c>
       <c r="B11" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2914</v>
+        <v>2921</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>2908</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2915</v>
+        <v>2922</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2916</v>
+        <v>2923</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>2917</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2918</v>
+        <v>2925</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2919</v>
+        <v>2926</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2913</v>
+        <v>2920</v>
       </c>
       <c r="B17" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2920</v>
+        <v>2927</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2921</v>
+        <v>2928</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2922</v>
+        <v>2929</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2923</v>
+        <v>2930</v>
       </c>
       <c r="B21" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2924</v>
+        <v>2931</v>
       </c>
       <c r="B22" t="s">
         <v>2273</v>
@@ -36805,7 +36867,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2925</v>
+        <v>2932</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>2273</v>
@@ -36813,18 +36875,18 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2926</v>
+        <v>2933</v>
       </c>
       <c r="B24" t="s">
-        <v>2908</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2927</v>
+        <v>2934</v>
       </c>
       <c r="B25" t="s">
-        <v>2902</v>
+        <v>2909</v>
       </c>
     </row>
   </sheetData>

--- a/JellyFin_Server.xlsx
+++ b/JellyFin_Server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Movies SELECTED" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="2937">
   <si>
     <t>Title</t>
   </si>
@@ -8498,6 +8498,12 @@
   </si>
   <si>
     <t xml:space="preserve">Secret of NIMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragons Heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makoto Kobayashi</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -8961,7 +8967,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9003,10 +9009,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -9038,6 +9040,7 @@
     <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -32241,13 +32244,13 @@
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>2324</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="14" t="s">
         <v>2334</v>
       </c>
     </row>
@@ -33917,24 +33920,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="20" width="46.7109375"/>
-    <col customWidth="1" min="2" max="2" style="21" width="29.7109375"/>
-    <col customWidth="1" min="3" max="3" style="21" width="13.8515625"/>
-    <col min="4" max="4" style="21" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="18" width="46.7109375"/>
+    <col customWidth="1" min="2" max="2" style="19" width="29.7109375"/>
+    <col customWidth="1" min="3" max="3" style="19" width="13.8515625"/>
+    <col min="4" max="4" style="19" width="9.140625"/>
     <col customWidth="1" min="5" max="5" width="21.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="20" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>2629</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -33942,16 +33945,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>2630</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1969</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>1973</v>
       </c>
       <c r="E2" t="s">
@@ -33959,203 +33962,203 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>2633</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>2634</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>2635</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>2636</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>2637</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>2638</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>2639</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>2640</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>2641</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>2642</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>2643</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>1995</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>1999</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>2644</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>2645</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>2646</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>2647</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>2648</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>2649</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>2631</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -34205,13 +34208,13 @@
       <c r="A2" t="s">
         <v>2650</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>2651</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>1968</v>
       </c>
     </row>
@@ -34225,7 +34228,7 @@
       <c r="C3" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>1973</v>
       </c>
     </row>
@@ -34239,7 +34242,7 @@
       <c r="C4" t="s">
         <v>2652</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>1977</v>
       </c>
     </row>
@@ -34253,7 +34256,7 @@
       <c r="C5" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>1970</v>
       </c>
     </row>
@@ -34267,7 +34270,7 @@
       <c r="C6" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>1969</v>
       </c>
     </row>
@@ -34281,7 +34284,7 @@
       <c r="C7" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>1985</v>
       </c>
     </row>
@@ -34295,7 +34298,7 @@
       <c r="C8" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>1991</v>
       </c>
     </row>
@@ -34309,7 +34312,7 @@
       <c r="C9" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>1981</v>
       </c>
     </row>
@@ -34323,7 +34326,7 @@
       <c r="C10" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>1983</v>
       </c>
     </row>
@@ -34337,7 +34340,7 @@
       <c r="C11" t="s">
         <v>2652</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>1972</v>
       </c>
     </row>
@@ -34351,7 +34354,7 @@
       <c r="C12" t="s">
         <v>2652</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>1974</v>
       </c>
     </row>
@@ -34365,7 +34368,7 @@
       <c r="C13" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>1978</v>
       </c>
     </row>
@@ -34379,7 +34382,7 @@
       <c r="C14" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>1973</v>
       </c>
     </row>
@@ -34393,7 +34396,7 @@
       <c r="C15" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>1975</v>
       </c>
     </row>
@@ -34407,7 +34410,7 @@
       <c r="C16" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>1977</v>
       </c>
     </row>
@@ -34421,7 +34424,7 @@
       <c r="C17" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>1981</v>
       </c>
     </row>
@@ -34435,7 +34438,7 @@
       <c r="C18" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>1992</v>
       </c>
     </row>
@@ -34449,7 +34452,7 @@
       <c r="C19" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>1982</v>
       </c>
     </row>
@@ -34463,7 +34466,7 @@
       <c r="C20" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>1995</v>
       </c>
     </row>
@@ -34477,7 +34480,7 @@
       <c r="C21" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>1983</v>
       </c>
     </row>
@@ -34491,7 +34494,7 @@
       <c r="C22" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>1983</v>
       </c>
     </row>
@@ -34505,7 +34508,7 @@
       <c r="C23" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>1987</v>
       </c>
     </row>
@@ -34519,7 +34522,7 @@
       <c r="C24" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>1988</v>
       </c>
     </row>
@@ -34533,7 +34536,7 @@
       <c r="C25" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>1973</v>
       </c>
     </row>
@@ -34547,7 +34550,7 @@
       <c r="C26" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>1982</v>
       </c>
     </row>
@@ -34561,7 +34564,7 @@
       <c r="C27" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>1988</v>
       </c>
     </row>
@@ -34575,7 +34578,7 @@
       <c r="C28" t="s">
         <v>2652</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -34589,7 +34592,7 @@
       <c r="C29" t="s">
         <v>2652</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>2001</v>
       </c>
     </row>
@@ -34603,7 +34606,7 @@
       <c r="C30" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>1983</v>
       </c>
     </row>
@@ -34617,7 +34620,7 @@
       <c r="C31" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>1993</v>
       </c>
     </row>
@@ -34631,7 +34634,7 @@
       <c r="C32" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>1989</v>
       </c>
     </row>
@@ -34645,7 +34648,7 @@
       <c r="C33" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="26">
         <v>1985</v>
       </c>
     </row>
@@ -34659,7 +34662,7 @@
       <c r="C34" t="s">
         <v>2652</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -34673,7 +34676,7 @@
       <c r="C35" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>1995</v>
       </c>
     </row>
@@ -34687,7 +34690,7 @@
       <c r="C36" t="s">
         <v>2652</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>2008</v>
       </c>
     </row>
@@ -34701,7 +34704,7 @@
       <c r="C37" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>1999</v>
       </c>
     </row>
@@ -34715,7 +34718,7 @@
       <c r="C38" t="s">
         <v>2652</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>1990</v>
       </c>
     </row>
@@ -34729,7 +34732,7 @@
       <c r="C39" t="s">
         <v>2652</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>1980</v>
       </c>
     </row>
@@ -34743,7 +34746,7 @@
       <c r="C40" t="s">
         <v>2652</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="19">
         <v>1982</v>
       </c>
     </row>
@@ -34757,7 +34760,7 @@
       <c r="C41" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <v>1985</v>
       </c>
     </row>
@@ -34771,7 +34774,7 @@
       <c r="C42" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <v>2001</v>
       </c>
     </row>
@@ -34785,7 +34788,7 @@
       <c r="C43" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <v>1984</v>
       </c>
     </row>
@@ -34799,7 +34802,7 @@
       <c r="C44" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <v>1987</v>
       </c>
     </row>
@@ -34813,7 +34816,7 @@
       <c r="C45" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <v>1987</v>
       </c>
     </row>
@@ -34827,7 +34830,7 @@
       <c r="C46" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="19">
         <v>1988</v>
       </c>
     </row>
@@ -34841,7 +34844,7 @@
       <c r="C47" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="19">
         <v>1990</v>
       </c>
     </row>
@@ -34855,7 +34858,7 @@
       <c r="C48" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="19">
         <v>1993</v>
       </c>
     </row>
@@ -34869,7 +34872,7 @@
       <c r="C49" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="19">
         <v>2007</v>
       </c>
     </row>
@@ -34883,7 +34886,7 @@
       <c r="C50" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="19">
         <v>1986</v>
       </c>
     </row>
@@ -34897,7 +34900,7 @@
       <c r="C51" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>1986</v>
       </c>
     </row>
@@ -34911,7 +34914,7 @@
       <c r="C52" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="19">
         <v>1986</v>
       </c>
     </row>
@@ -34925,7 +34928,7 @@
       <c r="C53" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="19">
         <v>1989</v>
       </c>
     </row>
@@ -34939,7 +34942,7 @@
       <c r="C54" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>1992</v>
       </c>
     </row>
@@ -34953,7 +34956,7 @@
       <c r="C55" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>1995</v>
       </c>
     </row>
@@ -34967,7 +34970,7 @@
       <c r="C56" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="19">
         <v>1997</v>
       </c>
     </row>
@@ -34981,7 +34984,7 @@
       <c r="C57" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="19">
         <v>2001</v>
       </c>
     </row>
@@ -34995,7 +34998,7 @@
       <c r="C58" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -35009,7 +35012,7 @@
       <c r="C59" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="19">
         <v>2008</v>
       </c>
     </row>
@@ -35023,7 +35026,7 @@
       <c r="C60" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="19">
         <v>2013</v>
       </c>
     </row>
@@ -35037,7 +35040,7 @@
       <c r="C61" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="19">
         <v>2023</v>
       </c>
     </row>
@@ -35051,7 +35054,7 @@
       <c r="C62" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35065,7 +35068,7 @@
       <c r="C63" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="19">
         <v>2011</v>
       </c>
     </row>
@@ -35079,7 +35082,7 @@
       <c r="C64" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="19">
         <v>1988</v>
       </c>
     </row>
@@ -35093,7 +35096,7 @@
       <c r="C65" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="19">
         <v>1991</v>
       </c>
     </row>
@@ -35107,7 +35110,7 @@
       <c r="C66" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="19">
         <v>1994</v>
       </c>
     </row>
@@ -35121,7 +35124,7 @@
       <c r="C67" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="19">
         <v>1999</v>
       </c>
     </row>
@@ -35135,7 +35138,7 @@
       <c r="C68" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="19">
         <v>2013</v>
       </c>
     </row>
@@ -35149,7 +35152,7 @@
       <c r="C69" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="19">
         <v>2002</v>
       </c>
     </row>
@@ -35163,7 +35166,7 @@
       <c r="C70" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="19">
         <v>2010</v>
       </c>
     </row>
@@ -35177,7 +35180,7 @@
       <c r="C71" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="19">
         <v>2014</v>
       </c>
     </row>
@@ -35191,7 +35194,7 @@
       <c r="C72" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="19">
         <v>1999</v>
       </c>
     </row>
@@ -35205,7 +35208,7 @@
       <c r="C73" t="s">
         <v>2652</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="19">
         <v>1993</v>
       </c>
     </row>
@@ -35213,13 +35216,13 @@
       <c r="A74" s="14" t="s">
         <v>2743</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="25" t="s">
         <v>2744</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="19">
         <v>1926</v>
       </c>
     </row>
@@ -35233,7 +35236,7 @@
       <c r="C75" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="19">
         <v>1986</v>
       </c>
     </row>
@@ -35247,7 +35250,7 @@
       <c r="C76" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="19">
         <v>1982</v>
       </c>
     </row>
@@ -35261,7 +35264,7 @@
       <c r="C77" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="19">
         <v>2015</v>
       </c>
     </row>
@@ -35275,7 +35278,7 @@
       <c r="C78" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="19">
         <v>2007</v>
       </c>
     </row>
@@ -35289,7 +35292,7 @@
       <c r="C79" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="19">
         <v>2016</v>
       </c>
       <c r="E79" t="s">
@@ -35306,7 +35309,7 @@
       <c r="C80" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="19">
         <v>1997</v>
       </c>
     </row>
@@ -35314,13 +35317,13 @@
       <c r="A81" t="s">
         <v>2757</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="25" t="s">
         <v>2758</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="19">
         <v>1997</v>
       </c>
     </row>
@@ -35334,7 +35337,7 @@
       <c r="C82" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="19">
         <v>1984</v>
       </c>
     </row>
@@ -35348,7 +35351,7 @@
       <c r="C83" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35356,13 +35359,13 @@
       <c r="A84" t="s">
         <v>2761</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="27" t="s">
         <v>2762</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="19">
         <v>1988</v>
       </c>
     </row>
@@ -35376,7 +35379,7 @@
       <c r="C85" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="19">
         <v>1983</v>
       </c>
     </row>
@@ -35390,7 +35393,7 @@
       <c r="C86" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="19">
         <v>1993</v>
       </c>
     </row>
@@ -35404,7 +35407,7 @@
       <c r="C87" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="26">
         <v>1995</v>
       </c>
     </row>
@@ -35418,7 +35421,7 @@
       <c r="C88" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="19">
         <v>1998</v>
       </c>
     </row>
@@ -35432,7 +35435,7 @@
       <c r="C89" t="s">
         <v>2753</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="19">
         <v>2025</v>
       </c>
     </row>
@@ -35446,7 +35449,7 @@
       <c r="C90" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -35460,7 +35463,7 @@
       <c r="C91" t="s">
         <v>2753</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="26">
         <v>1998</v>
       </c>
     </row>
@@ -35474,7 +35477,7 @@
       <c r="C92" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="19">
         <v>1994</v>
       </c>
     </row>
@@ -35488,7 +35491,7 @@
       <c r="C93" t="s">
         <v>2753</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="19">
         <v>2008</v>
       </c>
     </row>
@@ -35502,7 +35505,7 @@
       <c r="C94" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -35516,7 +35519,7 @@
       <c r="C95" t="s">
         <v>2753</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35530,7 +35533,7 @@
       <c r="C96" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="19">
         <v>2001</v>
       </c>
     </row>
@@ -35544,7 +35547,7 @@
       <c r="C97" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="19">
         <v>2004</v>
       </c>
     </row>
@@ -35558,7 +35561,7 @@
       <c r="C98" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="19">
         <v>1997</v>
       </c>
     </row>
@@ -35572,7 +35575,7 @@
       <c r="C99" t="s">
         <v>2652</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35586,7 +35589,7 @@
       <c r="C100" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="19">
         <v>1995</v>
       </c>
     </row>
@@ -35600,7 +35603,7 @@
       <c r="C101" s="14" t="s">
         <v>2753</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35614,7 +35617,7 @@
       <c r="C102" t="s">
         <v>2753</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35628,7 +35631,7 @@
       <c r="C103" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="19">
         <v>2003</v>
       </c>
     </row>
@@ -35642,7 +35645,7 @@
       <c r="C104" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="19">
         <v>2007</v>
       </c>
     </row>
@@ -35656,7 +35659,7 @@
       <c r="C105" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D105" s="19">
         <v>2019</v>
       </c>
     </row>
@@ -35664,13 +35667,13 @@
       <c r="A106" s="14" t="s">
         <v>2709</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="28" t="s">
         <v>2797</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="19">
         <v>1990</v>
       </c>
     </row>
@@ -35684,7 +35687,7 @@
       <c r="C107" s="17" t="s">
         <v>2753</v>
       </c>
-      <c r="D107" s="21">
+      <c r="D107" s="19">
         <v>1979</v>
       </c>
     </row>
@@ -35698,7 +35701,7 @@
       <c r="C108" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="19">
         <v>2013</v>
       </c>
     </row>
@@ -35712,7 +35715,7 @@
       <c r="C109" s="14" t="s">
         <v>2802</v>
       </c>
-      <c r="D109" s="21">
+      <c r="D109" s="19">
         <v>2003</v>
       </c>
     </row>
@@ -35726,7 +35729,7 @@
       <c r="C110" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="19">
         <v>2007</v>
       </c>
     </row>
@@ -35740,7 +35743,7 @@
       <c r="C111" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D111" s="19">
         <v>2019</v>
       </c>
     </row>
@@ -35754,7 +35757,7 @@
       <c r="C112" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D112" s="19">
         <v>1981</v>
       </c>
     </row>
@@ -35768,7 +35771,7 @@
       <c r="C113" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="19">
         <v>2003</v>
       </c>
     </row>
@@ -35782,7 +35785,7 @@
       <c r="C114" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D114" s="19">
         <v>1998</v>
       </c>
     </row>
@@ -35796,7 +35799,7 @@
       <c r="C115" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="19">
         <v>2009</v>
       </c>
     </row>
@@ -35810,7 +35813,7 @@
       <c r="C116" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="19">
         <v>2005</v>
       </c>
     </row>
@@ -35824,7 +35827,7 @@
       <c r="C117" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D117" s="19">
         <v>2006</v>
       </c>
     </row>
@@ -35838,7 +35841,7 @@
       <c r="C118" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D118" s="21">
+      <c r="D118" s="19">
         <v>2008</v>
       </c>
     </row>
@@ -35852,7 +35855,7 @@
       <c r="C119" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D119" s="21">
+      <c r="D119" s="19">
         <v>2009</v>
       </c>
     </row>
@@ -35866,7 +35869,7 @@
       <c r="C120" t="s">
         <v>2802</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D120" s="19">
         <v>2007</v>
       </c>
     </row>
@@ -35880,13 +35883,27 @@
       <c r="C121" s="17" t="s">
         <v>2652</v>
       </c>
-      <c r="D121" s="21">
+      <c r="D121" s="19">
         <v>1982</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="29" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D122" s="19">
+        <v>1988</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="B125" s="14" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
     </row>
   </sheetData>
@@ -35906,747 +35923,747 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="25" width="66.57421875"/>
-    <col customWidth="1" min="2" max="2" style="25" width="40.7109375"/>
-    <col customWidth="1" min="3" max="4" style="25" width="22.00390625"/>
-    <col customWidth="1" min="5" max="5" style="25" width="41.57421875"/>
-    <col min="6" max="16384" style="25" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="23" width="66.57421875"/>
+    <col customWidth="1" min="2" max="2" style="23" width="40.7109375"/>
+    <col customWidth="1" min="3" max="4" style="23" width="22.00390625"/>
+    <col customWidth="1" min="5" max="5" style="23" width="41.57421875"/>
+    <col min="6" max="16384" style="23" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="32" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="31" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>2683</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>2684</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="25" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="23" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>2827</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="25" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="23" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="25" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="23" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="25" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="23" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="25" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="23" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="25" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="23" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="25" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="23" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="25" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="23" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>2777</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="25" t="s">
-        <v>2838</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="23" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="25" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="34" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="33" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="25" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="23" t="s">
         <v>2842</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
+      <c r="B15" s="23" t="s">
         <v>2843</v>
       </c>
+      <c r="C15" s="33" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>2845</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>2844</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="25" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="23" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="25" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="23" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="25" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>2851</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>2852</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
+      <c r="B19" s="23" t="s">
         <v>2853</v>
       </c>
+      <c r="C19" s="23" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>2855</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>2854</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>2852</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="25" t="s">
-        <v>2856</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>2857</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>2852</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
+      <c r="A21" s="23" t="s">
         <v>2858</v>
       </c>
+      <c r="B21" s="23" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="s">
+        <v>2860</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="25" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="23" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="25" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>2860</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="23" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="25" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>2863</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="23" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="25" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="A25" s="23" t="s">
         <v>2866</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="33" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="25" t="s">
-        <v>2867</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>2868</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="23" t="s">
         <v>2869</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="23" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="25" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="23" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>2871</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="25" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="23" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="25" t="s">
-        <v>2873</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="23" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="25" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="23" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="25" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="23" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="25" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="23" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="25" t="s">
-        <v>2878</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="23" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>2879</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="25" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="23" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="25" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="23" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>2363</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="33" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="25" t="s">
-        <v>2883</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="23" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>2363</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>2884</v>
       </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33" t="s">
+        <v>2886</v>
+      </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="25" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="23" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>2363</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="C39" s="33" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="35" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="A40" s="34" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="25" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="23" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>2889</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="25" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="23" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="25" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="23" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="25" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="23" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="36">
+      <c r="A46" s="35">
         <v>300</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="36" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="35" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="35" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>2895</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>2893</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="23" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="25" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="23" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="25" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="23" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B51" s="33" t="s">
         <v>2899</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="C51" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="25" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="23" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="25" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>2902</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="23" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="25" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>2904</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="23" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="25" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>2906</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>2906</v>
+      <c r="A55" s="23" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>2908</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="C56" s="25"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="C58" s="25"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="C59" s="25"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="C60" s="25"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="C62" s="25"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="C63" s="25"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="C64" s="25"/>
+      <c r="C64" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -36682,7 +36699,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -36696,15 +36713,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="B2" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2365</v>
@@ -36712,34 +36729,34 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>2911</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>2230</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>2365</v>
@@ -36747,7 +36764,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>2351</v>
@@ -36755,7 +36772,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="B9" t="s">
         <v>2351</v>
@@ -36763,31 +36780,31 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="B11" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>2365</v>
@@ -36795,47 +36812,47 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="B17" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>2365</v>
@@ -36843,7 +36860,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>2365</v>
@@ -36851,7 +36868,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="B21" t="s">
         <v>2365</v>
@@ -36859,7 +36876,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="B22" t="s">
         <v>2273</v>
@@ -36867,7 +36884,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>2273</v>
@@ -36875,18 +36892,18 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="B24" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="B25" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
     </row>
   </sheetData>
